--- a/工资/清典文科/清科文典2020年工资表_0809.xlsx
+++ b/工资/清典文科/清科文典2020年工资表_0809.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mine\my_git\XiRongGe\工资\清典文科\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A154FEA7-1525-45E4-BA75-4354186C1CB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1720ADEA-FC4E-4AC0-9E4E-EB3FB1252C96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3349,124 +3349,7 @@
     <xf numFmtId="167" fontId="33" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3535,6 +3418,12 @@
     <xf numFmtId="168" fontId="6" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3551,6 +3440,120 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3598,6 +3601,15 @@
     <xf numFmtId="165" fontId="12" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3605,15 +3617,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3638,9 +3641,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3995,10 +3995,10 @@
   <dimension ref="A1:BM16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="AS5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BD17" sqref="BD17"/>
+      <selection pane="bottomRight" activeCell="BI13" sqref="BI13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
@@ -4063,145 +4063,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="236" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
-      <c r="P1" s="188"/>
-      <c r="Q1" s="188"/>
-      <c r="R1" s="188"/>
-      <c r="S1" s="188"/>
-      <c r="T1" s="188"/>
-      <c r="U1" s="188"/>
-      <c r="V1" s="188"/>
-      <c r="W1" s="188"/>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="188"/>
-      <c r="Z1" s="188"/>
-      <c r="AA1" s="188"/>
-      <c r="AB1" s="188"/>
-      <c r="AC1" s="188"/>
-      <c r="AD1" s="188"/>
-      <c r="AE1" s="188"/>
-      <c r="AF1" s="188"/>
-      <c r="AG1" s="188"/>
-      <c r="AH1" s="188"/>
-      <c r="AI1" s="188"/>
-      <c r="AJ1" s="188"/>
-      <c r="AK1" s="188"/>
-      <c r="AL1" s="188"/>
-      <c r="AM1" s="188"/>
-      <c r="AN1" s="188"/>
-      <c r="AO1" s="188"/>
-      <c r="AP1" s="188"/>
-      <c r="AQ1" s="188"/>
-      <c r="AR1" s="188"/>
-      <c r="AS1" s="188"/>
-      <c r="AT1" s="188"/>
-      <c r="AU1" s="188"/>
-      <c r="AV1" s="188"/>
-      <c r="AW1" s="188"/>
-      <c r="AX1" s="188"/>
-      <c r="AY1" s="188"/>
-      <c r="AZ1" s="188"/>
-      <c r="BA1" s="188"/>
-      <c r="BB1" s="188"/>
-      <c r="BC1" s="188"/>
-      <c r="BD1" s="188"/>
-      <c r="BE1" s="188"/>
-      <c r="BF1" s="188"/>
-      <c r="BG1" s="188"/>
-      <c r="BH1" s="188"/>
-      <c r="BI1" s="188"/>
-      <c r="BJ1" s="188"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="237"/>
+      <c r="H1" s="237"/>
+      <c r="I1" s="237"/>
+      <c r="J1" s="237"/>
+      <c r="K1" s="237"/>
+      <c r="L1" s="237"/>
+      <c r="M1" s="237"/>
+      <c r="N1" s="237"/>
+      <c r="O1" s="237"/>
+      <c r="P1" s="237"/>
+      <c r="Q1" s="237"/>
+      <c r="R1" s="237"/>
+      <c r="S1" s="237"/>
+      <c r="T1" s="237"/>
+      <c r="U1" s="237"/>
+      <c r="V1" s="237"/>
+      <c r="W1" s="237"/>
+      <c r="X1" s="237"/>
+      <c r="Y1" s="237"/>
+      <c r="Z1" s="237"/>
+      <c r="AA1" s="237"/>
+      <c r="AB1" s="237"/>
+      <c r="AC1" s="237"/>
+      <c r="AD1" s="237"/>
+      <c r="AE1" s="237"/>
+      <c r="AF1" s="237"/>
+      <c r="AG1" s="237"/>
+      <c r="AH1" s="237"/>
+      <c r="AI1" s="237"/>
+      <c r="AJ1" s="237"/>
+      <c r="AK1" s="237"/>
+      <c r="AL1" s="237"/>
+      <c r="AM1" s="237"/>
+      <c r="AN1" s="237"/>
+      <c r="AO1" s="237"/>
+      <c r="AP1" s="237"/>
+      <c r="AQ1" s="237"/>
+      <c r="AR1" s="237"/>
+      <c r="AS1" s="237"/>
+      <c r="AT1" s="237"/>
+      <c r="AU1" s="237"/>
+      <c r="AV1" s="237"/>
+      <c r="AW1" s="237"/>
+      <c r="AX1" s="237"/>
+      <c r="AY1" s="237"/>
+      <c r="AZ1" s="237"/>
+      <c r="BA1" s="237"/>
+      <c r="BB1" s="237"/>
+      <c r="BC1" s="237"/>
+      <c r="BD1" s="237"/>
+      <c r="BE1" s="237"/>
+      <c r="BF1" s="237"/>
+      <c r="BG1" s="237"/>
+      <c r="BH1" s="237"/>
+      <c r="BI1" s="237"/>
+      <c r="BJ1" s="237"/>
     </row>
     <row r="2" spans="1:65" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="238" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="190" t="s">
+      <c r="C2" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="191" t="s">
+      <c r="D2" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="194" t="s">
+      <c r="E2" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="197" t="s">
+      <c r="F2" s="246" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="200" t="s">
+      <c r="G2" s="249" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="203" t="s">
+      <c r="H2" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="204" t="s">
+      <c r="I2" s="251" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="204" t="s">
+      <c r="J2" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="204" t="s">
+      <c r="K2" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="203" t="s">
+      <c r="L2" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="203" t="s">
+      <c r="M2" s="250" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="203" t="s">
+      <c r="N2" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="183" t="s">
+      <c r="O2" s="232" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="184"/>
-      <c r="S2" s="209" t="s">
+      <c r="P2" s="233"/>
+      <c r="Q2" s="233"/>
+      <c r="R2" s="233"/>
+      <c r="S2" s="218" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="210" t="s">
+      <c r="T2" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="210" t="s">
+      <c r="U2" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="213" t="s">
+      <c r="V2" s="222" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="213"/>
-      <c r="X2" s="213"/>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="213"/>
-      <c r="AA2" s="213"/>
-      <c r="AB2" s="213"/>
-      <c r="AC2" s="213"/>
-      <c r="AD2" s="213"/>
-      <c r="AE2" s="214" t="s">
+      <c r="W2" s="222"/>
+      <c r="X2" s="222"/>
+      <c r="Y2" s="222"/>
+      <c r="Z2" s="222"/>
+      <c r="AA2" s="222"/>
+      <c r="AB2" s="222"/>
+      <c r="AC2" s="222"/>
+      <c r="AD2" s="222"/>
+      <c r="AE2" s="223" t="s">
         <v>131</v>
       </c>
-      <c r="AF2" s="215"/>
-      <c r="AG2" s="216"/>
+      <c r="AF2" s="224"/>
+      <c r="AG2" s="225"/>
       <c r="AH2" s="177" t="s">
         <v>175</v>
       </c>
@@ -4211,104 +4211,104 @@
       <c r="AL2" s="177" t="s">
         <v>110</v>
       </c>
-      <c r="AM2" s="217" t="s">
+      <c r="AM2" s="226" t="s">
         <v>23</v>
       </c>
-      <c r="AN2" s="218"/>
-      <c r="AO2" s="218"/>
-      <c r="AP2" s="218"/>
-      <c r="AQ2" s="219"/>
-      <c r="AR2" s="244" t="s">
+      <c r="AN2" s="227"/>
+      <c r="AO2" s="227"/>
+      <c r="AP2" s="227"/>
+      <c r="AQ2" s="228"/>
+      <c r="AR2" s="205" t="s">
         <v>24</v>
       </c>
-      <c r="AS2" s="245" t="s">
+      <c r="AS2" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="AT2" s="248" t="s">
+      <c r="AT2" s="211" t="s">
         <v>26</v>
       </c>
-      <c r="AU2" s="249"/>
-      <c r="AV2" s="249"/>
-      <c r="AW2" s="250"/>
-      <c r="AX2" s="205" t="s">
+      <c r="AU2" s="212"/>
+      <c r="AV2" s="212"/>
+      <c r="AW2" s="213"/>
+      <c r="AX2" s="214" t="s">
         <v>153</v>
       </c>
-      <c r="AY2" s="205" t="s">
+      <c r="AY2" s="214" t="s">
         <v>154</v>
       </c>
-      <c r="AZ2" s="208" t="s">
+      <c r="AZ2" s="217" t="s">
         <v>29</v>
       </c>
-      <c r="BA2" s="229" t="s">
+      <c r="BA2" s="190" t="s">
         <v>155</v>
       </c>
-      <c r="BB2" s="230"/>
-      <c r="BC2" s="230"/>
-      <c r="BD2" s="230"/>
-      <c r="BE2" s="231"/>
-      <c r="BF2" s="235" t="s">
+      <c r="BB2" s="191"/>
+      <c r="BC2" s="191"/>
+      <c r="BD2" s="191"/>
+      <c r="BE2" s="192"/>
+      <c r="BF2" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="BG2" s="235" t="s">
+      <c r="BG2" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="BH2" s="235" t="s">
+      <c r="BH2" s="196" t="s">
         <v>33</v>
       </c>
-      <c r="BI2" s="238" t="s">
+      <c r="BI2" s="199" t="s">
         <v>34</v>
       </c>
-      <c r="BJ2" s="241" t="s">
+      <c r="BJ2" s="202" t="s">
         <v>35</v>
       </c>
-      <c r="BK2" s="223" t="s">
+      <c r="BK2" s="184" t="s">
         <v>118</v>
       </c>
-      <c r="BL2" s="223" t="s">
+      <c r="BL2" s="184" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:65" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="189"/>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="198"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="201"/>
-      <c r="O3" s="185"/>
-      <c r="P3" s="186"/>
-      <c r="Q3" s="186"/>
-      <c r="R3" s="186"/>
-      <c r="S3" s="209"/>
-      <c r="T3" s="211"/>
-      <c r="U3" s="211"/>
-      <c r="V3" s="226" t="s">
+      <c r="A3" s="238"/>
+      <c r="B3" s="239"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="234"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="235"/>
+      <c r="S3" s="218"/>
+      <c r="T3" s="220"/>
+      <c r="U3" s="220"/>
+      <c r="V3" s="187" t="s">
         <v>171</v>
       </c>
       <c r="W3" s="54">
         <v>0.16</v>
       </c>
-      <c r="X3" s="227" t="s">
+      <c r="X3" s="188" t="s">
         <v>172</v>
       </c>
       <c r="Y3" s="54">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="Z3" s="227" t="s">
+      <c r="Z3" s="188" t="s">
         <v>173</v>
       </c>
       <c r="AA3" s="54">
         <v>2E-3</v>
       </c>
-      <c r="AB3" s="228" t="s">
+      <c r="AB3" s="189" t="s">
         <v>174</v>
       </c>
       <c r="AC3" s="54">
@@ -4340,13 +4340,13 @@
       <c r="AL3" s="173">
         <v>0.1</v>
       </c>
-      <c r="AM3" s="220"/>
-      <c r="AN3" s="221"/>
-      <c r="AO3" s="221"/>
-      <c r="AP3" s="221"/>
-      <c r="AQ3" s="222"/>
-      <c r="AR3" s="201"/>
-      <c r="AS3" s="246"/>
+      <c r="AM3" s="229"/>
+      <c r="AN3" s="230"/>
+      <c r="AO3" s="230"/>
+      <c r="AP3" s="230"/>
+      <c r="AQ3" s="231"/>
+      <c r="AR3" s="206"/>
+      <c r="AS3" s="209"/>
       <c r="AT3" s="59">
         <v>0.08</v>
       </c>
@@ -4359,37 +4359,37 @@
       <c r="AW3" s="60">
         <v>0.05</v>
       </c>
-      <c r="AX3" s="206"/>
-      <c r="AY3" s="206"/>
-      <c r="AZ3" s="206"/>
-      <c r="BA3" s="232"/>
-      <c r="BB3" s="233"/>
-      <c r="BC3" s="233"/>
-      <c r="BD3" s="233"/>
-      <c r="BE3" s="234"/>
-      <c r="BF3" s="236"/>
-      <c r="BG3" s="236"/>
-      <c r="BH3" s="236"/>
-      <c r="BI3" s="239"/>
-      <c r="BJ3" s="242"/>
-      <c r="BK3" s="224"/>
-      <c r="BL3" s="224"/>
+      <c r="AX3" s="215"/>
+      <c r="AY3" s="215"/>
+      <c r="AZ3" s="215"/>
+      <c r="BA3" s="193"/>
+      <c r="BB3" s="194"/>
+      <c r="BC3" s="194"/>
+      <c r="BD3" s="194"/>
+      <c r="BE3" s="195"/>
+      <c r="BF3" s="197"/>
+      <c r="BG3" s="197"/>
+      <c r="BH3" s="197"/>
+      <c r="BI3" s="200"/>
+      <c r="BJ3" s="203"/>
+      <c r="BK3" s="185"/>
+      <c r="BL3" s="185"/>
     </row>
     <row r="4" spans="1:65" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="189"/>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="196"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="202"/>
-      <c r="N4" s="202"/>
+      <c r="A4" s="238"/>
+      <c r="B4" s="239"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="245"/>
+      <c r="F4" s="248"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="251"/>
+      <c r="J4" s="251"/>
+      <c r="K4" s="251"/>
+      <c r="L4" s="207"/>
+      <c r="M4" s="207"/>
+      <c r="N4" s="207"/>
       <c r="O4" s="53" t="s">
         <v>38</v>
       </c>
@@ -4402,22 +4402,22 @@
       <c r="R4" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="209"/>
-      <c r="T4" s="212"/>
-      <c r="U4" s="212"/>
-      <c r="V4" s="226"/>
+      <c r="S4" s="218"/>
+      <c r="T4" s="221"/>
+      <c r="U4" s="221"/>
+      <c r="V4" s="187"/>
       <c r="W4" s="173" t="s">
         <v>42</v>
       </c>
-      <c r="X4" s="227"/>
+      <c r="X4" s="188"/>
       <c r="Y4" s="173" t="s">
         <v>43</v>
       </c>
-      <c r="Z4" s="227"/>
+      <c r="Z4" s="188"/>
       <c r="AA4" s="173" t="s">
         <v>44</v>
       </c>
-      <c r="AB4" s="228"/>
+      <c r="AB4" s="189"/>
       <c r="AC4" s="178" t="s">
         <v>170</v>
       </c>
@@ -4461,8 +4461,8 @@
       <c r="AQ4" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="AR4" s="202"/>
-      <c r="AS4" s="247"/>
+      <c r="AR4" s="207"/>
+      <c r="AS4" s="210"/>
       <c r="AT4" s="62" t="s">
         <v>42</v>
       </c>
@@ -4475,9 +4475,9 @@
       <c r="AW4" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="AX4" s="207"/>
-      <c r="AY4" s="207"/>
-      <c r="AZ4" s="207"/>
+      <c r="AX4" s="216"/>
+      <c r="AY4" s="216"/>
+      <c r="AZ4" s="216"/>
       <c r="BA4" s="171" t="s">
         <v>156</v>
       </c>
@@ -4493,13 +4493,13 @@
       <c r="BE4" s="172" t="s">
         <v>160</v>
       </c>
-      <c r="BF4" s="237"/>
-      <c r="BG4" s="237"/>
-      <c r="BH4" s="237"/>
-      <c r="BI4" s="240"/>
-      <c r="BJ4" s="243"/>
-      <c r="BK4" s="225"/>
-      <c r="BL4" s="225"/>
+      <c r="BF4" s="198"/>
+      <c r="BG4" s="198"/>
+      <c r="BH4" s="198"/>
+      <c r="BI4" s="201"/>
+      <c r="BJ4" s="204"/>
+      <c r="BK4" s="186"/>
+      <c r="BL4" s="186"/>
     </row>
     <row r="5" spans="1:65" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="77">
@@ -5875,27 +5875,27 @@
       </c>
       <c r="AB11" s="154"/>
       <c r="AC11" s="42">
-        <f>SUM(AC5:AC10)</f>
+        <f t="shared" ref="AC11:AH11" si="29">SUM(AC5:AC10)</f>
         <v>3021.84</v>
       </c>
       <c r="AD11" s="42">
-        <f>SUM(AD5:AD10)</f>
+        <f t="shared" si="29"/>
         <v>7611.84</v>
       </c>
       <c r="AE11" s="42">
-        <f>SUM(AE5:AE10)</f>
+        <f t="shared" si="29"/>
         <v>2160</v>
       </c>
       <c r="AF11" s="42">
-        <f>SUM(AF5:AF10)</f>
+        <f t="shared" si="29"/>
         <v>43.6</v>
       </c>
       <c r="AG11" s="42">
-        <f>SUM(AG5:AG10)</f>
+        <f t="shared" si="29"/>
         <v>574.6</v>
       </c>
       <c r="AH11" s="42">
-        <f>SUM(AH5:AH10)</f>
+        <f t="shared" si="29"/>
         <v>2778.2</v>
       </c>
       <c r="AJ11" s="42">
@@ -5911,67 +5911,67 @@
         <v>2700</v>
       </c>
       <c r="AS11" s="42">
-        <f>SUM(AS5:AS10)</f>
+        <f t="shared" ref="AS11:BH11" si="30">SUM(AS5:AS10)</f>
         <v>31531.199999999997</v>
       </c>
       <c r="AT11" s="42">
-        <f>SUM(AT5:AT10)</f>
+        <f t="shared" si="30"/>
         <v>2160</v>
       </c>
       <c r="AU11" s="42">
-        <f>SUM(AU5:AU10)</f>
+        <f t="shared" si="30"/>
         <v>574.6</v>
       </c>
       <c r="AV11" s="42">
-        <f>SUM(AV5:AV10)</f>
+        <f t="shared" si="30"/>
         <v>43.6</v>
       </c>
       <c r="AW11" s="42">
-        <f>SUM(AW5:AW10)</f>
+        <f t="shared" si="30"/>
         <v>1350</v>
       </c>
       <c r="AX11" s="42">
-        <f>SUM(AX5:AX10)</f>
+        <f t="shared" si="30"/>
         <v>346140.8</v>
       </c>
       <c r="AY11" s="42">
-        <f>SUM(AY5:AY10)</f>
+        <f t="shared" si="30"/>
         <v>240000</v>
       </c>
       <c r="AZ11" s="42">
-        <f>SUM(AZ5:AZ10)</f>
+        <f t="shared" si="30"/>
         <v>36695.72</v>
       </c>
       <c r="BA11" s="42">
-        <f>SUM(BA5:BA10)</f>
+        <f t="shared" si="30"/>
         <v>24000</v>
       </c>
       <c r="BB11" s="42">
-        <f>SUM(BB5:BB10)</f>
+        <f t="shared" si="30"/>
         <v>72000</v>
       </c>
       <c r="BC11" s="42">
-        <f>SUM(BC5:BC10)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BD11" s="42">
-        <f>SUM(BD5:BD10)</f>
+        <f t="shared" si="30"/>
         <v>16000</v>
       </c>
       <c r="BE11" s="42">
-        <f>SUM(BE5:BE10)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BF11" s="42">
-        <f>SUM(BF5:BF10)</f>
+        <f t="shared" si="30"/>
         <v>-42554.92</v>
       </c>
       <c r="BG11" s="42">
-        <f>SUM(BG5:BG10)</f>
+        <f t="shared" si="30"/>
         <v>8913.68</v>
       </c>
       <c r="BH11" s="42">
-        <f>SUM(BH5:BH10)</f>
+        <f t="shared" si="30"/>
         <v>7602.3</v>
       </c>
       <c r="BI11" s="46">
@@ -5979,8 +5979,8 @@
         <v>1311.38</v>
       </c>
       <c r="BJ11" s="46">
-        <f>SUM(BJ10:BJ10)</f>
-        <v>16802.419999999998</v>
+        <f>SUM(BJ5:BJ10)</f>
+        <v>20528.519999999997</v>
       </c>
       <c r="BK11" s="154"/>
       <c r="BL11" s="42">
@@ -6253,6 +6253,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="O2:R3"/>
+    <mergeCell ref="A1:BJ1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="AY2:AY4"/>
+    <mergeCell ref="AZ2:AZ4"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="T2:T4"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="V2:AD2"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="AM2:AQ3"/>
     <mergeCell ref="BK2:BK4"/>
     <mergeCell ref="BL2:BL4"/>
     <mergeCell ref="V3:V4"/>
@@ -6269,30 +6293,6 @@
     <mergeCell ref="AS2:AS4"/>
     <mergeCell ref="AT2:AW2"/>
     <mergeCell ref="AX2:AX4"/>
-    <mergeCell ref="AY2:AY4"/>
-    <mergeCell ref="AZ2:AZ4"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="T2:T4"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="V2:AD2"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="AM2:AQ3"/>
-    <mergeCell ref="O2:R3"/>
-    <mergeCell ref="A1:BJ1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:N4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E10" xr:uid="{49D16490-245F-44A0-A7DC-BDD9B681B46C}">
@@ -7797,227 +7797,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="236" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
-      <c r="P1" s="188"/>
-      <c r="Q1" s="188"/>
-      <c r="R1" s="188"/>
-      <c r="S1" s="188"/>
-      <c r="T1" s="188"/>
-      <c r="U1" s="188"/>
-      <c r="V1" s="188"/>
-      <c r="W1" s="188"/>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="188"/>
-      <c r="Z1" s="188"/>
-      <c r="AA1" s="188"/>
-      <c r="AB1" s="188"/>
-      <c r="AC1" s="188"/>
-      <c r="AD1" s="188"/>
-      <c r="AE1" s="188"/>
-      <c r="AF1" s="188"/>
-      <c r="AG1" s="188"/>
-      <c r="AH1" s="188"/>
-      <c r="AI1" s="188"/>
-      <c r="AJ1" s="188"/>
-      <c r="AK1" s="188"/>
-      <c r="AL1" s="188"/>
-      <c r="AM1" s="188"/>
-      <c r="AN1" s="188"/>
-      <c r="AO1" s="188"/>
-      <c r="AP1" s="188"/>
-      <c r="AQ1" s="188"/>
-      <c r="AR1" s="188"/>
-      <c r="AS1" s="188"/>
-      <c r="AT1" s="188"/>
-      <c r="AU1" s="188"/>
-      <c r="AV1" s="188"/>
-      <c r="AW1" s="188"/>
-      <c r="AX1" s="188"/>
-      <c r="AY1" s="188"/>
-      <c r="AZ1" s="188"/>
-      <c r="BA1" s="188"/>
-      <c r="BB1" s="188"/>
-      <c r="BC1" s="188"/>
-      <c r="BD1" s="188"/>
-      <c r="BE1" s="188"/>
-      <c r="BF1" s="188"/>
-      <c r="BG1" s="188"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="237"/>
+      <c r="H1" s="237"/>
+      <c r="I1" s="237"/>
+      <c r="J1" s="237"/>
+      <c r="K1" s="237"/>
+      <c r="L1" s="237"/>
+      <c r="M1" s="237"/>
+      <c r="N1" s="237"/>
+      <c r="O1" s="237"/>
+      <c r="P1" s="237"/>
+      <c r="Q1" s="237"/>
+      <c r="R1" s="237"/>
+      <c r="S1" s="237"/>
+      <c r="T1" s="237"/>
+      <c r="U1" s="237"/>
+      <c r="V1" s="237"/>
+      <c r="W1" s="237"/>
+      <c r="X1" s="237"/>
+      <c r="Y1" s="237"/>
+      <c r="Z1" s="237"/>
+      <c r="AA1" s="237"/>
+      <c r="AB1" s="237"/>
+      <c r="AC1" s="237"/>
+      <c r="AD1" s="237"/>
+      <c r="AE1" s="237"/>
+      <c r="AF1" s="237"/>
+      <c r="AG1" s="237"/>
+      <c r="AH1" s="237"/>
+      <c r="AI1" s="237"/>
+      <c r="AJ1" s="237"/>
+      <c r="AK1" s="237"/>
+      <c r="AL1" s="237"/>
+      <c r="AM1" s="237"/>
+      <c r="AN1" s="237"/>
+      <c r="AO1" s="237"/>
+      <c r="AP1" s="237"/>
+      <c r="AQ1" s="237"/>
+      <c r="AR1" s="237"/>
+      <c r="AS1" s="237"/>
+      <c r="AT1" s="237"/>
+      <c r="AU1" s="237"/>
+      <c r="AV1" s="237"/>
+      <c r="AW1" s="237"/>
+      <c r="AX1" s="237"/>
+      <c r="AY1" s="237"/>
+      <c r="AZ1" s="237"/>
+      <c r="BA1" s="237"/>
+      <c r="BB1" s="237"/>
+      <c r="BC1" s="237"/>
+      <c r="BD1" s="237"/>
+      <c r="BE1" s="237"/>
+      <c r="BF1" s="237"/>
+      <c r="BG1" s="237"/>
     </row>
     <row r="2" spans="1:61" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="238" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="190" t="s">
+      <c r="C2" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="191" t="s">
+      <c r="D2" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="194" t="s">
+      <c r="E2" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="269" t="s">
+      <c r="F2" s="267" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="200" t="s">
+      <c r="G2" s="249" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="203" t="s">
+      <c r="H2" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="204" t="s">
+      <c r="I2" s="251" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="204" t="s">
+      <c r="J2" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="204" t="s">
+      <c r="K2" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="203" t="s">
+      <c r="L2" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="203" t="s">
+      <c r="M2" s="250" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="203" t="s">
+      <c r="N2" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="183" t="s">
+      <c r="O2" s="232" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="184"/>
-      <c r="S2" s="209" t="s">
+      <c r="P2" s="233"/>
+      <c r="Q2" s="233"/>
+      <c r="R2" s="233"/>
+      <c r="S2" s="218" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="210" t="s">
+      <c r="T2" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="210" t="s">
+      <c r="U2" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="214" t="s">
+      <c r="V2" s="223" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="215"/>
-      <c r="X2" s="215"/>
-      <c r="Y2" s="215"/>
-      <c r="Z2" s="215"/>
-      <c r="AA2" s="216"/>
-      <c r="AB2" s="213" t="s">
+      <c r="W2" s="224"/>
+      <c r="X2" s="224"/>
+      <c r="Y2" s="224"/>
+      <c r="Z2" s="224"/>
+      <c r="AA2" s="225"/>
+      <c r="AB2" s="222" t="s">
         <v>20</v>
       </c>
-      <c r="AC2" s="213"/>
-      <c r="AD2" s="213"/>
-      <c r="AE2" s="213"/>
-      <c r="AF2" s="256" t="s">
+      <c r="AC2" s="222"/>
+      <c r="AD2" s="222"/>
+      <c r="AE2" s="222"/>
+      <c r="AF2" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="AG2" s="214" t="s">
+      <c r="AG2" s="223" t="s">
         <v>22</v>
       </c>
-      <c r="AH2" s="215"/>
-      <c r="AI2" s="216"/>
-      <c r="AJ2" s="217" t="s">
+      <c r="AH2" s="224"/>
+      <c r="AI2" s="225"/>
+      <c r="AJ2" s="226" t="s">
         <v>23</v>
       </c>
-      <c r="AK2" s="218"/>
-      <c r="AL2" s="218"/>
-      <c r="AM2" s="218"/>
-      <c r="AN2" s="219"/>
-      <c r="AO2" s="244" t="s">
+      <c r="AK2" s="227"/>
+      <c r="AL2" s="227"/>
+      <c r="AM2" s="227"/>
+      <c r="AN2" s="228"/>
+      <c r="AO2" s="205" t="s">
         <v>24</v>
       </c>
-      <c r="AP2" s="245" t="s">
+      <c r="AP2" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="AQ2" s="248" t="s">
+      <c r="AQ2" s="211" t="s">
         <v>26</v>
       </c>
-      <c r="AR2" s="249"/>
-      <c r="AS2" s="249"/>
-      <c r="AT2" s="250"/>
-      <c r="AU2" s="245" t="s">
+      <c r="AR2" s="212"/>
+      <c r="AS2" s="212"/>
+      <c r="AT2" s="213"/>
+      <c r="AU2" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="AV2" s="245" t="s">
+      <c r="AV2" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="AW2" s="259" t="s">
+      <c r="AW2" s="260" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="260" t="s">
+      <c r="AX2" s="261" t="s">
         <v>30</v>
       </c>
-      <c r="AY2" s="261"/>
-      <c r="AZ2" s="261"/>
-      <c r="BA2" s="261"/>
-      <c r="BB2" s="262"/>
-      <c r="BC2" s="235" t="s">
+      <c r="AY2" s="262"/>
+      <c r="AZ2" s="262"/>
+      <c r="BA2" s="262"/>
+      <c r="BB2" s="263"/>
+      <c r="BC2" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="BD2" s="235" t="s">
+      <c r="BD2" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="BE2" s="235" t="s">
+      <c r="BE2" s="196" t="s">
         <v>33</v>
       </c>
-      <c r="BF2" s="235" t="s">
+      <c r="BF2" s="196" t="s">
         <v>34</v>
       </c>
-      <c r="BG2" s="266" t="s">
+      <c r="BG2" s="270" t="s">
         <v>35</v>
       </c>
-      <c r="BH2" s="223" t="s">
+      <c r="BH2" s="184" t="s">
         <v>118</v>
       </c>
-      <c r="BI2" s="223" t="s">
+      <c r="BI2" s="184" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:61" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="189"/>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="270"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="201"/>
-      <c r="O3" s="185"/>
-      <c r="P3" s="186"/>
-      <c r="Q3" s="186"/>
-      <c r="R3" s="186"/>
-      <c r="S3" s="209"/>
-      <c r="T3" s="211"/>
-      <c r="U3" s="211"/>
+      <c r="A3" s="238"/>
+      <c r="B3" s="239"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="268"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="234"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="235"/>
+      <c r="S3" s="218"/>
+      <c r="T3" s="220"/>
+      <c r="U3" s="220"/>
       <c r="V3" s="54">
         <v>0.16</v>
       </c>
@@ -8049,7 +8049,7 @@
       <c r="AE3" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="AF3" s="257"/>
+      <c r="AF3" s="258"/>
       <c r="AG3" s="56">
         <v>0.05</v>
       </c>
@@ -8059,13 +8059,13 @@
       <c r="AI3" s="56">
         <v>0.1</v>
       </c>
-      <c r="AJ3" s="220"/>
-      <c r="AK3" s="221"/>
-      <c r="AL3" s="221"/>
-      <c r="AM3" s="221"/>
-      <c r="AN3" s="222"/>
-      <c r="AO3" s="201"/>
-      <c r="AP3" s="246"/>
+      <c r="AJ3" s="229"/>
+      <c r="AK3" s="230"/>
+      <c r="AL3" s="230"/>
+      <c r="AM3" s="230"/>
+      <c r="AN3" s="231"/>
+      <c r="AO3" s="206"/>
+      <c r="AP3" s="209"/>
       <c r="AQ3" s="59">
         <v>0.08</v>
       </c>
@@ -8078,37 +8078,37 @@
       <c r="AT3" s="60">
         <v>0.05</v>
       </c>
-      <c r="AU3" s="246"/>
-      <c r="AV3" s="246"/>
-      <c r="AW3" s="246"/>
-      <c r="AX3" s="263"/>
-      <c r="AY3" s="264"/>
-      <c r="AZ3" s="264"/>
-      <c r="BA3" s="264"/>
-      <c r="BB3" s="265"/>
-      <c r="BC3" s="236"/>
-      <c r="BD3" s="236"/>
-      <c r="BE3" s="236"/>
-      <c r="BF3" s="236"/>
-      <c r="BG3" s="267"/>
-      <c r="BH3" s="224"/>
-      <c r="BI3" s="224"/>
+      <c r="AU3" s="209"/>
+      <c r="AV3" s="209"/>
+      <c r="AW3" s="209"/>
+      <c r="AX3" s="264"/>
+      <c r="AY3" s="265"/>
+      <c r="AZ3" s="265"/>
+      <c r="BA3" s="265"/>
+      <c r="BB3" s="266"/>
+      <c r="BC3" s="197"/>
+      <c r="BD3" s="197"/>
+      <c r="BE3" s="197"/>
+      <c r="BF3" s="197"/>
+      <c r="BG3" s="271"/>
+      <c r="BH3" s="185"/>
+      <c r="BI3" s="185"/>
     </row>
     <row r="4" spans="1:61" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="189"/>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="196"/>
-      <c r="F4" s="271"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="202"/>
-      <c r="N4" s="202"/>
+      <c r="A4" s="238"/>
+      <c r="B4" s="239"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="245"/>
+      <c r="F4" s="269"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="251"/>
+      <c r="J4" s="251"/>
+      <c r="K4" s="251"/>
+      <c r="L4" s="207"/>
+      <c r="M4" s="207"/>
+      <c r="N4" s="207"/>
       <c r="O4" s="53" t="s">
         <v>38</v>
       </c>
@@ -8121,9 +8121,9 @@
       <c r="R4" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="209"/>
-      <c r="T4" s="212"/>
-      <c r="U4" s="212"/>
+      <c r="S4" s="218"/>
+      <c r="T4" s="221"/>
+      <c r="U4" s="221"/>
       <c r="V4" s="56" t="s">
         <v>42</v>
       </c>
@@ -8154,7 +8154,7 @@
       <c r="AE4" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="AF4" s="258"/>
+      <c r="AF4" s="259"/>
       <c r="AG4" s="56" t="s">
         <v>48</v>
       </c>
@@ -8179,8 +8179,8 @@
       <c r="AN4" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="AO4" s="202"/>
-      <c r="AP4" s="247"/>
+      <c r="AO4" s="207"/>
+      <c r="AP4" s="210"/>
       <c r="AQ4" s="62" t="s">
         <v>42</v>
       </c>
@@ -8193,9 +8193,9 @@
       <c r="AT4" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="AU4" s="247"/>
-      <c r="AV4" s="247"/>
-      <c r="AW4" s="247"/>
+      <c r="AU4" s="210"/>
+      <c r="AV4" s="210"/>
+      <c r="AW4" s="210"/>
       <c r="AX4" s="61" t="s">
         <v>50</v>
       </c>
@@ -8211,13 +8211,13 @@
       <c r="BB4" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="BC4" s="237"/>
-      <c r="BD4" s="237"/>
-      <c r="BE4" s="237"/>
-      <c r="BF4" s="237"/>
-      <c r="BG4" s="268"/>
-      <c r="BH4" s="225"/>
-      <c r="BI4" s="225"/>
+      <c r="BC4" s="198"/>
+      <c r="BD4" s="198"/>
+      <c r="BE4" s="198"/>
+      <c r="BF4" s="198"/>
+      <c r="BG4" s="272"/>
+      <c r="BH4" s="186"/>
+      <c r="BI4" s="186"/>
     </row>
     <row r="5" spans="1:61" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="77">
@@ -12272,6 +12272,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="BF2:BF4"/>
+    <mergeCell ref="BG2:BG4"/>
+    <mergeCell ref="BH2:BH4"/>
+    <mergeCell ref="BI2:BI4"/>
+    <mergeCell ref="O2:R3"/>
+    <mergeCell ref="AJ2:AN3"/>
+    <mergeCell ref="AX2:BB3"/>
+    <mergeCell ref="AV2:AV4"/>
+    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="BC2:BC4"/>
+    <mergeCell ref="BD2:BD4"/>
+    <mergeCell ref="BE2:BE4"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="AF2:AF4"/>
+    <mergeCell ref="AO2:AO4"/>
+    <mergeCell ref="AP2:AP4"/>
+    <mergeCell ref="AU2:AU4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="T2:T4"/>
     <mergeCell ref="A1:BG1"/>
     <mergeCell ref="V2:AA2"/>
     <mergeCell ref="AB2:AE2"/>
@@ -12288,28 +12310,6 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
-    <mergeCell ref="AU2:AU4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="T2:T4"/>
-    <mergeCell ref="BF2:BF4"/>
-    <mergeCell ref="BG2:BG4"/>
-    <mergeCell ref="BH2:BH4"/>
-    <mergeCell ref="BI2:BI4"/>
-    <mergeCell ref="O2:R3"/>
-    <mergeCell ref="AJ2:AN3"/>
-    <mergeCell ref="AX2:BB3"/>
-    <mergeCell ref="AV2:AV4"/>
-    <mergeCell ref="AW2:AW4"/>
-    <mergeCell ref="BC2:BC4"/>
-    <mergeCell ref="BD2:BD4"/>
-    <mergeCell ref="BE2:BE4"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="AF2:AF4"/>
-    <mergeCell ref="AO2:AO4"/>
-    <mergeCell ref="AP2:AP4"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="1">
@@ -12359,31 +12359,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="272" t="s">
+      <c r="A1" s="273" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="273"/>
-      <c r="C1" s="273"/>
-      <c r="D1" s="273"/>
-      <c r="E1" s="273"/>
-      <c r="F1" s="273"/>
-      <c r="G1" s="273"/>
-      <c r="H1" s="273"/>
-      <c r="I1" s="273"/>
-      <c r="J1" s="273"/>
-      <c r="K1" s="273"/>
-      <c r="L1" s="273"/>
-      <c r="M1" s="273"/>
-      <c r="N1" s="273"/>
-      <c r="O1" s="273"/>
-      <c r="P1" s="273"/>
-      <c r="Q1" s="273"/>
-      <c r="R1" s="273"/>
-      <c r="S1" s="273"/>
-      <c r="T1" s="273"/>
-      <c r="U1" s="273"/>
-      <c r="V1" s="273"/>
-      <c r="W1" s="273"/>
+      <c r="B1" s="274"/>
+      <c r="C1" s="274"/>
+      <c r="D1" s="274"/>
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="274"/>
+      <c r="H1" s="274"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="274"/>
+      <c r="K1" s="274"/>
+      <c r="L1" s="274"/>
+      <c r="M1" s="274"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="274"/>
+      <c r="P1" s="274"/>
+      <c r="Q1" s="274"/>
+      <c r="R1" s="274"/>
+      <c r="S1" s="274"/>
+      <c r="T1" s="274"/>
+      <c r="U1" s="274"/>
+      <c r="V1" s="274"/>
+      <c r="W1" s="274"/>
     </row>
     <row r="2" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="22" t="s">
@@ -15137,221 +15137,221 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="187" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
-      <c r="P1" s="188"/>
-      <c r="Q1" s="188"/>
-      <c r="R1" s="188"/>
-      <c r="S1" s="188"/>
-      <c r="T1" s="188"/>
-      <c r="U1" s="188"/>
-      <c r="V1" s="188"/>
-      <c r="W1" s="188"/>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="188"/>
-      <c r="Z1" s="188"/>
-      <c r="AA1" s="188"/>
-      <c r="AB1" s="188"/>
-      <c r="AC1" s="188"/>
-      <c r="AD1" s="188"/>
-      <c r="AE1" s="188"/>
-      <c r="AF1" s="188"/>
-      <c r="AG1" s="188"/>
-      <c r="AH1" s="188"/>
-      <c r="AI1" s="188"/>
-      <c r="AJ1" s="188"/>
-      <c r="AK1" s="188"/>
-      <c r="AL1" s="188"/>
-      <c r="AM1" s="188"/>
-      <c r="AN1" s="188"/>
-      <c r="AO1" s="188"/>
-      <c r="AP1" s="188"/>
-      <c r="AQ1" s="188"/>
-      <c r="AR1" s="188"/>
-      <c r="AS1" s="188"/>
-      <c r="AT1" s="188"/>
-      <c r="AU1" s="188"/>
-      <c r="AV1" s="188"/>
-      <c r="AW1" s="188"/>
-      <c r="AX1" s="188"/>
-      <c r="AY1" s="188"/>
-      <c r="AZ1" s="188"/>
-      <c r="BA1" s="188"/>
-      <c r="BB1" s="188"/>
-      <c r="BC1" s="188"/>
-      <c r="BD1" s="188"/>
-      <c r="BE1" s="188"/>
-      <c r="BF1" s="188"/>
-      <c r="BG1" s="188"/>
+      <c r="A1" s="236" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="237"/>
+      <c r="H1" s="237"/>
+      <c r="I1" s="237"/>
+      <c r="J1" s="237"/>
+      <c r="K1" s="237"/>
+      <c r="L1" s="237"/>
+      <c r="M1" s="237"/>
+      <c r="N1" s="237"/>
+      <c r="O1" s="237"/>
+      <c r="P1" s="237"/>
+      <c r="Q1" s="237"/>
+      <c r="R1" s="237"/>
+      <c r="S1" s="237"/>
+      <c r="T1" s="237"/>
+      <c r="U1" s="237"/>
+      <c r="V1" s="237"/>
+      <c r="W1" s="237"/>
+      <c r="X1" s="237"/>
+      <c r="Y1" s="237"/>
+      <c r="Z1" s="237"/>
+      <c r="AA1" s="237"/>
+      <c r="AB1" s="237"/>
+      <c r="AC1" s="237"/>
+      <c r="AD1" s="237"/>
+      <c r="AE1" s="237"/>
+      <c r="AF1" s="237"/>
+      <c r="AG1" s="237"/>
+      <c r="AH1" s="237"/>
+      <c r="AI1" s="237"/>
+      <c r="AJ1" s="237"/>
+      <c r="AK1" s="237"/>
+      <c r="AL1" s="237"/>
+      <c r="AM1" s="237"/>
+      <c r="AN1" s="237"/>
+      <c r="AO1" s="237"/>
+      <c r="AP1" s="237"/>
+      <c r="AQ1" s="237"/>
+      <c r="AR1" s="237"/>
+      <c r="AS1" s="237"/>
+      <c r="AT1" s="237"/>
+      <c r="AU1" s="237"/>
+      <c r="AV1" s="237"/>
+      <c r="AW1" s="237"/>
+      <c r="AX1" s="237"/>
+      <c r="AY1" s="237"/>
+      <c r="AZ1" s="237"/>
+      <c r="BA1" s="237"/>
+      <c r="BB1" s="237"/>
+      <c r="BC1" s="237"/>
+      <c r="BD1" s="237"/>
+      <c r="BE1" s="237"/>
+      <c r="BF1" s="237"/>
+      <c r="BG1" s="237"/>
     </row>
     <row r="2" spans="1:59" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="239" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="190" t="s">
+      <c r="C2" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="191" t="s">
+      <c r="D2" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="194" t="s">
+      <c r="E2" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="269" t="s">
+      <c r="F2" s="267" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="203" t="s">
+      <c r="G2" s="250" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="203" t="s">
+      <c r="H2" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="204" t="s">
+      <c r="I2" s="251" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="204" t="s">
+      <c r="J2" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="204" t="s">
+      <c r="K2" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="203" t="s">
+      <c r="L2" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="203" t="s">
+      <c r="M2" s="250" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="203" t="s">
+      <c r="N2" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="183" t="s">
+      <c r="O2" s="232" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="184"/>
-      <c r="S2" s="209" t="s">
+      <c r="P2" s="233"/>
+      <c r="Q2" s="233"/>
+      <c r="R2" s="233"/>
+      <c r="S2" s="218" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="210" t="s">
+      <c r="T2" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="210" t="s">
+      <c r="U2" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="214" t="s">
+      <c r="V2" s="223" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="215"/>
-      <c r="X2" s="215"/>
-      <c r="Y2" s="215"/>
-      <c r="Z2" s="215"/>
-      <c r="AA2" s="216"/>
-      <c r="AB2" s="213" t="s">
+      <c r="W2" s="224"/>
+      <c r="X2" s="224"/>
+      <c r="Y2" s="224"/>
+      <c r="Z2" s="224"/>
+      <c r="AA2" s="225"/>
+      <c r="AB2" s="222" t="s">
         <v>20</v>
       </c>
-      <c r="AC2" s="213"/>
-      <c r="AD2" s="213"/>
-      <c r="AE2" s="213"/>
-      <c r="AF2" s="256" t="s">
+      <c r="AC2" s="222"/>
+      <c r="AD2" s="222"/>
+      <c r="AE2" s="222"/>
+      <c r="AF2" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="AG2" s="214" t="s">
+      <c r="AG2" s="223" t="s">
         <v>22</v>
       </c>
-      <c r="AH2" s="215"/>
-      <c r="AI2" s="216"/>
-      <c r="AJ2" s="217" t="s">
+      <c r="AH2" s="224"/>
+      <c r="AI2" s="225"/>
+      <c r="AJ2" s="226" t="s">
         <v>23</v>
       </c>
-      <c r="AK2" s="218"/>
-      <c r="AL2" s="218"/>
-      <c r="AM2" s="218"/>
-      <c r="AN2" s="219"/>
-      <c r="AO2" s="244" t="s">
+      <c r="AK2" s="227"/>
+      <c r="AL2" s="227"/>
+      <c r="AM2" s="227"/>
+      <c r="AN2" s="228"/>
+      <c r="AO2" s="205" t="s">
         <v>24</v>
       </c>
-      <c r="AP2" s="245" t="s">
+      <c r="AP2" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="AQ2" s="248" t="s">
+      <c r="AQ2" s="211" t="s">
         <v>26</v>
       </c>
-      <c r="AR2" s="249"/>
-      <c r="AS2" s="249"/>
-      <c r="AT2" s="250"/>
-      <c r="AU2" s="245" t="s">
+      <c r="AR2" s="212"/>
+      <c r="AS2" s="212"/>
+      <c r="AT2" s="213"/>
+      <c r="AU2" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="AV2" s="245" t="s">
+      <c r="AV2" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="AW2" s="259" t="s">
+      <c r="AW2" s="260" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="260" t="s">
+      <c r="AX2" s="261" t="s">
         <v>30</v>
       </c>
-      <c r="AY2" s="261"/>
-      <c r="AZ2" s="261"/>
-      <c r="BA2" s="261"/>
-      <c r="BB2" s="262"/>
-      <c r="BC2" s="235" t="s">
+      <c r="AY2" s="262"/>
+      <c r="AZ2" s="262"/>
+      <c r="BA2" s="262"/>
+      <c r="BB2" s="263"/>
+      <c r="BC2" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="BD2" s="235" t="s">
+      <c r="BD2" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="BE2" s="235" t="s">
+      <c r="BE2" s="196" t="s">
         <v>33</v>
       </c>
-      <c r="BF2" s="235" t="s">
+      <c r="BF2" s="196" t="s">
         <v>34</v>
       </c>
-      <c r="BG2" s="266" t="s">
+      <c r="BG2" s="270" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:59" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="190"/>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="270"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="201"/>
-      <c r="O3" s="185"/>
-      <c r="P3" s="186"/>
-      <c r="Q3" s="186"/>
-      <c r="R3" s="186"/>
-      <c r="S3" s="209"/>
-      <c r="T3" s="211"/>
-      <c r="U3" s="211"/>
+      <c r="A3" s="239"/>
+      <c r="B3" s="239"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="268"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="234"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="235"/>
+      <c r="S3" s="218"/>
+      <c r="T3" s="220"/>
+      <c r="U3" s="220"/>
       <c r="V3" s="54">
         <v>0.16</v>
       </c>
@@ -15383,7 +15383,7 @@
       <c r="AE3" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="AF3" s="257"/>
+      <c r="AF3" s="258"/>
       <c r="AG3" s="56">
         <v>0.05</v>
       </c>
@@ -15393,13 +15393,13 @@
       <c r="AI3" s="56">
         <v>0.1</v>
       </c>
-      <c r="AJ3" s="220"/>
-      <c r="AK3" s="221"/>
-      <c r="AL3" s="221"/>
-      <c r="AM3" s="221"/>
-      <c r="AN3" s="222"/>
-      <c r="AO3" s="201"/>
-      <c r="AP3" s="246"/>
+      <c r="AJ3" s="229"/>
+      <c r="AK3" s="230"/>
+      <c r="AL3" s="230"/>
+      <c r="AM3" s="230"/>
+      <c r="AN3" s="231"/>
+      <c r="AO3" s="206"/>
+      <c r="AP3" s="209"/>
       <c r="AQ3" s="59">
         <v>0.08</v>
       </c>
@@ -15412,35 +15412,35 @@
       <c r="AT3" s="60">
         <v>0.05</v>
       </c>
-      <c r="AU3" s="246"/>
-      <c r="AV3" s="246"/>
-      <c r="AW3" s="246"/>
-      <c r="AX3" s="263"/>
-      <c r="AY3" s="264"/>
-      <c r="AZ3" s="264"/>
-      <c r="BA3" s="264"/>
-      <c r="BB3" s="265"/>
-      <c r="BC3" s="236"/>
-      <c r="BD3" s="236"/>
-      <c r="BE3" s="236"/>
-      <c r="BF3" s="236"/>
-      <c r="BG3" s="267"/>
+      <c r="AU3" s="209"/>
+      <c r="AV3" s="209"/>
+      <c r="AW3" s="209"/>
+      <c r="AX3" s="264"/>
+      <c r="AY3" s="265"/>
+      <c r="AZ3" s="265"/>
+      <c r="BA3" s="265"/>
+      <c r="BB3" s="266"/>
+      <c r="BC3" s="197"/>
+      <c r="BD3" s="197"/>
+      <c r="BE3" s="197"/>
+      <c r="BF3" s="197"/>
+      <c r="BG3" s="271"/>
     </row>
     <row r="4" spans="1:59" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="190"/>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="196"/>
-      <c r="F4" s="271"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="202"/>
-      <c r="N4" s="202"/>
+      <c r="A4" s="239"/>
+      <c r="B4" s="239"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="245"/>
+      <c r="F4" s="269"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="251"/>
+      <c r="J4" s="251"/>
+      <c r="K4" s="251"/>
+      <c r="L4" s="207"/>
+      <c r="M4" s="207"/>
+      <c r="N4" s="207"/>
       <c r="O4" s="53" t="s">
         <v>38</v>
       </c>
@@ -15453,9 +15453,9 @@
       <c r="R4" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="209"/>
-      <c r="T4" s="212"/>
-      <c r="U4" s="212"/>
+      <c r="S4" s="218"/>
+      <c r="T4" s="221"/>
+      <c r="U4" s="221"/>
       <c r="V4" s="56" t="s">
         <v>42</v>
       </c>
@@ -15486,7 +15486,7 @@
       <c r="AE4" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="AF4" s="258"/>
+      <c r="AF4" s="259"/>
       <c r="AG4" s="56" t="s">
         <v>48</v>
       </c>
@@ -15511,8 +15511,8 @@
       <c r="AN4" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="AO4" s="202"/>
-      <c r="AP4" s="247"/>
+      <c r="AO4" s="207"/>
+      <c r="AP4" s="210"/>
       <c r="AQ4" s="62" t="s">
         <v>42</v>
       </c>
@@ -15525,9 +15525,9 @@
       <c r="AT4" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="AU4" s="247"/>
-      <c r="AV4" s="247"/>
-      <c r="AW4" s="247"/>
+      <c r="AU4" s="210"/>
+      <c r="AV4" s="210"/>
+      <c r="AW4" s="210"/>
       <c r="AX4" s="61" t="s">
         <v>50</v>
       </c>
@@ -15543,11 +15543,11 @@
       <c r="BB4" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="BC4" s="237"/>
-      <c r="BD4" s="237"/>
-      <c r="BE4" s="237"/>
-      <c r="BF4" s="237"/>
-      <c r="BG4" s="268"/>
+      <c r="BC4" s="198"/>
+      <c r="BD4" s="198"/>
+      <c r="BE4" s="198"/>
+      <c r="BF4" s="198"/>
+      <c r="BG4" s="272"/>
     </row>
     <row r="5" spans="1:59" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="14">
@@ -19492,6 +19492,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="BF2:BF4"/>
+    <mergeCell ref="BG2:BG4"/>
+    <mergeCell ref="AX2:BB3"/>
+    <mergeCell ref="AJ2:AN3"/>
+    <mergeCell ref="O2:R3"/>
+    <mergeCell ref="AV2:AV4"/>
+    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="BC2:BC4"/>
+    <mergeCell ref="BD2:BD4"/>
+    <mergeCell ref="BE2:BE4"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="AF2:AF4"/>
+    <mergeCell ref="AO2:AO4"/>
+    <mergeCell ref="AP2:AP4"/>
+    <mergeCell ref="AU2:AU4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="T2:T4"/>
     <mergeCell ref="A1:BG1"/>
     <mergeCell ref="V2:AA2"/>
     <mergeCell ref="AB2:AE2"/>
@@ -19508,26 +19528,6 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="T2:T4"/>
-    <mergeCell ref="BF2:BF4"/>
-    <mergeCell ref="BG2:BG4"/>
-    <mergeCell ref="AX2:BB3"/>
-    <mergeCell ref="AJ2:AN3"/>
-    <mergeCell ref="O2:R3"/>
-    <mergeCell ref="AV2:AV4"/>
-    <mergeCell ref="AW2:AW4"/>
-    <mergeCell ref="BC2:BC4"/>
-    <mergeCell ref="BD2:BD4"/>
-    <mergeCell ref="BE2:BE4"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="AF2:AF4"/>
-    <mergeCell ref="AO2:AO4"/>
-    <mergeCell ref="AP2:AP4"/>
-    <mergeCell ref="AU2:AU4"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="1">
@@ -19578,31 +19578,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="273" t="s">
+      <c r="A1" s="274" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="273"/>
-      <c r="C1" s="273"/>
-      <c r="D1" s="273"/>
-      <c r="E1" s="273"/>
-      <c r="F1" s="273"/>
-      <c r="G1" s="273"/>
-      <c r="H1" s="273"/>
-      <c r="I1" s="273"/>
-      <c r="J1" s="273"/>
-      <c r="K1" s="273"/>
-      <c r="L1" s="273"/>
-      <c r="M1" s="273"/>
-      <c r="N1" s="273"/>
-      <c r="O1" s="273"/>
-      <c r="P1" s="273"/>
-      <c r="Q1" s="273"/>
-      <c r="R1" s="273"/>
-      <c r="S1" s="273"/>
-      <c r="T1" s="273"/>
-      <c r="U1" s="273"/>
-      <c r="V1" s="273"/>
-      <c r="W1" s="273"/>
+      <c r="B1" s="274"/>
+      <c r="C1" s="274"/>
+      <c r="D1" s="274"/>
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="274"/>
+      <c r="H1" s="274"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="274"/>
+      <c r="K1" s="274"/>
+      <c r="L1" s="274"/>
+      <c r="M1" s="274"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="274"/>
+      <c r="P1" s="274"/>
+      <c r="Q1" s="274"/>
+      <c r="R1" s="274"/>
+      <c r="S1" s="274"/>
+      <c r="T1" s="274"/>
+      <c r="U1" s="274"/>
+      <c r="V1" s="274"/>
+      <c r="W1" s="274"/>
     </row>
     <row r="2" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="22" t="s">
@@ -22363,221 +22363,221 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="236" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
-      <c r="P1" s="188"/>
-      <c r="Q1" s="188"/>
-      <c r="R1" s="188"/>
-      <c r="S1" s="188"/>
-      <c r="T1" s="188"/>
-      <c r="U1" s="188"/>
-      <c r="V1" s="188"/>
-      <c r="W1" s="188"/>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="188"/>
-      <c r="Z1" s="188"/>
-      <c r="AA1" s="188"/>
-      <c r="AB1" s="188"/>
-      <c r="AC1" s="188"/>
-      <c r="AD1" s="188"/>
-      <c r="AE1" s="188"/>
-      <c r="AF1" s="188"/>
-      <c r="AG1" s="188"/>
-      <c r="AH1" s="188"/>
-      <c r="AI1" s="188"/>
-      <c r="AJ1" s="188"/>
-      <c r="AK1" s="188"/>
-      <c r="AL1" s="188"/>
-      <c r="AM1" s="188"/>
-      <c r="AN1" s="188"/>
-      <c r="AO1" s="188"/>
-      <c r="AP1" s="188"/>
-      <c r="AQ1" s="188"/>
-      <c r="AR1" s="188"/>
-      <c r="AS1" s="188"/>
-      <c r="AT1" s="188"/>
-      <c r="AU1" s="188"/>
-      <c r="AV1" s="188"/>
-      <c r="AW1" s="188"/>
-      <c r="AX1" s="188"/>
-      <c r="AY1" s="188"/>
-      <c r="AZ1" s="188"/>
-      <c r="BA1" s="188"/>
-      <c r="BB1" s="188"/>
-      <c r="BC1" s="188"/>
-      <c r="BD1" s="188"/>
-      <c r="BE1" s="188"/>
-      <c r="BF1" s="188"/>
-      <c r="BG1" s="188"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="237"/>
+      <c r="H1" s="237"/>
+      <c r="I1" s="237"/>
+      <c r="J1" s="237"/>
+      <c r="K1" s="237"/>
+      <c r="L1" s="237"/>
+      <c r="M1" s="237"/>
+      <c r="N1" s="237"/>
+      <c r="O1" s="237"/>
+      <c r="P1" s="237"/>
+      <c r="Q1" s="237"/>
+      <c r="R1" s="237"/>
+      <c r="S1" s="237"/>
+      <c r="T1" s="237"/>
+      <c r="U1" s="237"/>
+      <c r="V1" s="237"/>
+      <c r="W1" s="237"/>
+      <c r="X1" s="237"/>
+      <c r="Y1" s="237"/>
+      <c r="Z1" s="237"/>
+      <c r="AA1" s="237"/>
+      <c r="AB1" s="237"/>
+      <c r="AC1" s="237"/>
+      <c r="AD1" s="237"/>
+      <c r="AE1" s="237"/>
+      <c r="AF1" s="237"/>
+      <c r="AG1" s="237"/>
+      <c r="AH1" s="237"/>
+      <c r="AI1" s="237"/>
+      <c r="AJ1" s="237"/>
+      <c r="AK1" s="237"/>
+      <c r="AL1" s="237"/>
+      <c r="AM1" s="237"/>
+      <c r="AN1" s="237"/>
+      <c r="AO1" s="237"/>
+      <c r="AP1" s="237"/>
+      <c r="AQ1" s="237"/>
+      <c r="AR1" s="237"/>
+      <c r="AS1" s="237"/>
+      <c r="AT1" s="237"/>
+      <c r="AU1" s="237"/>
+      <c r="AV1" s="237"/>
+      <c r="AW1" s="237"/>
+      <c r="AX1" s="237"/>
+      <c r="AY1" s="237"/>
+      <c r="AZ1" s="237"/>
+      <c r="BA1" s="237"/>
+      <c r="BB1" s="237"/>
+      <c r="BC1" s="237"/>
+      <c r="BD1" s="237"/>
+      <c r="BE1" s="237"/>
+      <c r="BF1" s="237"/>
+      <c r="BG1" s="237"/>
     </row>
     <row r="2" spans="1:59" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="239" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="190" t="s">
+      <c r="C2" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="191" t="s">
+      <c r="D2" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="194" t="s">
+      <c r="E2" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="269" t="s">
+      <c r="F2" s="267" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="203" t="s">
+      <c r="G2" s="250" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="203" t="s">
+      <c r="H2" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="204" t="s">
+      <c r="I2" s="251" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="204" t="s">
+      <c r="J2" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="204" t="s">
+      <c r="K2" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="203" t="s">
+      <c r="L2" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="203" t="s">
+      <c r="M2" s="250" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="203" t="s">
+      <c r="N2" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="183" t="s">
+      <c r="O2" s="232" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="184"/>
-      <c r="S2" s="209" t="s">
+      <c r="P2" s="233"/>
+      <c r="Q2" s="233"/>
+      <c r="R2" s="233"/>
+      <c r="S2" s="218" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="210" t="s">
+      <c r="T2" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="210" t="s">
+      <c r="U2" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="214" t="s">
+      <c r="V2" s="223" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="215"/>
-      <c r="X2" s="215"/>
-      <c r="Y2" s="215"/>
-      <c r="Z2" s="215"/>
-      <c r="AA2" s="216"/>
-      <c r="AB2" s="213" t="s">
+      <c r="W2" s="224"/>
+      <c r="X2" s="224"/>
+      <c r="Y2" s="224"/>
+      <c r="Z2" s="224"/>
+      <c r="AA2" s="225"/>
+      <c r="AB2" s="222" t="s">
         <v>20</v>
       </c>
-      <c r="AC2" s="213"/>
-      <c r="AD2" s="213"/>
-      <c r="AE2" s="213"/>
-      <c r="AF2" s="256" t="s">
+      <c r="AC2" s="222"/>
+      <c r="AD2" s="222"/>
+      <c r="AE2" s="222"/>
+      <c r="AF2" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="AG2" s="214" t="s">
+      <c r="AG2" s="223" t="s">
         <v>22</v>
       </c>
-      <c r="AH2" s="215"/>
-      <c r="AI2" s="216"/>
-      <c r="AJ2" s="217" t="s">
+      <c r="AH2" s="224"/>
+      <c r="AI2" s="225"/>
+      <c r="AJ2" s="226" t="s">
         <v>23</v>
       </c>
-      <c r="AK2" s="218"/>
-      <c r="AL2" s="218"/>
-      <c r="AM2" s="218"/>
-      <c r="AN2" s="219"/>
-      <c r="AO2" s="244" t="s">
+      <c r="AK2" s="227"/>
+      <c r="AL2" s="227"/>
+      <c r="AM2" s="227"/>
+      <c r="AN2" s="228"/>
+      <c r="AO2" s="205" t="s">
         <v>24</v>
       </c>
-      <c r="AP2" s="245" t="s">
+      <c r="AP2" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="AQ2" s="248" t="s">
+      <c r="AQ2" s="211" t="s">
         <v>26</v>
       </c>
-      <c r="AR2" s="249"/>
-      <c r="AS2" s="249"/>
-      <c r="AT2" s="250"/>
-      <c r="AU2" s="245" t="s">
+      <c r="AR2" s="212"/>
+      <c r="AS2" s="212"/>
+      <c r="AT2" s="213"/>
+      <c r="AU2" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="AV2" s="245" t="s">
+      <c r="AV2" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="AW2" s="259" t="s">
+      <c r="AW2" s="260" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="260" t="s">
+      <c r="AX2" s="261" t="s">
         <v>30</v>
       </c>
-      <c r="AY2" s="261"/>
-      <c r="AZ2" s="261"/>
-      <c r="BA2" s="261"/>
-      <c r="BB2" s="262"/>
-      <c r="BC2" s="235" t="s">
+      <c r="AY2" s="262"/>
+      <c r="AZ2" s="262"/>
+      <c r="BA2" s="262"/>
+      <c r="BB2" s="263"/>
+      <c r="BC2" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="BD2" s="235" t="s">
+      <c r="BD2" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="BE2" s="235" t="s">
+      <c r="BE2" s="196" t="s">
         <v>33</v>
       </c>
-      <c r="BF2" s="235" t="s">
+      <c r="BF2" s="196" t="s">
         <v>34</v>
       </c>
-      <c r="BG2" s="266" t="s">
+      <c r="BG2" s="270" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:59" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="190"/>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="270"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="201"/>
-      <c r="O3" s="185"/>
-      <c r="P3" s="186"/>
-      <c r="Q3" s="186"/>
-      <c r="R3" s="186"/>
-      <c r="S3" s="209"/>
-      <c r="T3" s="211"/>
-      <c r="U3" s="211"/>
+      <c r="A3" s="239"/>
+      <c r="B3" s="239"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="268"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="234"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="235"/>
+      <c r="S3" s="218"/>
+      <c r="T3" s="220"/>
+      <c r="U3" s="220"/>
       <c r="V3" s="54">
         <v>0.16</v>
       </c>
@@ -22609,7 +22609,7 @@
       <c r="AE3" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="AF3" s="257"/>
+      <c r="AF3" s="258"/>
       <c r="AG3" s="56">
         <v>0.05</v>
       </c>
@@ -22619,13 +22619,13 @@
       <c r="AI3" s="56">
         <v>0.1</v>
       </c>
-      <c r="AJ3" s="220"/>
-      <c r="AK3" s="221"/>
-      <c r="AL3" s="221"/>
-      <c r="AM3" s="221"/>
-      <c r="AN3" s="222"/>
-      <c r="AO3" s="201"/>
-      <c r="AP3" s="246"/>
+      <c r="AJ3" s="229"/>
+      <c r="AK3" s="230"/>
+      <c r="AL3" s="230"/>
+      <c r="AM3" s="230"/>
+      <c r="AN3" s="231"/>
+      <c r="AO3" s="206"/>
+      <c r="AP3" s="209"/>
       <c r="AQ3" s="59">
         <v>0.08</v>
       </c>
@@ -22638,35 +22638,35 @@
       <c r="AT3" s="60">
         <v>0.05</v>
       </c>
-      <c r="AU3" s="246"/>
-      <c r="AV3" s="246"/>
-      <c r="AW3" s="246"/>
-      <c r="AX3" s="263"/>
-      <c r="AY3" s="264"/>
-      <c r="AZ3" s="264"/>
-      <c r="BA3" s="264"/>
-      <c r="BB3" s="265"/>
-      <c r="BC3" s="236"/>
-      <c r="BD3" s="236"/>
-      <c r="BE3" s="236"/>
-      <c r="BF3" s="236"/>
-      <c r="BG3" s="267"/>
+      <c r="AU3" s="209"/>
+      <c r="AV3" s="209"/>
+      <c r="AW3" s="209"/>
+      <c r="AX3" s="264"/>
+      <c r="AY3" s="265"/>
+      <c r="AZ3" s="265"/>
+      <c r="BA3" s="265"/>
+      <c r="BB3" s="266"/>
+      <c r="BC3" s="197"/>
+      <c r="BD3" s="197"/>
+      <c r="BE3" s="197"/>
+      <c r="BF3" s="197"/>
+      <c r="BG3" s="271"/>
     </row>
     <row r="4" spans="1:59" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="190"/>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="196"/>
-      <c r="F4" s="271"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="202"/>
-      <c r="N4" s="202"/>
+      <c r="A4" s="239"/>
+      <c r="B4" s="239"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="245"/>
+      <c r="F4" s="269"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="251"/>
+      <c r="J4" s="251"/>
+      <c r="K4" s="251"/>
+      <c r="L4" s="207"/>
+      <c r="M4" s="207"/>
+      <c r="N4" s="207"/>
       <c r="O4" s="53" t="s">
         <v>38</v>
       </c>
@@ -22679,9 +22679,9 @@
       <c r="R4" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="209"/>
-      <c r="T4" s="212"/>
-      <c r="U4" s="212"/>
+      <c r="S4" s="218"/>
+      <c r="T4" s="221"/>
+      <c r="U4" s="221"/>
       <c r="V4" s="56" t="s">
         <v>42</v>
       </c>
@@ -22712,7 +22712,7 @@
       <c r="AE4" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="AF4" s="258"/>
+      <c r="AF4" s="259"/>
       <c r="AG4" s="56" t="s">
         <v>48</v>
       </c>
@@ -22737,8 +22737,8 @@
       <c r="AN4" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="AO4" s="202"/>
-      <c r="AP4" s="247"/>
+      <c r="AO4" s="207"/>
+      <c r="AP4" s="210"/>
       <c r="AQ4" s="62" t="s">
         <v>42</v>
       </c>
@@ -22751,9 +22751,9 @@
       <c r="AT4" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="AU4" s="247"/>
-      <c r="AV4" s="247"/>
-      <c r="AW4" s="247"/>
+      <c r="AU4" s="210"/>
+      <c r="AV4" s="210"/>
+      <c r="AW4" s="210"/>
       <c r="AX4" s="61" t="s">
         <v>50</v>
       </c>
@@ -22769,11 +22769,11 @@
       <c r="BB4" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="BC4" s="237"/>
-      <c r="BD4" s="237"/>
-      <c r="BE4" s="237"/>
-      <c r="BF4" s="237"/>
-      <c r="BG4" s="268"/>
+      <c r="BC4" s="198"/>
+      <c r="BD4" s="198"/>
+      <c r="BE4" s="198"/>
+      <c r="BF4" s="198"/>
+      <c r="BG4" s="272"/>
     </row>
     <row r="5" spans="1:59" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="14">
@@ -26773,6 +26773,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="BF2:BF4"/>
+    <mergeCell ref="BG2:BG4"/>
+    <mergeCell ref="AJ2:AN3"/>
+    <mergeCell ref="AX2:BB3"/>
+    <mergeCell ref="O2:R3"/>
+    <mergeCell ref="AV2:AV4"/>
+    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="BC2:BC4"/>
+    <mergeCell ref="BD2:BD4"/>
+    <mergeCell ref="BE2:BE4"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="AF2:AF4"/>
+    <mergeCell ref="AO2:AO4"/>
+    <mergeCell ref="AP2:AP4"/>
+    <mergeCell ref="AU2:AU4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="T2:T4"/>
     <mergeCell ref="A1:BG1"/>
     <mergeCell ref="V2:AA2"/>
     <mergeCell ref="AB2:AE2"/>
@@ -26789,26 +26809,6 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="T2:T4"/>
-    <mergeCell ref="BF2:BF4"/>
-    <mergeCell ref="BG2:BG4"/>
-    <mergeCell ref="AJ2:AN3"/>
-    <mergeCell ref="AX2:BB3"/>
-    <mergeCell ref="O2:R3"/>
-    <mergeCell ref="AV2:AV4"/>
-    <mergeCell ref="AW2:AW4"/>
-    <mergeCell ref="BC2:BC4"/>
-    <mergeCell ref="BD2:BD4"/>
-    <mergeCell ref="BE2:BE4"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="AF2:AF4"/>
-    <mergeCell ref="AO2:AO4"/>
-    <mergeCell ref="AP2:AP4"/>
-    <mergeCell ref="AU2:AU4"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="1">
@@ -26858,31 +26858,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="272" t="s">
+      <c r="A1" s="273" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="273"/>
-      <c r="C1" s="273"/>
-      <c r="D1" s="273"/>
-      <c r="E1" s="273"/>
-      <c r="F1" s="273"/>
-      <c r="G1" s="273"/>
-      <c r="H1" s="273"/>
-      <c r="I1" s="273"/>
-      <c r="J1" s="273"/>
-      <c r="K1" s="273"/>
-      <c r="L1" s="273"/>
-      <c r="M1" s="273"/>
-      <c r="N1" s="273"/>
-      <c r="O1" s="273"/>
-      <c r="P1" s="273"/>
-      <c r="Q1" s="273"/>
-      <c r="R1" s="273"/>
-      <c r="S1" s="273"/>
-      <c r="T1" s="273"/>
-      <c r="U1" s="273"/>
-      <c r="V1" s="273"/>
-      <c r="W1" s="273"/>
+      <c r="B1" s="274"/>
+      <c r="C1" s="274"/>
+      <c r="D1" s="274"/>
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="274"/>
+      <c r="H1" s="274"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="274"/>
+      <c r="K1" s="274"/>
+      <c r="L1" s="274"/>
+      <c r="M1" s="274"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="274"/>
+      <c r="P1" s="274"/>
+      <c r="Q1" s="274"/>
+      <c r="R1" s="274"/>
+      <c r="S1" s="274"/>
+      <c r="T1" s="274"/>
+      <c r="U1" s="274"/>
+      <c r="V1" s="274"/>
+      <c r="W1" s="274"/>
     </row>
     <row r="2" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="22" t="s">
@@ -29589,29 +29589,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="274" t="s">
+      <c r="B2" s="275" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="275" t="s">
+      <c r="C2" s="276" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="276"/>
-      <c r="E2" s="276"/>
-      <c r="F2" s="276"/>
-      <c r="G2" s="277"/>
-      <c r="H2" s="275" t="s">
+      <c r="D2" s="277"/>
+      <c r="E2" s="277"/>
+      <c r="F2" s="277"/>
+      <c r="G2" s="278"/>
+      <c r="H2" s="276" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="276"/>
-      <c r="J2" s="276"/>
-      <c r="K2" s="277"/>
-      <c r="L2" s="278" t="s">
+      <c r="I2" s="277"/>
+      <c r="J2" s="277"/>
+      <c r="K2" s="278"/>
+      <c r="L2" s="279" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="279"/>
+      <c r="M2" s="280"/>
     </row>
     <row r="3" spans="2:13" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="274"/>
+      <c r="B3" s="275"/>
       <c r="C3" s="174" t="s">
         <v>124</v>
       </c>
@@ -29776,30 +29776,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="274" t="s">
+      <c r="B2" s="275" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="275" t="s">
+      <c r="C2" s="276" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="276"/>
-      <c r="E2" s="276"/>
-      <c r="F2" s="276"/>
-      <c r="G2" s="276"/>
-      <c r="H2" s="277"/>
-      <c r="I2" s="275" t="s">
+      <c r="D2" s="277"/>
+      <c r="E2" s="277"/>
+      <c r="F2" s="277"/>
+      <c r="G2" s="277"/>
+      <c r="H2" s="278"/>
+      <c r="I2" s="276" t="s">
         <v>123</v>
       </c>
-      <c r="J2" s="276"/>
-      <c r="K2" s="276"/>
-      <c r="L2" s="277"/>
-      <c r="M2" s="278" t="s">
+      <c r="J2" s="277"/>
+      <c r="K2" s="277"/>
+      <c r="L2" s="278"/>
+      <c r="M2" s="279" t="s">
         <v>110</v>
       </c>
-      <c r="N2" s="279"/>
+      <c r="N2" s="280"/>
     </row>
     <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="274"/>
+      <c r="B3" s="275"/>
       <c r="C3" s="3" t="s">
         <v>124</v>
       </c>
@@ -29977,30 +29977,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="274" t="s">
+      <c r="B2" s="275" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="275" t="s">
+      <c r="C2" s="276" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="276"/>
-      <c r="E2" s="276"/>
-      <c r="F2" s="276"/>
-      <c r="G2" s="276"/>
-      <c r="H2" s="277"/>
-      <c r="I2" s="275" t="s">
+      <c r="D2" s="277"/>
+      <c r="E2" s="277"/>
+      <c r="F2" s="277"/>
+      <c r="G2" s="277"/>
+      <c r="H2" s="278"/>
+      <c r="I2" s="276" t="s">
         <v>123</v>
       </c>
-      <c r="J2" s="276"/>
-      <c r="K2" s="276"/>
-      <c r="L2" s="277"/>
-      <c r="M2" s="278" t="s">
+      <c r="J2" s="277"/>
+      <c r="K2" s="277"/>
+      <c r="L2" s="278"/>
+      <c r="M2" s="279" t="s">
         <v>110</v>
       </c>
-      <c r="N2" s="279"/>
+      <c r="N2" s="280"/>
     </row>
     <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="274"/>
+      <c r="B3" s="275"/>
       <c r="C3" s="3" t="s">
         <v>124</v>
       </c>
@@ -30179,8 +30179,8 @@
     <col min="21" max="16384" width="8.77734375" style="166"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="251" customFormat="1" ht="27.45" customHeight="1">
-      <c r="A1" s="251" t="s">
+    <row r="1" spans="1:18" s="252" customFormat="1" ht="27.45" customHeight="1">
+      <c r="A1" s="252" t="s">
         <v>180</v>
       </c>
     </row>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="252" customFormat="1" ht="10.95" customHeight="1"/>
+    <row r="4" spans="1:18" s="253" customFormat="1" ht="10.95" customHeight="1"/>
     <row r="5" spans="1:18">
       <c r="B5" s="80" t="s">
         <v>1</v>
@@ -30937,7 +30937,7 @@
       <pane xSplit="6" ySplit="4" topLeftCell="AS5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BK8" sqref="BK8"/>
+      <selection pane="bottomRight" activeCell="AX17" sqref="AX17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
@@ -31001,146 +31001,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="236" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
-      <c r="P1" s="188"/>
-      <c r="Q1" s="188"/>
-      <c r="R1" s="188"/>
-      <c r="S1" s="188"/>
-      <c r="T1" s="188"/>
-      <c r="U1" s="188"/>
-      <c r="V1" s="188"/>
-      <c r="W1" s="188"/>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="188"/>
-      <c r="Z1" s="188"/>
-      <c r="AA1" s="188"/>
-      <c r="AB1" s="188"/>
-      <c r="AC1" s="188"/>
-      <c r="AD1" s="188"/>
-      <c r="AE1" s="188"/>
-      <c r="AF1" s="188"/>
-      <c r="AG1" s="188"/>
-      <c r="AH1" s="188"/>
-      <c r="AI1" s="188"/>
-      <c r="AJ1" s="188"/>
-      <c r="AK1" s="188"/>
-      <c r="AL1" s="188"/>
-      <c r="AM1" s="188"/>
-      <c r="AN1" s="188"/>
-      <c r="AO1" s="188"/>
-      <c r="AP1" s="188"/>
-      <c r="AQ1" s="188"/>
-      <c r="AR1" s="188"/>
-      <c r="AS1" s="188"/>
-      <c r="AT1" s="188"/>
-      <c r="AU1" s="188"/>
-      <c r="AV1" s="188"/>
-      <c r="AW1" s="188"/>
-      <c r="AX1" s="188"/>
-      <c r="AY1" s="188"/>
-      <c r="AZ1" s="188"/>
-      <c r="BA1" s="188"/>
-      <c r="BB1" s="188"/>
-      <c r="BC1" s="188"/>
-      <c r="BD1" s="188"/>
-      <c r="BE1" s="188"/>
-      <c r="BF1" s="188"/>
-      <c r="BG1" s="188"/>
-      <c r="BH1" s="188"/>
-      <c r="BI1" s="188"/>
-      <c r="BJ1" s="188"/>
-      <c r="BK1" s="188"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="237"/>
+      <c r="H1" s="237"/>
+      <c r="I1" s="237"/>
+      <c r="J1" s="237"/>
+      <c r="K1" s="237"/>
+      <c r="L1" s="237"/>
+      <c r="M1" s="237"/>
+      <c r="N1" s="237"/>
+      <c r="O1" s="237"/>
+      <c r="P1" s="237"/>
+      <c r="Q1" s="237"/>
+      <c r="R1" s="237"/>
+      <c r="S1" s="237"/>
+      <c r="T1" s="237"/>
+      <c r="U1" s="237"/>
+      <c r="V1" s="237"/>
+      <c r="W1" s="237"/>
+      <c r="X1" s="237"/>
+      <c r="Y1" s="237"/>
+      <c r="Z1" s="237"/>
+      <c r="AA1" s="237"/>
+      <c r="AB1" s="237"/>
+      <c r="AC1" s="237"/>
+      <c r="AD1" s="237"/>
+      <c r="AE1" s="237"/>
+      <c r="AF1" s="237"/>
+      <c r="AG1" s="237"/>
+      <c r="AH1" s="237"/>
+      <c r="AI1" s="237"/>
+      <c r="AJ1" s="237"/>
+      <c r="AK1" s="237"/>
+      <c r="AL1" s="237"/>
+      <c r="AM1" s="237"/>
+      <c r="AN1" s="237"/>
+      <c r="AO1" s="237"/>
+      <c r="AP1" s="237"/>
+      <c r="AQ1" s="237"/>
+      <c r="AR1" s="237"/>
+      <c r="AS1" s="237"/>
+      <c r="AT1" s="237"/>
+      <c r="AU1" s="237"/>
+      <c r="AV1" s="237"/>
+      <c r="AW1" s="237"/>
+      <c r="AX1" s="237"/>
+      <c r="AY1" s="237"/>
+      <c r="AZ1" s="237"/>
+      <c r="BA1" s="237"/>
+      <c r="BB1" s="237"/>
+      <c r="BC1" s="237"/>
+      <c r="BD1" s="237"/>
+      <c r="BE1" s="237"/>
+      <c r="BF1" s="237"/>
+      <c r="BG1" s="237"/>
+      <c r="BH1" s="237"/>
+      <c r="BI1" s="237"/>
+      <c r="BJ1" s="237"/>
+      <c r="BK1" s="237"/>
     </row>
     <row r="2" spans="1:65" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="238" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="190" t="s">
+      <c r="C2" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="191" t="s">
+      <c r="D2" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="194" t="s">
+      <c r="E2" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="197" t="s">
+      <c r="F2" s="246" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="200" t="s">
+      <c r="G2" s="249" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="203" t="s">
+      <c r="H2" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="204" t="s">
+      <c r="I2" s="251" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="204" t="s">
+      <c r="J2" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="204" t="s">
+      <c r="K2" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="203" t="s">
+      <c r="L2" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="203" t="s">
+      <c r="M2" s="250" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="203" t="s">
+      <c r="N2" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="183" t="s">
+      <c r="O2" s="232" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="184"/>
-      <c r="S2" s="209" t="s">
+      <c r="P2" s="233"/>
+      <c r="Q2" s="233"/>
+      <c r="R2" s="233"/>
+      <c r="S2" s="218" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="210" t="s">
+      <c r="T2" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="210" t="s">
+      <c r="U2" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="213" t="s">
+      <c r="V2" s="222" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="213"/>
-      <c r="X2" s="213"/>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="213"/>
-      <c r="AA2" s="213"/>
-      <c r="AB2" s="213"/>
-      <c r="AC2" s="213"/>
-      <c r="AD2" s="213"/>
-      <c r="AE2" s="214" t="s">
+      <c r="W2" s="222"/>
+      <c r="X2" s="222"/>
+      <c r="Y2" s="222"/>
+      <c r="Z2" s="222"/>
+      <c r="AA2" s="222"/>
+      <c r="AB2" s="222"/>
+      <c r="AC2" s="222"/>
+      <c r="AD2" s="222"/>
+      <c r="AE2" s="223" t="s">
         <v>131</v>
       </c>
-      <c r="AF2" s="215"/>
-      <c r="AG2" s="216"/>
+      <c r="AF2" s="224"/>
+      <c r="AG2" s="225"/>
       <c r="AH2" s="177" t="s">
         <v>175</v>
       </c>
@@ -31150,107 +31150,107 @@
       <c r="AL2" s="177" t="s">
         <v>110</v>
       </c>
-      <c r="AM2" s="217" t="s">
+      <c r="AM2" s="226" t="s">
         <v>23</v>
       </c>
-      <c r="AN2" s="218"/>
-      <c r="AO2" s="218"/>
-      <c r="AP2" s="218"/>
-      <c r="AQ2" s="219"/>
-      <c r="AR2" s="244" t="s">
+      <c r="AN2" s="227"/>
+      <c r="AO2" s="227"/>
+      <c r="AP2" s="227"/>
+      <c r="AQ2" s="228"/>
+      <c r="AR2" s="205" t="s">
         <v>24</v>
       </c>
-      <c r="AS2" s="245" t="s">
+      <c r="AS2" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="AT2" s="248" t="s">
+      <c r="AT2" s="211" t="s">
         <v>26</v>
       </c>
-      <c r="AU2" s="249"/>
-      <c r="AV2" s="249"/>
-      <c r="AW2" s="250"/>
-      <c r="AX2" s="205" t="s">
+      <c r="AU2" s="212"/>
+      <c r="AV2" s="212"/>
+      <c r="AW2" s="213"/>
+      <c r="AX2" s="214" t="s">
         <v>153</v>
       </c>
-      <c r="AY2" s="205" t="s">
+      <c r="AY2" s="214" t="s">
         <v>154</v>
       </c>
-      <c r="AZ2" s="208" t="s">
+      <c r="AZ2" s="217" t="s">
         <v>29</v>
       </c>
-      <c r="BA2" s="229" t="s">
+      <c r="BA2" s="190" t="s">
         <v>155</v>
       </c>
-      <c r="BB2" s="230"/>
-      <c r="BC2" s="230"/>
-      <c r="BD2" s="230"/>
-      <c r="BE2" s="231"/>
-      <c r="BF2" s="235" t="s">
+      <c r="BB2" s="191"/>
+      <c r="BC2" s="191"/>
+      <c r="BD2" s="191"/>
+      <c r="BE2" s="192"/>
+      <c r="BF2" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="BG2" s="235" t="s">
+      <c r="BG2" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="BH2" s="235" t="s">
+      <c r="BH2" s="196" t="s">
         <v>33</v>
       </c>
-      <c r="BI2" s="238" t="s">
+      <c r="BI2" s="199" t="s">
         <v>34</v>
       </c>
-      <c r="BJ2" s="253" t="s">
+      <c r="BJ2" s="254" t="s">
         <v>176</v>
       </c>
-      <c r="BK2" s="241" t="s">
+      <c r="BK2" s="202" t="s">
         <v>35</v>
       </c>
-      <c r="BL2" s="223" t="s">
+      <c r="BL2" s="184" t="s">
         <v>118</v>
       </c>
-      <c r="BM2" s="223" t="s">
+      <c r="BM2" s="184" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:65" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="189"/>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="198"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="201"/>
-      <c r="O3" s="185"/>
-      <c r="P3" s="186"/>
-      <c r="Q3" s="186"/>
-      <c r="R3" s="186"/>
-      <c r="S3" s="209"/>
-      <c r="T3" s="211"/>
-      <c r="U3" s="211"/>
-      <c r="V3" s="226" t="s">
+      <c r="A3" s="238"/>
+      <c r="B3" s="239"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="234"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="235"/>
+      <c r="S3" s="218"/>
+      <c r="T3" s="220"/>
+      <c r="U3" s="220"/>
+      <c r="V3" s="187" t="s">
         <v>171</v>
       </c>
       <c r="W3" s="54">
         <v>0.16</v>
       </c>
-      <c r="X3" s="227" t="s">
+      <c r="X3" s="188" t="s">
         <v>172</v>
       </c>
       <c r="Y3" s="54">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="Z3" s="227" t="s">
+      <c r="Z3" s="188" t="s">
         <v>173</v>
       </c>
       <c r="AA3" s="54">
         <v>2E-3</v>
       </c>
-      <c r="AB3" s="228" t="s">
+      <c r="AB3" s="189" t="s">
         <v>174</v>
       </c>
       <c r="AC3" s="54">
@@ -31282,13 +31282,13 @@
       <c r="AL3" s="173">
         <v>0.1</v>
       </c>
-      <c r="AM3" s="220"/>
-      <c r="AN3" s="221"/>
-      <c r="AO3" s="221"/>
-      <c r="AP3" s="221"/>
-      <c r="AQ3" s="222"/>
-      <c r="AR3" s="201"/>
-      <c r="AS3" s="246"/>
+      <c r="AM3" s="229"/>
+      <c r="AN3" s="230"/>
+      <c r="AO3" s="230"/>
+      <c r="AP3" s="230"/>
+      <c r="AQ3" s="231"/>
+      <c r="AR3" s="206"/>
+      <c r="AS3" s="209"/>
       <c r="AT3" s="59">
         <v>0.08</v>
       </c>
@@ -31301,38 +31301,38 @@
       <c r="AW3" s="60">
         <v>0.05</v>
       </c>
-      <c r="AX3" s="206"/>
-      <c r="AY3" s="206"/>
-      <c r="AZ3" s="206"/>
-      <c r="BA3" s="232"/>
-      <c r="BB3" s="233"/>
-      <c r="BC3" s="233"/>
-      <c r="BD3" s="233"/>
-      <c r="BE3" s="234"/>
-      <c r="BF3" s="236"/>
-      <c r="BG3" s="236"/>
-      <c r="BH3" s="236"/>
-      <c r="BI3" s="239"/>
-      <c r="BJ3" s="254"/>
-      <c r="BK3" s="242"/>
-      <c r="BL3" s="224"/>
-      <c r="BM3" s="224"/>
+      <c r="AX3" s="215"/>
+      <c r="AY3" s="215"/>
+      <c r="AZ3" s="215"/>
+      <c r="BA3" s="193"/>
+      <c r="BB3" s="194"/>
+      <c r="BC3" s="194"/>
+      <c r="BD3" s="194"/>
+      <c r="BE3" s="195"/>
+      <c r="BF3" s="197"/>
+      <c r="BG3" s="197"/>
+      <c r="BH3" s="197"/>
+      <c r="BI3" s="200"/>
+      <c r="BJ3" s="255"/>
+      <c r="BK3" s="203"/>
+      <c r="BL3" s="185"/>
+      <c r="BM3" s="185"/>
     </row>
     <row r="4" spans="1:65" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="189"/>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="196"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="202"/>
-      <c r="N4" s="202"/>
+      <c r="A4" s="238"/>
+      <c r="B4" s="239"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="245"/>
+      <c r="F4" s="248"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="251"/>
+      <c r="J4" s="251"/>
+      <c r="K4" s="251"/>
+      <c r="L4" s="207"/>
+      <c r="M4" s="207"/>
+      <c r="N4" s="207"/>
       <c r="O4" s="53" t="s">
         <v>38</v>
       </c>
@@ -31345,22 +31345,22 @@
       <c r="R4" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="209"/>
-      <c r="T4" s="212"/>
-      <c r="U4" s="212"/>
-      <c r="V4" s="226"/>
+      <c r="S4" s="218"/>
+      <c r="T4" s="221"/>
+      <c r="U4" s="221"/>
+      <c r="V4" s="187"/>
       <c r="W4" s="173" t="s">
         <v>42</v>
       </c>
-      <c r="X4" s="227"/>
+      <c r="X4" s="188"/>
       <c r="Y4" s="173" t="s">
         <v>43</v>
       </c>
-      <c r="Z4" s="227"/>
+      <c r="Z4" s="188"/>
       <c r="AA4" s="173" t="s">
         <v>44</v>
       </c>
-      <c r="AB4" s="228"/>
+      <c r="AB4" s="189"/>
       <c r="AC4" s="178" t="s">
         <v>170</v>
       </c>
@@ -31404,8 +31404,8 @@
       <c r="AQ4" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="AR4" s="202"/>
-      <c r="AS4" s="247"/>
+      <c r="AR4" s="207"/>
+      <c r="AS4" s="210"/>
       <c r="AT4" s="62" t="s">
         <v>42</v>
       </c>
@@ -31418,9 +31418,9 @@
       <c r="AW4" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="AX4" s="207"/>
-      <c r="AY4" s="207"/>
-      <c r="AZ4" s="207"/>
+      <c r="AX4" s="216"/>
+      <c r="AY4" s="216"/>
+      <c r="AZ4" s="216"/>
       <c r="BA4" s="171" t="s">
         <v>156</v>
       </c>
@@ -31436,14 +31436,14 @@
       <c r="BE4" s="172" t="s">
         <v>160</v>
       </c>
-      <c r="BF4" s="237"/>
-      <c r="BG4" s="237"/>
-      <c r="BH4" s="237"/>
-      <c r="BI4" s="240"/>
-      <c r="BJ4" s="255"/>
-      <c r="BK4" s="243"/>
-      <c r="BL4" s="225"/>
-      <c r="BM4" s="225"/>
+      <c r="BF4" s="198"/>
+      <c r="BG4" s="198"/>
+      <c r="BH4" s="198"/>
+      <c r="BI4" s="201"/>
+      <c r="BJ4" s="256"/>
+      <c r="BK4" s="204"/>
+      <c r="BL4" s="186"/>
+      <c r="BM4" s="186"/>
     </row>
     <row r="5" spans="1:65" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="77">
@@ -32313,8 +32313,8 @@
         <v>0</v>
       </c>
       <c r="BJ8" s="9"/>
-      <c r="BK8" s="280">
-        <f t="shared" ref="BK8:BK9" si="28">IF(AS8="","",AS8-AT8-AU8-AV8-AW8-BI8+BJ8)</f>
+      <c r="BK8" s="183">
+        <f t="shared" ref="BK8" si="28">IF(AS8="","",AS8-AT8-AU8-AV8-AW8-BI8+BJ8)</f>
         <v>3726.1000000000004</v>
       </c>
       <c r="BL8" s="65"/>
@@ -32536,7 +32536,7 @@
         <v>0</v>
       </c>
       <c r="BJ9" s="9"/>
-      <c r="BK9" s="280">
+      <c r="BK9" s="183">
         <v>0</v>
       </c>
       <c r="BL9" s="65"/>
@@ -33711,27 +33711,27 @@
       </c>
       <c r="AB15" s="154"/>
       <c r="AC15" s="42">
-        <f>SUM(AC5:AC14)</f>
+        <f t="shared" ref="AC15:AH15" si="31">SUM(AC5:AC14)</f>
         <v>9865.8000000000011</v>
       </c>
       <c r="AD15" s="42">
-        <f>SUM(AD5:AD14)</f>
+        <f t="shared" si="31"/>
         <v>25228.7</v>
       </c>
       <c r="AE15" s="42">
-        <f>SUM(AE5:AE14)</f>
+        <f t="shared" si="31"/>
         <v>7229.6</v>
       </c>
       <c r="AF15" s="42">
-        <f>SUM(AF5:AF14)</f>
+        <f t="shared" si="31"/>
         <v>84.289999999999992</v>
       </c>
       <c r="AG15" s="42">
-        <f>SUM(AG5:AG14)</f>
+        <f t="shared" si="31"/>
         <v>1854</v>
       </c>
       <c r="AH15" s="42">
-        <f>SUM(AH5:AH14)</f>
+        <f t="shared" si="31"/>
         <v>9167.89</v>
       </c>
       <c r="AJ15" s="42">
@@ -33747,67 +33747,67 @@
         <v>9036</v>
       </c>
       <c r="AS15" s="42">
-        <f t="shared" ref="AS15:BM15" si="31">SUM(AS5:AS14)</f>
+        <f t="shared" ref="AS15:BM15" si="32">SUM(AS5:AS14)</f>
         <v>85431.2</v>
       </c>
       <c r="AT15" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>7229.6</v>
       </c>
       <c r="AU15" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1854</v>
       </c>
       <c r="AV15" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>84.289999999999992</v>
       </c>
       <c r="AW15" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4518</v>
       </c>
       <c r="AX15" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>760382.01</v>
       </c>
       <c r="AY15" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>350000</v>
       </c>
       <c r="AZ15" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>74136.05</v>
       </c>
       <c r="BA15" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>28000</v>
       </c>
       <c r="BB15" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>70000</v>
       </c>
       <c r="BC15" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BD15" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>21000</v>
       </c>
       <c r="BE15" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BF15" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>217245.96000000002</v>
       </c>
       <c r="BG15" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>21842.690000000002</v>
       </c>
       <c r="BH15" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>18397.080000000002</v>
       </c>
       <c r="BI15" s="46">
@@ -33819,12 +33819,12 @@
         <v>54000</v>
       </c>
       <c r="BK15" s="46">
-        <f>SUM(BK10:BK14)</f>
-        <v>113010.49999999999</v>
+        <f>SUM(BK5:BK14)</f>
+        <v>116736.59999999999</v>
       </c>
       <c r="BL15" s="154"/>
       <c r="BM15" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -33861,31 +33861,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="BK2:BK4"/>
-    <mergeCell ref="BL2:BL4"/>
-    <mergeCell ref="AX2:AX4"/>
-    <mergeCell ref="AR2:AR4"/>
-    <mergeCell ref="AS2:AS4"/>
-    <mergeCell ref="AT2:AW2"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="BJ2:BJ4"/>
-    <mergeCell ref="BI2:BI4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="O2:R3"/>
-    <mergeCell ref="BM2:BM4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="V2:AD2"/>
-    <mergeCell ref="AY2:AY4"/>
-    <mergeCell ref="AZ2:AZ4"/>
-    <mergeCell ref="BA2:BE3"/>
-    <mergeCell ref="BF2:BF4"/>
-    <mergeCell ref="BG2:BG4"/>
-    <mergeCell ref="BH2:BH4"/>
-    <mergeCell ref="AM2:AQ3"/>
     <mergeCell ref="A1:BK1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
@@ -33902,6 +33877,31 @@
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="L2:L4"/>
+    <mergeCell ref="BM2:BM4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="V2:AD2"/>
+    <mergeCell ref="AY2:AY4"/>
+    <mergeCell ref="AZ2:AZ4"/>
+    <mergeCell ref="BA2:BE3"/>
+    <mergeCell ref="BF2:BF4"/>
+    <mergeCell ref="BG2:BG4"/>
+    <mergeCell ref="BH2:BH4"/>
+    <mergeCell ref="AM2:AQ3"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="BJ2:BJ4"/>
+    <mergeCell ref="BI2:BI4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="O2:R3"/>
+    <mergeCell ref="BK2:BK4"/>
+    <mergeCell ref="BL2:BL4"/>
+    <mergeCell ref="AX2:AX4"/>
+    <mergeCell ref="AR2:AR4"/>
+    <mergeCell ref="AS2:AS4"/>
+    <mergeCell ref="AT2:AW2"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E14" xr:uid="{E0FACE11-4004-4A59-A3AE-5C17C042D7F3}">
@@ -33931,8 +33931,8 @@
     <col min="21" max="16384" width="8.77734375" style="166"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="251" customFormat="1" ht="27.45" customHeight="1">
-      <c r="A1" s="251" t="s">
+    <row r="1" spans="1:18" s="252" customFormat="1" ht="27.45" customHeight="1">
+      <c r="A1" s="252" t="s">
         <v>178</v>
       </c>
     </row>
@@ -34032,7 +34032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="252" customFormat="1" ht="10.95" customHeight="1"/>
+    <row r="4" spans="1:18" s="253" customFormat="1" ht="10.95" customHeight="1"/>
     <row r="5" spans="1:18">
       <c r="B5" s="80" t="s">
         <v>1</v>
@@ -35214,227 +35214,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="236" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
-      <c r="P1" s="188"/>
-      <c r="Q1" s="188"/>
-      <c r="R1" s="188"/>
-      <c r="S1" s="188"/>
-      <c r="T1" s="188"/>
-      <c r="U1" s="188"/>
-      <c r="V1" s="188"/>
-      <c r="W1" s="188"/>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="188"/>
-      <c r="Z1" s="188"/>
-      <c r="AA1" s="188"/>
-      <c r="AB1" s="188"/>
-      <c r="AC1" s="188"/>
-      <c r="AD1" s="188"/>
-      <c r="AE1" s="188"/>
-      <c r="AF1" s="188"/>
-      <c r="AG1" s="188"/>
-      <c r="AH1" s="188"/>
-      <c r="AI1" s="188"/>
-      <c r="AJ1" s="188"/>
-      <c r="AK1" s="188"/>
-      <c r="AL1" s="188"/>
-      <c r="AM1" s="188"/>
-      <c r="AN1" s="188"/>
-      <c r="AO1" s="188"/>
-      <c r="AP1" s="188"/>
-      <c r="AQ1" s="188"/>
-      <c r="AR1" s="188"/>
-      <c r="AS1" s="188"/>
-      <c r="AT1" s="188"/>
-      <c r="AU1" s="188"/>
-      <c r="AV1" s="188"/>
-      <c r="AW1" s="188"/>
-      <c r="AX1" s="188"/>
-      <c r="AY1" s="188"/>
-      <c r="AZ1" s="188"/>
-      <c r="BA1" s="188"/>
-      <c r="BB1" s="188"/>
-      <c r="BC1" s="188"/>
-      <c r="BD1" s="188"/>
-      <c r="BE1" s="188"/>
-      <c r="BF1" s="188"/>
-      <c r="BG1" s="188"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="237"/>
+      <c r="H1" s="237"/>
+      <c r="I1" s="237"/>
+      <c r="J1" s="237"/>
+      <c r="K1" s="237"/>
+      <c r="L1" s="237"/>
+      <c r="M1" s="237"/>
+      <c r="N1" s="237"/>
+      <c r="O1" s="237"/>
+      <c r="P1" s="237"/>
+      <c r="Q1" s="237"/>
+      <c r="R1" s="237"/>
+      <c r="S1" s="237"/>
+      <c r="T1" s="237"/>
+      <c r="U1" s="237"/>
+      <c r="V1" s="237"/>
+      <c r="W1" s="237"/>
+      <c r="X1" s="237"/>
+      <c r="Y1" s="237"/>
+      <c r="Z1" s="237"/>
+      <c r="AA1" s="237"/>
+      <c r="AB1" s="237"/>
+      <c r="AC1" s="237"/>
+      <c r="AD1" s="237"/>
+      <c r="AE1" s="237"/>
+      <c r="AF1" s="237"/>
+      <c r="AG1" s="237"/>
+      <c r="AH1" s="237"/>
+      <c r="AI1" s="237"/>
+      <c r="AJ1" s="237"/>
+      <c r="AK1" s="237"/>
+      <c r="AL1" s="237"/>
+      <c r="AM1" s="237"/>
+      <c r="AN1" s="237"/>
+      <c r="AO1" s="237"/>
+      <c r="AP1" s="237"/>
+      <c r="AQ1" s="237"/>
+      <c r="AR1" s="237"/>
+      <c r="AS1" s="237"/>
+      <c r="AT1" s="237"/>
+      <c r="AU1" s="237"/>
+      <c r="AV1" s="237"/>
+      <c r="AW1" s="237"/>
+      <c r="AX1" s="237"/>
+      <c r="AY1" s="237"/>
+      <c r="AZ1" s="237"/>
+      <c r="BA1" s="237"/>
+      <c r="BB1" s="237"/>
+      <c r="BC1" s="237"/>
+      <c r="BD1" s="237"/>
+      <c r="BE1" s="237"/>
+      <c r="BF1" s="237"/>
+      <c r="BG1" s="237"/>
     </row>
     <row r="2" spans="1:61" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="238" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="190" t="s">
+      <c r="C2" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="191" t="s">
+      <c r="D2" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="194" t="s">
+      <c r="E2" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="197" t="s">
+      <c r="F2" s="246" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="200" t="s">
+      <c r="G2" s="249" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="203" t="s">
+      <c r="H2" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="204" t="s">
+      <c r="I2" s="251" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="204" t="s">
+      <c r="J2" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="204" t="s">
+      <c r="K2" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="203" t="s">
+      <c r="L2" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="203" t="s">
+      <c r="M2" s="250" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="203" t="s">
+      <c r="N2" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="183" t="s">
+      <c r="O2" s="232" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="184"/>
-      <c r="S2" s="209" t="s">
+      <c r="P2" s="233"/>
+      <c r="Q2" s="233"/>
+      <c r="R2" s="233"/>
+      <c r="S2" s="218" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="210" t="s">
+      <c r="T2" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="210" t="s">
+      <c r="U2" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="214" t="s">
+      <c r="V2" s="223" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="215"/>
-      <c r="X2" s="215"/>
-      <c r="Y2" s="215"/>
-      <c r="Z2" s="215"/>
-      <c r="AA2" s="216"/>
-      <c r="AB2" s="213" t="s">
+      <c r="W2" s="224"/>
+      <c r="X2" s="224"/>
+      <c r="Y2" s="224"/>
+      <c r="Z2" s="224"/>
+      <c r="AA2" s="225"/>
+      <c r="AB2" s="222" t="s">
         <v>20</v>
       </c>
-      <c r="AC2" s="213"/>
-      <c r="AD2" s="213"/>
-      <c r="AE2" s="213"/>
-      <c r="AF2" s="256" t="s">
+      <c r="AC2" s="222"/>
+      <c r="AD2" s="222"/>
+      <c r="AE2" s="222"/>
+      <c r="AF2" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="AG2" s="214" t="s">
+      <c r="AG2" s="223" t="s">
         <v>22</v>
       </c>
-      <c r="AH2" s="215"/>
-      <c r="AI2" s="216"/>
-      <c r="AJ2" s="217" t="s">
+      <c r="AH2" s="224"/>
+      <c r="AI2" s="225"/>
+      <c r="AJ2" s="226" t="s">
         <v>23</v>
       </c>
-      <c r="AK2" s="218"/>
-      <c r="AL2" s="218"/>
-      <c r="AM2" s="218"/>
-      <c r="AN2" s="219"/>
-      <c r="AO2" s="244" t="s">
+      <c r="AK2" s="227"/>
+      <c r="AL2" s="227"/>
+      <c r="AM2" s="227"/>
+      <c r="AN2" s="228"/>
+      <c r="AO2" s="205" t="s">
         <v>24</v>
       </c>
-      <c r="AP2" s="245" t="s">
+      <c r="AP2" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="AQ2" s="248" t="s">
+      <c r="AQ2" s="211" t="s">
         <v>26</v>
       </c>
-      <c r="AR2" s="249"/>
-      <c r="AS2" s="249"/>
-      <c r="AT2" s="250"/>
-      <c r="AU2" s="205" t="s">
+      <c r="AR2" s="212"/>
+      <c r="AS2" s="212"/>
+      <c r="AT2" s="213"/>
+      <c r="AU2" s="214" t="s">
         <v>153</v>
       </c>
-      <c r="AV2" s="205" t="s">
+      <c r="AV2" s="214" t="s">
         <v>154</v>
       </c>
-      <c r="AW2" s="208" t="s">
+      <c r="AW2" s="217" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="229" t="s">
+      <c r="AX2" s="190" t="s">
         <v>155</v>
       </c>
-      <c r="AY2" s="230"/>
-      <c r="AZ2" s="230"/>
-      <c r="BA2" s="230"/>
-      <c r="BB2" s="231"/>
-      <c r="BC2" s="235" t="s">
+      <c r="AY2" s="191"/>
+      <c r="AZ2" s="191"/>
+      <c r="BA2" s="191"/>
+      <c r="BB2" s="192"/>
+      <c r="BC2" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="BD2" s="235" t="s">
+      <c r="BD2" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="BE2" s="235" t="s">
+      <c r="BE2" s="196" t="s">
         <v>33</v>
       </c>
-      <c r="BF2" s="238" t="s">
+      <c r="BF2" s="199" t="s">
         <v>34</v>
       </c>
-      <c r="BG2" s="241" t="s">
+      <c r="BG2" s="202" t="s">
         <v>35</v>
       </c>
-      <c r="BH2" s="223" t="s">
+      <c r="BH2" s="184" t="s">
         <v>118</v>
       </c>
-      <c r="BI2" s="223" t="s">
+      <c r="BI2" s="184" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:61" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="189"/>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="198"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="201"/>
-      <c r="O3" s="185"/>
-      <c r="P3" s="186"/>
-      <c r="Q3" s="186"/>
-      <c r="R3" s="186"/>
-      <c r="S3" s="209"/>
-      <c r="T3" s="211"/>
-      <c r="U3" s="211"/>
+      <c r="A3" s="238"/>
+      <c r="B3" s="239"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="234"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="235"/>
+      <c r="S3" s="218"/>
+      <c r="T3" s="220"/>
+      <c r="U3" s="220"/>
       <c r="V3" s="54">
         <v>0.16</v>
       </c>
@@ -35466,7 +35466,7 @@
       <c r="AE3" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="AF3" s="257"/>
+      <c r="AF3" s="258"/>
       <c r="AG3" s="163">
         <v>0.05</v>
       </c>
@@ -35476,13 +35476,13 @@
       <c r="AI3" s="163">
         <v>0.1</v>
       </c>
-      <c r="AJ3" s="220"/>
-      <c r="AK3" s="221"/>
-      <c r="AL3" s="221"/>
-      <c r="AM3" s="221"/>
-      <c r="AN3" s="222"/>
-      <c r="AO3" s="201"/>
-      <c r="AP3" s="246"/>
+      <c r="AJ3" s="229"/>
+      <c r="AK3" s="230"/>
+      <c r="AL3" s="230"/>
+      <c r="AM3" s="230"/>
+      <c r="AN3" s="231"/>
+      <c r="AO3" s="206"/>
+      <c r="AP3" s="209"/>
       <c r="AQ3" s="59">
         <v>0.08</v>
       </c>
@@ -35495,37 +35495,37 @@
       <c r="AT3" s="60">
         <v>0.05</v>
       </c>
-      <c r="AU3" s="206"/>
-      <c r="AV3" s="206"/>
-      <c r="AW3" s="206"/>
-      <c r="AX3" s="232"/>
-      <c r="AY3" s="233"/>
-      <c r="AZ3" s="233"/>
-      <c r="BA3" s="233"/>
-      <c r="BB3" s="234"/>
-      <c r="BC3" s="236"/>
-      <c r="BD3" s="236"/>
-      <c r="BE3" s="236"/>
-      <c r="BF3" s="239"/>
-      <c r="BG3" s="242"/>
-      <c r="BH3" s="224"/>
-      <c r="BI3" s="224"/>
+      <c r="AU3" s="215"/>
+      <c r="AV3" s="215"/>
+      <c r="AW3" s="215"/>
+      <c r="AX3" s="193"/>
+      <c r="AY3" s="194"/>
+      <c r="AZ3" s="194"/>
+      <c r="BA3" s="194"/>
+      <c r="BB3" s="195"/>
+      <c r="BC3" s="197"/>
+      <c r="BD3" s="197"/>
+      <c r="BE3" s="197"/>
+      <c r="BF3" s="200"/>
+      <c r="BG3" s="203"/>
+      <c r="BH3" s="185"/>
+      <c r="BI3" s="185"/>
     </row>
     <row r="4" spans="1:61" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="189"/>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="196"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="202"/>
-      <c r="N4" s="202"/>
+      <c r="A4" s="238"/>
+      <c r="B4" s="239"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="245"/>
+      <c r="F4" s="248"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="251"/>
+      <c r="J4" s="251"/>
+      <c r="K4" s="251"/>
+      <c r="L4" s="207"/>
+      <c r="M4" s="207"/>
+      <c r="N4" s="207"/>
       <c r="O4" s="53" t="s">
         <v>38</v>
       </c>
@@ -35538,9 +35538,9 @@
       <c r="R4" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="209"/>
-      <c r="T4" s="212"/>
-      <c r="U4" s="212"/>
+      <c r="S4" s="218"/>
+      <c r="T4" s="221"/>
+      <c r="U4" s="221"/>
       <c r="V4" s="163" t="s">
         <v>42</v>
       </c>
@@ -35571,7 +35571,7 @@
       <c r="AE4" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="AF4" s="258"/>
+      <c r="AF4" s="259"/>
       <c r="AG4" s="163" t="s">
         <v>48</v>
       </c>
@@ -35596,8 +35596,8 @@
       <c r="AN4" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="AO4" s="202"/>
-      <c r="AP4" s="247"/>
+      <c r="AO4" s="207"/>
+      <c r="AP4" s="210"/>
       <c r="AQ4" s="62" t="s">
         <v>42</v>
       </c>
@@ -35610,9 +35610,9 @@
       <c r="AT4" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="AU4" s="207"/>
-      <c r="AV4" s="207"/>
-      <c r="AW4" s="207"/>
+      <c r="AU4" s="216"/>
+      <c r="AV4" s="216"/>
+      <c r="AW4" s="216"/>
       <c r="AX4" s="162" t="s">
         <v>156</v>
       </c>
@@ -35628,13 +35628,13 @@
       <c r="BB4" s="164" t="s">
         <v>160</v>
       </c>
-      <c r="BC4" s="237"/>
-      <c r="BD4" s="237"/>
-      <c r="BE4" s="237"/>
-      <c r="BF4" s="240"/>
-      <c r="BG4" s="243"/>
-      <c r="BH4" s="225"/>
-      <c r="BI4" s="225"/>
+      <c r="BC4" s="198"/>
+      <c r="BD4" s="198"/>
+      <c r="BE4" s="198"/>
+      <c r="BF4" s="201"/>
+      <c r="BG4" s="204"/>
+      <c r="BH4" s="186"/>
+      <c r="BI4" s="186"/>
     </row>
     <row r="5" spans="1:61" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="77">
@@ -38097,28 +38097,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="BF2:BF4"/>
-    <mergeCell ref="BG2:BG4"/>
-    <mergeCell ref="BH2:BH4"/>
-    <mergeCell ref="BI2:BI4"/>
-    <mergeCell ref="AV2:AV4"/>
-    <mergeCell ref="AW2:AW4"/>
-    <mergeCell ref="AX2:BB3"/>
-    <mergeCell ref="BC2:BC4"/>
-    <mergeCell ref="BD2:BD4"/>
-    <mergeCell ref="BE2:BE4"/>
-    <mergeCell ref="AU2:AU4"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="T2:T4"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AF4"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AJ2:AN3"/>
-    <mergeCell ref="AO2:AO4"/>
-    <mergeCell ref="AP2:AP4"/>
-    <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="O2:R3"/>
     <mergeCell ref="A1:BG1"/>
     <mergeCell ref="A2:A4"/>
@@ -38135,6 +38113,28 @@
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
+    <mergeCell ref="AU2:AU4"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="T2:T4"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AF4"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AN3"/>
+    <mergeCell ref="AO2:AO4"/>
+    <mergeCell ref="AP2:AP4"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="BF2:BF4"/>
+    <mergeCell ref="BG2:BG4"/>
+    <mergeCell ref="BH2:BH4"/>
+    <mergeCell ref="BI2:BI4"/>
+    <mergeCell ref="AV2:AV4"/>
+    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="AX2:BB3"/>
+    <mergeCell ref="BC2:BC4"/>
+    <mergeCell ref="BD2:BD4"/>
+    <mergeCell ref="BE2:BE4"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -38164,8 +38164,8 @@
     <col min="20" max="16384" width="8.77734375" style="166"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="251" customFormat="1" ht="27.45" customHeight="1">
-      <c r="A1" s="251" t="s">
+    <row r="1" spans="1:18" s="252" customFormat="1" ht="27.45" customHeight="1">
+      <c r="A1" s="252" t="s">
         <v>167</v>
       </c>
     </row>
@@ -38265,7 +38265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="252" customFormat="1" ht="10.95" customHeight="1"/>
+    <row r="4" spans="1:18" s="253" customFormat="1" ht="10.95" customHeight="1"/>
     <row r="5" spans="1:18">
       <c r="B5" s="80" t="s">
         <v>1</v>
@@ -39527,227 +39527,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="236" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
-      <c r="P1" s="188"/>
-      <c r="Q1" s="188"/>
-      <c r="R1" s="188"/>
-      <c r="S1" s="188"/>
-      <c r="T1" s="188"/>
-      <c r="U1" s="188"/>
-      <c r="V1" s="188"/>
-      <c r="W1" s="188"/>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="188"/>
-      <c r="Z1" s="188"/>
-      <c r="AA1" s="188"/>
-      <c r="AB1" s="188"/>
-      <c r="AC1" s="188"/>
-      <c r="AD1" s="188"/>
-      <c r="AE1" s="188"/>
-      <c r="AF1" s="188"/>
-      <c r="AG1" s="188"/>
-      <c r="AH1" s="188"/>
-      <c r="AI1" s="188"/>
-      <c r="AJ1" s="188"/>
-      <c r="AK1" s="188"/>
-      <c r="AL1" s="188"/>
-      <c r="AM1" s="188"/>
-      <c r="AN1" s="188"/>
-      <c r="AO1" s="188"/>
-      <c r="AP1" s="188"/>
-      <c r="AQ1" s="188"/>
-      <c r="AR1" s="188"/>
-      <c r="AS1" s="188"/>
-      <c r="AT1" s="188"/>
-      <c r="AU1" s="188"/>
-      <c r="AV1" s="188"/>
-      <c r="AW1" s="188"/>
-      <c r="AX1" s="188"/>
-      <c r="AY1" s="188"/>
-      <c r="AZ1" s="188"/>
-      <c r="BA1" s="188"/>
-      <c r="BB1" s="188"/>
-      <c r="BC1" s="188"/>
-      <c r="BD1" s="188"/>
-      <c r="BE1" s="188"/>
-      <c r="BF1" s="188"/>
-      <c r="BG1" s="188"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="237"/>
+      <c r="H1" s="237"/>
+      <c r="I1" s="237"/>
+      <c r="J1" s="237"/>
+      <c r="K1" s="237"/>
+      <c r="L1" s="237"/>
+      <c r="M1" s="237"/>
+      <c r="N1" s="237"/>
+      <c r="O1" s="237"/>
+      <c r="P1" s="237"/>
+      <c r="Q1" s="237"/>
+      <c r="R1" s="237"/>
+      <c r="S1" s="237"/>
+      <c r="T1" s="237"/>
+      <c r="U1" s="237"/>
+      <c r="V1" s="237"/>
+      <c r="W1" s="237"/>
+      <c r="X1" s="237"/>
+      <c r="Y1" s="237"/>
+      <c r="Z1" s="237"/>
+      <c r="AA1" s="237"/>
+      <c r="AB1" s="237"/>
+      <c r="AC1" s="237"/>
+      <c r="AD1" s="237"/>
+      <c r="AE1" s="237"/>
+      <c r="AF1" s="237"/>
+      <c r="AG1" s="237"/>
+      <c r="AH1" s="237"/>
+      <c r="AI1" s="237"/>
+      <c r="AJ1" s="237"/>
+      <c r="AK1" s="237"/>
+      <c r="AL1" s="237"/>
+      <c r="AM1" s="237"/>
+      <c r="AN1" s="237"/>
+      <c r="AO1" s="237"/>
+      <c r="AP1" s="237"/>
+      <c r="AQ1" s="237"/>
+      <c r="AR1" s="237"/>
+      <c r="AS1" s="237"/>
+      <c r="AT1" s="237"/>
+      <c r="AU1" s="237"/>
+      <c r="AV1" s="237"/>
+      <c r="AW1" s="237"/>
+      <c r="AX1" s="237"/>
+      <c r="AY1" s="237"/>
+      <c r="AZ1" s="237"/>
+      <c r="BA1" s="237"/>
+      <c r="BB1" s="237"/>
+      <c r="BC1" s="237"/>
+      <c r="BD1" s="237"/>
+      <c r="BE1" s="237"/>
+      <c r="BF1" s="237"/>
+      <c r="BG1" s="237"/>
     </row>
     <row r="2" spans="1:61" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="238" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="190" t="s">
+      <c r="C2" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="191" t="s">
+      <c r="D2" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="194" t="s">
+      <c r="E2" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="197" t="s">
+      <c r="F2" s="246" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="200" t="s">
+      <c r="G2" s="249" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="203" t="s">
+      <c r="H2" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="204" t="s">
+      <c r="I2" s="251" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="204" t="s">
+      <c r="J2" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="204" t="s">
+      <c r="K2" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="203" t="s">
+      <c r="L2" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="203" t="s">
+      <c r="M2" s="250" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="203" t="s">
+      <c r="N2" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="183" t="s">
+      <c r="O2" s="232" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="184"/>
-      <c r="S2" s="209" t="s">
+      <c r="P2" s="233"/>
+      <c r="Q2" s="233"/>
+      <c r="R2" s="233"/>
+      <c r="S2" s="218" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="210" t="s">
+      <c r="T2" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="210" t="s">
+      <c r="U2" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="214" t="s">
+      <c r="V2" s="223" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="215"/>
-      <c r="X2" s="215"/>
-      <c r="Y2" s="215"/>
-      <c r="Z2" s="215"/>
-      <c r="AA2" s="216"/>
-      <c r="AB2" s="213" t="s">
+      <c r="W2" s="224"/>
+      <c r="X2" s="224"/>
+      <c r="Y2" s="224"/>
+      <c r="Z2" s="224"/>
+      <c r="AA2" s="225"/>
+      <c r="AB2" s="222" t="s">
         <v>20</v>
       </c>
-      <c r="AC2" s="213"/>
-      <c r="AD2" s="213"/>
-      <c r="AE2" s="213"/>
-      <c r="AF2" s="256" t="s">
+      <c r="AC2" s="222"/>
+      <c r="AD2" s="222"/>
+      <c r="AE2" s="222"/>
+      <c r="AF2" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="AG2" s="214" t="s">
+      <c r="AG2" s="223" t="s">
         <v>22</v>
       </c>
-      <c r="AH2" s="215"/>
-      <c r="AI2" s="216"/>
-      <c r="AJ2" s="217" t="s">
+      <c r="AH2" s="224"/>
+      <c r="AI2" s="225"/>
+      <c r="AJ2" s="226" t="s">
         <v>23</v>
       </c>
-      <c r="AK2" s="218"/>
-      <c r="AL2" s="218"/>
-      <c r="AM2" s="218"/>
-      <c r="AN2" s="219"/>
-      <c r="AO2" s="244" t="s">
+      <c r="AK2" s="227"/>
+      <c r="AL2" s="227"/>
+      <c r="AM2" s="227"/>
+      <c r="AN2" s="228"/>
+      <c r="AO2" s="205" t="s">
         <v>24</v>
       </c>
-      <c r="AP2" s="245" t="s">
+      <c r="AP2" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="AQ2" s="248" t="s">
+      <c r="AQ2" s="211" t="s">
         <v>26</v>
       </c>
-      <c r="AR2" s="249"/>
-      <c r="AS2" s="249"/>
-      <c r="AT2" s="250"/>
-      <c r="AU2" s="205" t="s">
+      <c r="AR2" s="212"/>
+      <c r="AS2" s="212"/>
+      <c r="AT2" s="213"/>
+      <c r="AU2" s="214" t="s">
         <v>153</v>
       </c>
-      <c r="AV2" s="205" t="s">
+      <c r="AV2" s="214" t="s">
         <v>154</v>
       </c>
-      <c r="AW2" s="208" t="s">
+      <c r="AW2" s="217" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="229" t="s">
+      <c r="AX2" s="190" t="s">
         <v>155</v>
       </c>
-      <c r="AY2" s="230"/>
-      <c r="AZ2" s="230"/>
-      <c r="BA2" s="230"/>
-      <c r="BB2" s="231"/>
-      <c r="BC2" s="235" t="s">
+      <c r="AY2" s="191"/>
+      <c r="AZ2" s="191"/>
+      <c r="BA2" s="191"/>
+      <c r="BB2" s="192"/>
+      <c r="BC2" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="BD2" s="235" t="s">
+      <c r="BD2" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="BE2" s="235" t="s">
+      <c r="BE2" s="196" t="s">
         <v>33</v>
       </c>
-      <c r="BF2" s="238" t="s">
+      <c r="BF2" s="199" t="s">
         <v>34</v>
       </c>
-      <c r="BG2" s="241" t="s">
+      <c r="BG2" s="202" t="s">
         <v>35</v>
       </c>
-      <c r="BH2" s="223" t="s">
+      <c r="BH2" s="184" t="s">
         <v>118</v>
       </c>
-      <c r="BI2" s="223" t="s">
+      <c r="BI2" s="184" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:61" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="189"/>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="198"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="201"/>
-      <c r="O3" s="185"/>
-      <c r="P3" s="186"/>
-      <c r="Q3" s="186"/>
-      <c r="R3" s="186"/>
-      <c r="S3" s="209"/>
-      <c r="T3" s="211"/>
-      <c r="U3" s="211"/>
+      <c r="A3" s="238"/>
+      <c r="B3" s="239"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="234"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="235"/>
+      <c r="S3" s="218"/>
+      <c r="T3" s="220"/>
+      <c r="U3" s="220"/>
       <c r="V3" s="54">
         <v>0.16</v>
       </c>
@@ -39779,7 +39779,7 @@
       <c r="AE3" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="AF3" s="257"/>
+      <c r="AF3" s="258"/>
       <c r="AG3" s="141">
         <v>0.05</v>
       </c>
@@ -39789,13 +39789,13 @@
       <c r="AI3" s="141">
         <v>0.1</v>
       </c>
-      <c r="AJ3" s="220"/>
-      <c r="AK3" s="221"/>
-      <c r="AL3" s="221"/>
-      <c r="AM3" s="221"/>
-      <c r="AN3" s="222"/>
-      <c r="AO3" s="201"/>
-      <c r="AP3" s="246"/>
+      <c r="AJ3" s="229"/>
+      <c r="AK3" s="230"/>
+      <c r="AL3" s="230"/>
+      <c r="AM3" s="230"/>
+      <c r="AN3" s="231"/>
+      <c r="AO3" s="206"/>
+      <c r="AP3" s="209"/>
       <c r="AQ3" s="59">
         <v>0.08</v>
       </c>
@@ -39808,37 +39808,37 @@
       <c r="AT3" s="60">
         <v>0.05</v>
       </c>
-      <c r="AU3" s="206"/>
-      <c r="AV3" s="206"/>
-      <c r="AW3" s="206"/>
-      <c r="AX3" s="232"/>
-      <c r="AY3" s="233"/>
-      <c r="AZ3" s="233"/>
-      <c r="BA3" s="233"/>
-      <c r="BB3" s="234"/>
-      <c r="BC3" s="236"/>
-      <c r="BD3" s="236"/>
-      <c r="BE3" s="236"/>
-      <c r="BF3" s="239"/>
-      <c r="BG3" s="242"/>
-      <c r="BH3" s="224"/>
-      <c r="BI3" s="224"/>
+      <c r="AU3" s="215"/>
+      <c r="AV3" s="215"/>
+      <c r="AW3" s="215"/>
+      <c r="AX3" s="193"/>
+      <c r="AY3" s="194"/>
+      <c r="AZ3" s="194"/>
+      <c r="BA3" s="194"/>
+      <c r="BB3" s="195"/>
+      <c r="BC3" s="197"/>
+      <c r="BD3" s="197"/>
+      <c r="BE3" s="197"/>
+      <c r="BF3" s="200"/>
+      <c r="BG3" s="203"/>
+      <c r="BH3" s="185"/>
+      <c r="BI3" s="185"/>
     </row>
     <row r="4" spans="1:61" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="189"/>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="196"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="202"/>
-      <c r="N4" s="202"/>
+      <c r="A4" s="238"/>
+      <c r="B4" s="239"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="245"/>
+      <c r="F4" s="248"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="251"/>
+      <c r="J4" s="251"/>
+      <c r="K4" s="251"/>
+      <c r="L4" s="207"/>
+      <c r="M4" s="207"/>
+      <c r="N4" s="207"/>
       <c r="O4" s="53" t="s">
         <v>38</v>
       </c>
@@ -39851,9 +39851,9 @@
       <c r="R4" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="209"/>
-      <c r="T4" s="212"/>
-      <c r="U4" s="212"/>
+      <c r="S4" s="218"/>
+      <c r="T4" s="221"/>
+      <c r="U4" s="221"/>
       <c r="V4" s="141" t="s">
         <v>42</v>
       </c>
@@ -39884,7 +39884,7 @@
       <c r="AE4" s="141" t="s">
         <v>47</v>
       </c>
-      <c r="AF4" s="258"/>
+      <c r="AF4" s="259"/>
       <c r="AG4" s="141" t="s">
         <v>48</v>
       </c>
@@ -39909,8 +39909,8 @@
       <c r="AN4" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="AO4" s="202"/>
-      <c r="AP4" s="247"/>
+      <c r="AO4" s="207"/>
+      <c r="AP4" s="210"/>
       <c r="AQ4" s="62" t="s">
         <v>42</v>
       </c>
@@ -39923,9 +39923,9 @@
       <c r="AT4" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="AU4" s="207"/>
-      <c r="AV4" s="207"/>
-      <c r="AW4" s="207"/>
+      <c r="AU4" s="216"/>
+      <c r="AV4" s="216"/>
+      <c r="AW4" s="216"/>
       <c r="AX4" s="159" t="s">
         <v>156</v>
       </c>
@@ -39941,13 +39941,13 @@
       <c r="BB4" s="160" t="s">
         <v>160</v>
       </c>
-      <c r="BC4" s="237"/>
-      <c r="BD4" s="237"/>
-      <c r="BE4" s="237"/>
-      <c r="BF4" s="240"/>
-      <c r="BG4" s="243"/>
-      <c r="BH4" s="225"/>
-      <c r="BI4" s="225"/>
+      <c r="BC4" s="198"/>
+      <c r="BD4" s="198"/>
+      <c r="BE4" s="198"/>
+      <c r="BF4" s="201"/>
+      <c r="BG4" s="204"/>
+      <c r="BH4" s="186"/>
+      <c r="BI4" s="186"/>
     </row>
     <row r="5" spans="1:61" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="77">
@@ -42410,6 +42410,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="BF2:BF4"/>
+    <mergeCell ref="BG2:BG4"/>
+    <mergeCell ref="BH2:BH4"/>
+    <mergeCell ref="BI2:BI4"/>
+    <mergeCell ref="AV2:AV4"/>
+    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="AX2:BB3"/>
+    <mergeCell ref="BC2:BC4"/>
+    <mergeCell ref="BD2:BD4"/>
+    <mergeCell ref="BE2:BE4"/>
+    <mergeCell ref="AU2:AU4"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="T2:T4"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AF4"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AN3"/>
+    <mergeCell ref="AO2:AO4"/>
+    <mergeCell ref="AP2:AP4"/>
+    <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="O2:R3"/>
     <mergeCell ref="A1:BG1"/>
     <mergeCell ref="A2:A4"/>
@@ -42426,28 +42448,6 @@
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
-    <mergeCell ref="AU2:AU4"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="T2:T4"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AF4"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AJ2:AN3"/>
-    <mergeCell ref="AO2:AO4"/>
-    <mergeCell ref="AP2:AP4"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="BF2:BF4"/>
-    <mergeCell ref="BG2:BG4"/>
-    <mergeCell ref="BH2:BH4"/>
-    <mergeCell ref="BI2:BI4"/>
-    <mergeCell ref="AV2:AV4"/>
-    <mergeCell ref="AW2:AW4"/>
-    <mergeCell ref="AX2:BB3"/>
-    <mergeCell ref="BC2:BC4"/>
-    <mergeCell ref="BD2:BD4"/>
-    <mergeCell ref="BE2:BE4"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="1">
@@ -42477,8 +42477,8 @@
     <col min="20" max="16384" width="8.77734375" style="166"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="251" customFormat="1" ht="27.45" customHeight="1">
-      <c r="A1" s="251" t="s">
+    <row r="1" spans="1:18" s="252" customFormat="1" ht="27.45" customHeight="1">
+      <c r="A1" s="252" t="s">
         <v>165</v>
       </c>
     </row>
@@ -42578,7 +42578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="252" customFormat="1" ht="10.95" customHeight="1"/>
+    <row r="4" spans="1:18" s="253" customFormat="1" ht="10.95" customHeight="1"/>
     <row r="5" spans="1:18">
       <c r="B5" s="80" t="s">
         <v>1</v>
@@ -43840,227 +43840,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="236" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
-      <c r="P1" s="188"/>
-      <c r="Q1" s="188"/>
-      <c r="R1" s="188"/>
-      <c r="S1" s="188"/>
-      <c r="T1" s="188"/>
-      <c r="U1" s="188"/>
-      <c r="V1" s="188"/>
-      <c r="W1" s="188"/>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="188"/>
-      <c r="Z1" s="188"/>
-      <c r="AA1" s="188"/>
-      <c r="AB1" s="188"/>
-      <c r="AC1" s="188"/>
-      <c r="AD1" s="188"/>
-      <c r="AE1" s="188"/>
-      <c r="AF1" s="188"/>
-      <c r="AG1" s="188"/>
-      <c r="AH1" s="188"/>
-      <c r="AI1" s="188"/>
-      <c r="AJ1" s="188"/>
-      <c r="AK1" s="188"/>
-      <c r="AL1" s="188"/>
-      <c r="AM1" s="188"/>
-      <c r="AN1" s="188"/>
-      <c r="AO1" s="188"/>
-      <c r="AP1" s="188"/>
-      <c r="AQ1" s="188"/>
-      <c r="AR1" s="188"/>
-      <c r="AS1" s="188"/>
-      <c r="AT1" s="188"/>
-      <c r="AU1" s="188"/>
-      <c r="AV1" s="188"/>
-      <c r="AW1" s="188"/>
-      <c r="AX1" s="188"/>
-      <c r="AY1" s="188"/>
-      <c r="AZ1" s="188"/>
-      <c r="BA1" s="188"/>
-      <c r="BB1" s="188"/>
-      <c r="BC1" s="188"/>
-      <c r="BD1" s="188"/>
-      <c r="BE1" s="188"/>
-      <c r="BF1" s="188"/>
-      <c r="BG1" s="188"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="237"/>
+      <c r="H1" s="237"/>
+      <c r="I1" s="237"/>
+      <c r="J1" s="237"/>
+      <c r="K1" s="237"/>
+      <c r="L1" s="237"/>
+      <c r="M1" s="237"/>
+      <c r="N1" s="237"/>
+      <c r="O1" s="237"/>
+      <c r="P1" s="237"/>
+      <c r="Q1" s="237"/>
+      <c r="R1" s="237"/>
+      <c r="S1" s="237"/>
+      <c r="T1" s="237"/>
+      <c r="U1" s="237"/>
+      <c r="V1" s="237"/>
+      <c r="W1" s="237"/>
+      <c r="X1" s="237"/>
+      <c r="Y1" s="237"/>
+      <c r="Z1" s="237"/>
+      <c r="AA1" s="237"/>
+      <c r="AB1" s="237"/>
+      <c r="AC1" s="237"/>
+      <c r="AD1" s="237"/>
+      <c r="AE1" s="237"/>
+      <c r="AF1" s="237"/>
+      <c r="AG1" s="237"/>
+      <c r="AH1" s="237"/>
+      <c r="AI1" s="237"/>
+      <c r="AJ1" s="237"/>
+      <c r="AK1" s="237"/>
+      <c r="AL1" s="237"/>
+      <c r="AM1" s="237"/>
+      <c r="AN1" s="237"/>
+      <c r="AO1" s="237"/>
+      <c r="AP1" s="237"/>
+      <c r="AQ1" s="237"/>
+      <c r="AR1" s="237"/>
+      <c r="AS1" s="237"/>
+      <c r="AT1" s="237"/>
+      <c r="AU1" s="237"/>
+      <c r="AV1" s="237"/>
+      <c r="AW1" s="237"/>
+      <c r="AX1" s="237"/>
+      <c r="AY1" s="237"/>
+      <c r="AZ1" s="237"/>
+      <c r="BA1" s="237"/>
+      <c r="BB1" s="237"/>
+      <c r="BC1" s="237"/>
+      <c r="BD1" s="237"/>
+      <c r="BE1" s="237"/>
+      <c r="BF1" s="237"/>
+      <c r="BG1" s="237"/>
     </row>
     <row r="2" spans="1:61" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="238" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="190" t="s">
+      <c r="C2" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="191" t="s">
+      <c r="D2" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="194" t="s">
+      <c r="E2" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="197" t="s">
+      <c r="F2" s="246" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="200" t="s">
+      <c r="G2" s="249" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="203" t="s">
+      <c r="H2" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="204" t="s">
+      <c r="I2" s="251" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="204" t="s">
+      <c r="J2" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="204" t="s">
+      <c r="K2" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="203" t="s">
+      <c r="L2" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="203" t="s">
+      <c r="M2" s="250" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="203" t="s">
+      <c r="N2" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="183" t="s">
+      <c r="O2" s="232" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="184"/>
-      <c r="S2" s="209" t="s">
+      <c r="P2" s="233"/>
+      <c r="Q2" s="233"/>
+      <c r="R2" s="233"/>
+      <c r="S2" s="218" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="210" t="s">
+      <c r="T2" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="210" t="s">
+      <c r="U2" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="214" t="s">
+      <c r="V2" s="223" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="215"/>
-      <c r="X2" s="215"/>
-      <c r="Y2" s="215"/>
-      <c r="Z2" s="215"/>
-      <c r="AA2" s="216"/>
-      <c r="AB2" s="213" t="s">
+      <c r="W2" s="224"/>
+      <c r="X2" s="224"/>
+      <c r="Y2" s="224"/>
+      <c r="Z2" s="224"/>
+      <c r="AA2" s="225"/>
+      <c r="AB2" s="222" t="s">
         <v>20</v>
       </c>
-      <c r="AC2" s="213"/>
-      <c r="AD2" s="213"/>
-      <c r="AE2" s="213"/>
-      <c r="AF2" s="256" t="s">
+      <c r="AC2" s="222"/>
+      <c r="AD2" s="222"/>
+      <c r="AE2" s="222"/>
+      <c r="AF2" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="AG2" s="214" t="s">
+      <c r="AG2" s="223" t="s">
         <v>22</v>
       </c>
-      <c r="AH2" s="215"/>
-      <c r="AI2" s="216"/>
-      <c r="AJ2" s="217" t="s">
+      <c r="AH2" s="224"/>
+      <c r="AI2" s="225"/>
+      <c r="AJ2" s="226" t="s">
         <v>23</v>
       </c>
-      <c r="AK2" s="218"/>
-      <c r="AL2" s="218"/>
-      <c r="AM2" s="218"/>
-      <c r="AN2" s="219"/>
-      <c r="AO2" s="244" t="s">
+      <c r="AK2" s="227"/>
+      <c r="AL2" s="227"/>
+      <c r="AM2" s="227"/>
+      <c r="AN2" s="228"/>
+      <c r="AO2" s="205" t="s">
         <v>24</v>
       </c>
-      <c r="AP2" s="245" t="s">
+      <c r="AP2" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="AQ2" s="248" t="s">
+      <c r="AQ2" s="211" t="s">
         <v>26</v>
       </c>
-      <c r="AR2" s="249"/>
-      <c r="AS2" s="249"/>
-      <c r="AT2" s="250"/>
-      <c r="AU2" s="245" t="s">
+      <c r="AR2" s="212"/>
+      <c r="AS2" s="212"/>
+      <c r="AT2" s="213"/>
+      <c r="AU2" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="AV2" s="245" t="s">
+      <c r="AV2" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="AW2" s="259" t="s">
+      <c r="AW2" s="260" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="260" t="s">
+      <c r="AX2" s="261" t="s">
         <v>30</v>
       </c>
-      <c r="AY2" s="261"/>
-      <c r="AZ2" s="261"/>
-      <c r="BA2" s="261"/>
-      <c r="BB2" s="262"/>
-      <c r="BC2" s="235" t="s">
+      <c r="AY2" s="262"/>
+      <c r="AZ2" s="262"/>
+      <c r="BA2" s="262"/>
+      <c r="BB2" s="263"/>
+      <c r="BC2" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="BD2" s="235" t="s">
+      <c r="BD2" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="BE2" s="235" t="s">
+      <c r="BE2" s="196" t="s">
         <v>33</v>
       </c>
-      <c r="BF2" s="238" t="s">
+      <c r="BF2" s="199" t="s">
         <v>34</v>
       </c>
-      <c r="BG2" s="241" t="s">
+      <c r="BG2" s="202" t="s">
         <v>35</v>
       </c>
-      <c r="BH2" s="223" t="s">
+      <c r="BH2" s="184" t="s">
         <v>118</v>
       </c>
-      <c r="BI2" s="223" t="s">
+      <c r="BI2" s="184" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:61" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="189"/>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="198"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="201"/>
-      <c r="O3" s="185"/>
-      <c r="P3" s="186"/>
-      <c r="Q3" s="186"/>
-      <c r="R3" s="186"/>
-      <c r="S3" s="209"/>
-      <c r="T3" s="211"/>
-      <c r="U3" s="211"/>
+      <c r="A3" s="238"/>
+      <c r="B3" s="239"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="234"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="235"/>
+      <c r="S3" s="218"/>
+      <c r="T3" s="220"/>
+      <c r="U3" s="220"/>
       <c r="V3" s="54">
         <v>0.16</v>
       </c>
@@ -44092,7 +44092,7 @@
       <c r="AE3" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="AF3" s="257"/>
+      <c r="AF3" s="258"/>
       <c r="AG3" s="68">
         <v>0.05</v>
       </c>
@@ -44102,13 +44102,13 @@
       <c r="AI3" s="68">
         <v>0.1</v>
       </c>
-      <c r="AJ3" s="220"/>
-      <c r="AK3" s="221"/>
-      <c r="AL3" s="221"/>
-      <c r="AM3" s="221"/>
-      <c r="AN3" s="222"/>
-      <c r="AO3" s="201"/>
-      <c r="AP3" s="246"/>
+      <c r="AJ3" s="229"/>
+      <c r="AK3" s="230"/>
+      <c r="AL3" s="230"/>
+      <c r="AM3" s="230"/>
+      <c r="AN3" s="231"/>
+      <c r="AO3" s="206"/>
+      <c r="AP3" s="209"/>
       <c r="AQ3" s="59">
         <v>0.08</v>
       </c>
@@ -44121,37 +44121,37 @@
       <c r="AT3" s="60">
         <v>0.05</v>
       </c>
-      <c r="AU3" s="246"/>
-      <c r="AV3" s="246"/>
-      <c r="AW3" s="246"/>
-      <c r="AX3" s="263"/>
-      <c r="AY3" s="264"/>
-      <c r="AZ3" s="264"/>
-      <c r="BA3" s="264"/>
-      <c r="BB3" s="265"/>
-      <c r="BC3" s="236"/>
-      <c r="BD3" s="236"/>
-      <c r="BE3" s="236"/>
-      <c r="BF3" s="239"/>
-      <c r="BG3" s="242"/>
-      <c r="BH3" s="224"/>
-      <c r="BI3" s="224"/>
+      <c r="AU3" s="209"/>
+      <c r="AV3" s="209"/>
+      <c r="AW3" s="209"/>
+      <c r="AX3" s="264"/>
+      <c r="AY3" s="265"/>
+      <c r="AZ3" s="265"/>
+      <c r="BA3" s="265"/>
+      <c r="BB3" s="266"/>
+      <c r="BC3" s="197"/>
+      <c r="BD3" s="197"/>
+      <c r="BE3" s="197"/>
+      <c r="BF3" s="200"/>
+      <c r="BG3" s="203"/>
+      <c r="BH3" s="185"/>
+      <c r="BI3" s="185"/>
     </row>
     <row r="4" spans="1:61" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="189"/>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="196"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="202"/>
-      <c r="N4" s="202"/>
+      <c r="A4" s="238"/>
+      <c r="B4" s="239"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="245"/>
+      <c r="F4" s="248"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="251"/>
+      <c r="J4" s="251"/>
+      <c r="K4" s="251"/>
+      <c r="L4" s="207"/>
+      <c r="M4" s="207"/>
+      <c r="N4" s="207"/>
       <c r="O4" s="53" t="s">
         <v>38</v>
       </c>
@@ -44164,9 +44164,9 @@
       <c r="R4" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="209"/>
-      <c r="T4" s="212"/>
-      <c r="U4" s="212"/>
+      <c r="S4" s="218"/>
+      <c r="T4" s="221"/>
+      <c r="U4" s="221"/>
       <c r="V4" s="68" t="s">
         <v>42</v>
       </c>
@@ -44197,7 +44197,7 @@
       <c r="AE4" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="AF4" s="258"/>
+      <c r="AF4" s="259"/>
       <c r="AG4" s="68" t="s">
         <v>48</v>
       </c>
@@ -44222,8 +44222,8 @@
       <c r="AN4" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="AO4" s="202"/>
-      <c r="AP4" s="247"/>
+      <c r="AO4" s="207"/>
+      <c r="AP4" s="210"/>
       <c r="AQ4" s="62" t="s">
         <v>42</v>
       </c>
@@ -44236,9 +44236,9 @@
       <c r="AT4" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="AU4" s="247"/>
-      <c r="AV4" s="247"/>
-      <c r="AW4" s="247"/>
+      <c r="AU4" s="210"/>
+      <c r="AV4" s="210"/>
+      <c r="AW4" s="210"/>
       <c r="AX4" s="67" t="s">
         <v>50</v>
       </c>
@@ -44254,13 +44254,13 @@
       <c r="BB4" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="BC4" s="237"/>
-      <c r="BD4" s="237"/>
-      <c r="BE4" s="237"/>
-      <c r="BF4" s="240"/>
-      <c r="BG4" s="243"/>
-      <c r="BH4" s="225"/>
-      <c r="BI4" s="225"/>
+      <c r="BC4" s="198"/>
+      <c r="BD4" s="198"/>
+      <c r="BE4" s="198"/>
+      <c r="BF4" s="201"/>
+      <c r="BG4" s="204"/>
+      <c r="BH4" s="186"/>
+      <c r="BI4" s="186"/>
     </row>
     <row r="5" spans="1:61" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="77">
@@ -47276,6 +47276,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="BF2:BF4"/>
+    <mergeCell ref="BG2:BG4"/>
+    <mergeCell ref="BH2:BH4"/>
+    <mergeCell ref="BI2:BI4"/>
+    <mergeCell ref="AV2:AV4"/>
+    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="AX2:BB3"/>
+    <mergeCell ref="BC2:BC4"/>
+    <mergeCell ref="BD2:BD4"/>
+    <mergeCell ref="BE2:BE4"/>
+    <mergeCell ref="AU2:AU4"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="T2:T4"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AF4"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AN3"/>
+    <mergeCell ref="AO2:AO4"/>
+    <mergeCell ref="AP2:AP4"/>
+    <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="O2:R3"/>
     <mergeCell ref="A1:BG1"/>
     <mergeCell ref="A2:A4"/>
@@ -47292,28 +47314,6 @@
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
-    <mergeCell ref="AU2:AU4"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="T2:T4"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AF4"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AJ2:AN3"/>
-    <mergeCell ref="AO2:AO4"/>
-    <mergeCell ref="AP2:AP4"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="BF2:BF4"/>
-    <mergeCell ref="BG2:BG4"/>
-    <mergeCell ref="BH2:BH4"/>
-    <mergeCell ref="BI2:BI4"/>
-    <mergeCell ref="AV2:AV4"/>
-    <mergeCell ref="AW2:AW4"/>
-    <mergeCell ref="AX2:BB3"/>
-    <mergeCell ref="BC2:BC4"/>
-    <mergeCell ref="BD2:BD4"/>
-    <mergeCell ref="BE2:BE4"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="1">

--- a/工资/清典文科/清科文典2020年工资表_0809.xlsx
+++ b/工资/清典文科/清科文典2020年工资表_0809.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mine\my_git\XiRongGe\工资\清典文科\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1720ADEA-FC4E-4AC0-9E4E-EB3FB1252C96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BEF6BB-DEC2-45B2-8B4D-B147D7ADD355}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3352,6 +3352,126 @@
     <xf numFmtId="167" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="169" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3418,12 +3538,6 @@
     <xf numFmtId="168" fontId="6" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3440,120 +3554,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3601,6 +3601,15 @@
     <xf numFmtId="165" fontId="12" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="169" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3608,15 +3617,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3998,7 +3998,7 @@
       <pane xSplit="6" ySplit="4" topLeftCell="AS5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BI13" sqref="BI13"/>
+      <selection pane="bottomRight" activeCell="BB16" sqref="BB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
@@ -4052,9 +4052,9 @@
     <col min="55" max="55" width="6.6640625" style="42" customWidth="1" outlineLevel="1"/>
     <col min="56" max="56" width="10.5546875" style="42" customWidth="1" outlineLevel="1"/>
     <col min="57" max="57" width="6.21875" style="42" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="58" width="11.77734375" style="42" customWidth="1" outlineLevel="1"/>
-    <col min="59" max="59" width="13" style="42" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="60" width="9.44140625" style="42" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="11.77734375" style="42" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="59" max="59" width="13" style="42" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="60" max="60" width="9.44140625" style="42" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="61" max="61" width="11.77734375" style="46" customWidth="1"/>
     <col min="62" max="62" width="10.109375" style="46" customWidth="1"/>
     <col min="63" max="63" width="0" style="41" hidden="1" customWidth="1"/>
@@ -4063,145 +4063,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="188" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="237"/>
-      <c r="M1" s="237"/>
-      <c r="N1" s="237"/>
-      <c r="O1" s="237"/>
-      <c r="P1" s="237"/>
-      <c r="Q1" s="237"/>
-      <c r="R1" s="237"/>
-      <c r="S1" s="237"/>
-      <c r="T1" s="237"/>
-      <c r="U1" s="237"/>
-      <c r="V1" s="237"/>
-      <c r="W1" s="237"/>
-      <c r="X1" s="237"/>
-      <c r="Y1" s="237"/>
-      <c r="Z1" s="237"/>
-      <c r="AA1" s="237"/>
-      <c r="AB1" s="237"/>
-      <c r="AC1" s="237"/>
-      <c r="AD1" s="237"/>
-      <c r="AE1" s="237"/>
-      <c r="AF1" s="237"/>
-      <c r="AG1" s="237"/>
-      <c r="AH1" s="237"/>
-      <c r="AI1" s="237"/>
-      <c r="AJ1" s="237"/>
-      <c r="AK1" s="237"/>
-      <c r="AL1" s="237"/>
-      <c r="AM1" s="237"/>
-      <c r="AN1" s="237"/>
-      <c r="AO1" s="237"/>
-      <c r="AP1" s="237"/>
-      <c r="AQ1" s="237"/>
-      <c r="AR1" s="237"/>
-      <c r="AS1" s="237"/>
-      <c r="AT1" s="237"/>
-      <c r="AU1" s="237"/>
-      <c r="AV1" s="237"/>
-      <c r="AW1" s="237"/>
-      <c r="AX1" s="237"/>
-      <c r="AY1" s="237"/>
-      <c r="AZ1" s="237"/>
-      <c r="BA1" s="237"/>
-      <c r="BB1" s="237"/>
-      <c r="BC1" s="237"/>
-      <c r="BD1" s="237"/>
-      <c r="BE1" s="237"/>
-      <c r="BF1" s="237"/>
-      <c r="BG1" s="237"/>
-      <c r="BH1" s="237"/>
-      <c r="BI1" s="237"/>
-      <c r="BJ1" s="237"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="M1" s="189"/>
+      <c r="N1" s="189"/>
+      <c r="O1" s="189"/>
+      <c r="P1" s="189"/>
+      <c r="Q1" s="189"/>
+      <c r="R1" s="189"/>
+      <c r="S1" s="189"/>
+      <c r="T1" s="189"/>
+      <c r="U1" s="189"/>
+      <c r="V1" s="189"/>
+      <c r="W1" s="189"/>
+      <c r="X1" s="189"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="189"/>
+      <c r="AA1" s="189"/>
+      <c r="AB1" s="189"/>
+      <c r="AC1" s="189"/>
+      <c r="AD1" s="189"/>
+      <c r="AE1" s="189"/>
+      <c r="AF1" s="189"/>
+      <c r="AG1" s="189"/>
+      <c r="AH1" s="189"/>
+      <c r="AI1" s="189"/>
+      <c r="AJ1" s="189"/>
+      <c r="AK1" s="189"/>
+      <c r="AL1" s="189"/>
+      <c r="AM1" s="189"/>
+      <c r="AN1" s="189"/>
+      <c r="AO1" s="189"/>
+      <c r="AP1" s="189"/>
+      <c r="AQ1" s="189"/>
+      <c r="AR1" s="189"/>
+      <c r="AS1" s="189"/>
+      <c r="AT1" s="189"/>
+      <c r="AU1" s="189"/>
+      <c r="AV1" s="189"/>
+      <c r="AW1" s="189"/>
+      <c r="AX1" s="189"/>
+      <c r="AY1" s="189"/>
+      <c r="AZ1" s="189"/>
+      <c r="BA1" s="189"/>
+      <c r="BB1" s="189"/>
+      <c r="BC1" s="189"/>
+      <c r="BD1" s="189"/>
+      <c r="BE1" s="189"/>
+      <c r="BF1" s="189"/>
+      <c r="BG1" s="189"/>
+      <c r="BH1" s="189"/>
+      <c r="BI1" s="189"/>
+      <c r="BJ1" s="189"/>
     </row>
     <row r="2" spans="1:65" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="238" t="s">
+      <c r="A2" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="239" t="s">
+      <c r="B2" s="191" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="239" t="s">
+      <c r="C2" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="240" t="s">
+      <c r="D2" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="243" t="s">
+      <c r="E2" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="246" t="s">
+      <c r="F2" s="198" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="249" t="s">
+      <c r="G2" s="201" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="250" t="s">
+      <c r="H2" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="251" t="s">
+      <c r="I2" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="251" t="s">
+      <c r="J2" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="251" t="s">
+      <c r="K2" s="205" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="250" t="s">
+      <c r="L2" s="204" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="250" t="s">
+      <c r="M2" s="204" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="250" t="s">
+      <c r="N2" s="204" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="232" t="s">
+      <c r="O2" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="233"/>
-      <c r="Q2" s="233"/>
-      <c r="R2" s="233"/>
-      <c r="S2" s="218" t="s">
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="219" t="s">
+      <c r="T2" s="211" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="219" t="s">
+      <c r="U2" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="222" t="s">
+      <c r="V2" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="222"/>
-      <c r="X2" s="222"/>
-      <c r="Y2" s="222"/>
-      <c r="Z2" s="222"/>
-      <c r="AA2" s="222"/>
-      <c r="AB2" s="222"/>
-      <c r="AC2" s="222"/>
-      <c r="AD2" s="222"/>
-      <c r="AE2" s="223" t="s">
+      <c r="W2" s="214"/>
+      <c r="X2" s="214"/>
+      <c r="Y2" s="214"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="214"/>
+      <c r="AB2" s="214"/>
+      <c r="AC2" s="214"/>
+      <c r="AD2" s="214"/>
+      <c r="AE2" s="215" t="s">
         <v>131</v>
       </c>
-      <c r="AF2" s="224"/>
-      <c r="AG2" s="225"/>
+      <c r="AF2" s="216"/>
+      <c r="AG2" s="217"/>
       <c r="AH2" s="177" t="s">
         <v>175</v>
       </c>
@@ -4211,104 +4211,104 @@
       <c r="AL2" s="177" t="s">
         <v>110</v>
       </c>
-      <c r="AM2" s="226" t="s">
+      <c r="AM2" s="218" t="s">
         <v>23</v>
       </c>
-      <c r="AN2" s="227"/>
-      <c r="AO2" s="227"/>
-      <c r="AP2" s="227"/>
-      <c r="AQ2" s="228"/>
-      <c r="AR2" s="205" t="s">
+      <c r="AN2" s="219"/>
+      <c r="AO2" s="219"/>
+      <c r="AP2" s="219"/>
+      <c r="AQ2" s="220"/>
+      <c r="AR2" s="245" t="s">
         <v>24</v>
       </c>
-      <c r="AS2" s="208" t="s">
+      <c r="AS2" s="246" t="s">
         <v>25</v>
       </c>
-      <c r="AT2" s="211" t="s">
+      <c r="AT2" s="249" t="s">
         <v>26</v>
       </c>
-      <c r="AU2" s="212"/>
-      <c r="AV2" s="212"/>
-      <c r="AW2" s="213"/>
-      <c r="AX2" s="214" t="s">
+      <c r="AU2" s="250"/>
+      <c r="AV2" s="250"/>
+      <c r="AW2" s="251"/>
+      <c r="AX2" s="206" t="s">
         <v>153</v>
       </c>
-      <c r="AY2" s="214" t="s">
+      <c r="AY2" s="206" t="s">
         <v>154</v>
       </c>
-      <c r="AZ2" s="217" t="s">
+      <c r="AZ2" s="209" t="s">
         <v>29</v>
       </c>
-      <c r="BA2" s="190" t="s">
+      <c r="BA2" s="230" t="s">
         <v>155</v>
       </c>
-      <c r="BB2" s="191"/>
-      <c r="BC2" s="191"/>
-      <c r="BD2" s="191"/>
-      <c r="BE2" s="192"/>
-      <c r="BF2" s="196" t="s">
+      <c r="BB2" s="231"/>
+      <c r="BC2" s="231"/>
+      <c r="BD2" s="231"/>
+      <c r="BE2" s="232"/>
+      <c r="BF2" s="236" t="s">
         <v>31</v>
       </c>
-      <c r="BG2" s="196" t="s">
+      <c r="BG2" s="236" t="s">
         <v>32</v>
       </c>
-      <c r="BH2" s="196" t="s">
+      <c r="BH2" s="236" t="s">
         <v>33</v>
       </c>
-      <c r="BI2" s="199" t="s">
+      <c r="BI2" s="239" t="s">
         <v>34</v>
       </c>
-      <c r="BJ2" s="202" t="s">
+      <c r="BJ2" s="242" t="s">
         <v>35</v>
       </c>
-      <c r="BK2" s="184" t="s">
+      <c r="BK2" s="224" t="s">
         <v>118</v>
       </c>
-      <c r="BL2" s="184" t="s">
+      <c r="BL2" s="224" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:65" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="238"/>
-      <c r="B3" s="239"/>
-      <c r="C3" s="239"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="251"/>
-      <c r="J3" s="251"/>
-      <c r="K3" s="251"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="234"/>
-      <c r="P3" s="235"/>
-      <c r="Q3" s="235"/>
-      <c r="R3" s="235"/>
-      <c r="S3" s="218"/>
-      <c r="T3" s="220"/>
-      <c r="U3" s="220"/>
-      <c r="V3" s="187" t="s">
+      <c r="A3" s="190"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="187"/>
+      <c r="Q3" s="187"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="210"/>
+      <c r="T3" s="212"/>
+      <c r="U3" s="212"/>
+      <c r="V3" s="227" t="s">
         <v>171</v>
       </c>
       <c r="W3" s="54">
         <v>0.16</v>
       </c>
-      <c r="X3" s="188" t="s">
+      <c r="X3" s="228" t="s">
         <v>172</v>
       </c>
       <c r="Y3" s="54">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="Z3" s="188" t="s">
+      <c r="Z3" s="228" t="s">
         <v>173</v>
       </c>
       <c r="AA3" s="54">
         <v>2E-3</v>
       </c>
-      <c r="AB3" s="189" t="s">
+      <c r="AB3" s="229" t="s">
         <v>174</v>
       </c>
       <c r="AC3" s="54">
@@ -4340,13 +4340,13 @@
       <c r="AL3" s="173">
         <v>0.1</v>
       </c>
-      <c r="AM3" s="229"/>
-      <c r="AN3" s="230"/>
-      <c r="AO3" s="230"/>
-      <c r="AP3" s="230"/>
-      <c r="AQ3" s="231"/>
-      <c r="AR3" s="206"/>
-      <c r="AS3" s="209"/>
+      <c r="AM3" s="221"/>
+      <c r="AN3" s="222"/>
+      <c r="AO3" s="222"/>
+      <c r="AP3" s="222"/>
+      <c r="AQ3" s="223"/>
+      <c r="AR3" s="202"/>
+      <c r="AS3" s="247"/>
       <c r="AT3" s="59">
         <v>0.08</v>
       </c>
@@ -4359,37 +4359,37 @@
       <c r="AW3" s="60">
         <v>0.05</v>
       </c>
-      <c r="AX3" s="215"/>
-      <c r="AY3" s="215"/>
-      <c r="AZ3" s="215"/>
-      <c r="BA3" s="193"/>
-      <c r="BB3" s="194"/>
-      <c r="BC3" s="194"/>
-      <c r="BD3" s="194"/>
-      <c r="BE3" s="195"/>
-      <c r="BF3" s="197"/>
-      <c r="BG3" s="197"/>
-      <c r="BH3" s="197"/>
-      <c r="BI3" s="200"/>
-      <c r="BJ3" s="203"/>
-      <c r="BK3" s="185"/>
-      <c r="BL3" s="185"/>
+      <c r="AX3" s="207"/>
+      <c r="AY3" s="207"/>
+      <c r="AZ3" s="207"/>
+      <c r="BA3" s="233"/>
+      <c r="BB3" s="234"/>
+      <c r="BC3" s="234"/>
+      <c r="BD3" s="234"/>
+      <c r="BE3" s="235"/>
+      <c r="BF3" s="237"/>
+      <c r="BG3" s="237"/>
+      <c r="BH3" s="237"/>
+      <c r="BI3" s="240"/>
+      <c r="BJ3" s="243"/>
+      <c r="BK3" s="225"/>
+      <c r="BL3" s="225"/>
     </row>
     <row r="4" spans="1:65" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="238"/>
-      <c r="B4" s="239"/>
-      <c r="C4" s="239"/>
-      <c r="D4" s="242"/>
-      <c r="E4" s="245"/>
-      <c r="F4" s="248"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="251"/>
-      <c r="J4" s="251"/>
-      <c r="K4" s="251"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="207"/>
-      <c r="N4" s="207"/>
+      <c r="A4" s="190"/>
+      <c r="B4" s="191"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="197"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="205"/>
+      <c r="K4" s="205"/>
+      <c r="L4" s="203"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="203"/>
       <c r="O4" s="53" t="s">
         <v>38</v>
       </c>
@@ -4402,22 +4402,22 @@
       <c r="R4" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="218"/>
-      <c r="T4" s="221"/>
-      <c r="U4" s="221"/>
-      <c r="V4" s="187"/>
+      <c r="S4" s="210"/>
+      <c r="T4" s="213"/>
+      <c r="U4" s="213"/>
+      <c r="V4" s="227"/>
       <c r="W4" s="173" t="s">
         <v>42</v>
       </c>
-      <c r="X4" s="188"/>
+      <c r="X4" s="228"/>
       <c r="Y4" s="173" t="s">
         <v>43</v>
       </c>
-      <c r="Z4" s="188"/>
+      <c r="Z4" s="228"/>
       <c r="AA4" s="173" t="s">
         <v>44</v>
       </c>
-      <c r="AB4" s="189"/>
+      <c r="AB4" s="229"/>
       <c r="AC4" s="178" t="s">
         <v>170</v>
       </c>
@@ -4461,8 +4461,8 @@
       <c r="AQ4" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="AR4" s="207"/>
-      <c r="AS4" s="210"/>
+      <c r="AR4" s="203"/>
+      <c r="AS4" s="248"/>
       <c r="AT4" s="62" t="s">
         <v>42</v>
       </c>
@@ -4475,9 +4475,9 @@
       <c r="AW4" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="AX4" s="216"/>
-      <c r="AY4" s="216"/>
-      <c r="AZ4" s="216"/>
+      <c r="AX4" s="208"/>
+      <c r="AY4" s="208"/>
+      <c r="AZ4" s="208"/>
       <c r="BA4" s="171" t="s">
         <v>156</v>
       </c>
@@ -4493,13 +4493,13 @@
       <c r="BE4" s="172" t="s">
         <v>160</v>
       </c>
-      <c r="BF4" s="198"/>
-      <c r="BG4" s="198"/>
-      <c r="BH4" s="198"/>
-      <c r="BI4" s="201"/>
-      <c r="BJ4" s="204"/>
-      <c r="BK4" s="186"/>
-      <c r="BL4" s="186"/>
+      <c r="BF4" s="238"/>
+      <c r="BG4" s="238"/>
+      <c r="BH4" s="238"/>
+      <c r="BI4" s="241"/>
+      <c r="BJ4" s="244"/>
+      <c r="BK4" s="226"/>
+      <c r="BL4" s="226"/>
     </row>
     <row r="5" spans="1:65" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="77">
@@ -5208,11 +5208,11 @@
       <c r="Q8" s="36"/>
       <c r="R8" s="36"/>
       <c r="S8" s="36">
-        <v>490.5</v>
+        <v>0</v>
       </c>
       <c r="T8" s="36">
         <f t="shared" ref="T8" si="27">N8-R8-S8</f>
-        <v>4509.5</v>
+        <v>5000</v>
       </c>
       <c r="U8" s="26">
         <v>5100</v>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="AS8" s="63">
         <f t="shared" si="1"/>
-        <v>4509.5</v>
+        <v>5000</v>
       </c>
       <c r="AT8" s="63">
         <f t="shared" si="2"/>
@@ -5319,7 +5319,7 @@
       </c>
       <c r="AX8" s="63">
         <f>$AS8+VLOOKUP($F8,'7月工资表'!$F$5:$AZ$14,45,FALSE)</f>
-        <v>54547.5</v>
+        <v>55528.5</v>
       </c>
       <c r="AY8" s="63">
         <f>$AR8+VLOOKUP($F8,'7月工资表'!$F$5:$BI$22,46,FALSE)</f>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="BF8" s="63">
         <f t="shared" si="6"/>
-        <v>-15743.34</v>
+        <v>-14762.34</v>
       </c>
       <c r="BG8" s="63">
         <f>ROUND(IF(BF8="","",MAX(0,BF8*{3;10;20;25;30;35;45}%-{0;2520;16920;31920;52920;85920;181920})),2)</f>
@@ -5367,7 +5367,7 @@
       </c>
       <c r="BJ8" s="138">
         <f t="shared" ref="BJ8:BJ10" si="28">IF(AS8="","",AS8-AT8-AU8-AV8-AW8-BI8)</f>
-        <v>3726.1000000000004</v>
+        <v>4216.6000000000004</v>
       </c>
       <c r="BK8" s="65"/>
       <c r="BL8" s="65"/>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="T11" s="42">
         <f>SUM(T5:T10)</f>
-        <v>31531.199999999997</v>
+        <v>32021.699999999997</v>
       </c>
       <c r="W11" s="42">
         <f>SUM(W5:W10)</f>
@@ -5912,7 +5912,7 @@
       </c>
       <c r="AS11" s="42">
         <f t="shared" ref="AS11:BH11" si="30">SUM(AS5:AS10)</f>
-        <v>31531.199999999997</v>
+        <v>32021.699999999997</v>
       </c>
       <c r="AT11" s="42">
         <f t="shared" si="30"/>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="AX11" s="42">
         <f t="shared" si="30"/>
-        <v>346140.8</v>
+        <v>347121.8</v>
       </c>
       <c r="AY11" s="42">
         <f t="shared" si="30"/>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="BF11" s="42">
         <f t="shared" si="30"/>
-        <v>-42554.92</v>
+        <v>-41573.919999999998</v>
       </c>
       <c r="BG11" s="42">
         <f t="shared" si="30"/>
@@ -5980,7 +5980,7 @@
       </c>
       <c r="BJ11" s="46">
         <f>SUM(BJ5:BJ10)</f>
-        <v>20528.519999999997</v>
+        <v>21019.019999999997</v>
       </c>
       <c r="BK11" s="154"/>
       <c r="BL11" s="42">
@@ -6135,7 +6135,7 @@
       </c>
       <c r="H15" s="157">
         <f>SUM(H13,H14,T11)</f>
-        <v>40493.039999999994</v>
+        <v>40983.539999999994</v>
       </c>
       <c r="N15" s="44"/>
       <c r="O15" s="45"/>
@@ -6253,6 +6253,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="BK2:BK4"/>
+    <mergeCell ref="BL2:BL4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="BA2:BE3"/>
+    <mergeCell ref="BF2:BF4"/>
+    <mergeCell ref="BG2:BG4"/>
+    <mergeCell ref="BH2:BH4"/>
+    <mergeCell ref="BI2:BI4"/>
+    <mergeCell ref="BJ2:BJ4"/>
+    <mergeCell ref="AR2:AR4"/>
+    <mergeCell ref="AS2:AS4"/>
+    <mergeCell ref="AT2:AW2"/>
+    <mergeCell ref="AX2:AX4"/>
+    <mergeCell ref="AY2:AY4"/>
+    <mergeCell ref="AZ2:AZ4"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="T2:T4"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="V2:AD2"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="AM2:AQ3"/>
     <mergeCell ref="O2:R3"/>
     <mergeCell ref="A1:BJ1"/>
     <mergeCell ref="A2:A4"/>
@@ -6269,32 +6293,8 @@
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
-    <mergeCell ref="AY2:AY4"/>
-    <mergeCell ref="AZ2:AZ4"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="T2:T4"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="V2:AD2"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="AM2:AQ3"/>
-    <mergeCell ref="BK2:BK4"/>
-    <mergeCell ref="BL2:BL4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="BA2:BE3"/>
-    <mergeCell ref="BF2:BF4"/>
-    <mergeCell ref="BG2:BG4"/>
-    <mergeCell ref="BH2:BH4"/>
-    <mergeCell ref="BI2:BI4"/>
-    <mergeCell ref="BJ2:BJ4"/>
-    <mergeCell ref="AR2:AR4"/>
-    <mergeCell ref="AS2:AS4"/>
-    <mergeCell ref="AT2:AW2"/>
-    <mergeCell ref="AX2:AX4"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E10" xr:uid="{49D16490-245F-44A0-A7DC-BDD9B681B46C}">
       <formula1>"城镇,农村"</formula1>
     </dataValidation>
@@ -7797,171 +7797,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="188" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="237"/>
-      <c r="M1" s="237"/>
-      <c r="N1" s="237"/>
-      <c r="O1" s="237"/>
-      <c r="P1" s="237"/>
-      <c r="Q1" s="237"/>
-      <c r="R1" s="237"/>
-      <c r="S1" s="237"/>
-      <c r="T1" s="237"/>
-      <c r="U1" s="237"/>
-      <c r="V1" s="237"/>
-      <c r="W1" s="237"/>
-      <c r="X1" s="237"/>
-      <c r="Y1" s="237"/>
-      <c r="Z1" s="237"/>
-      <c r="AA1" s="237"/>
-      <c r="AB1" s="237"/>
-      <c r="AC1" s="237"/>
-      <c r="AD1" s="237"/>
-      <c r="AE1" s="237"/>
-      <c r="AF1" s="237"/>
-      <c r="AG1" s="237"/>
-      <c r="AH1" s="237"/>
-      <c r="AI1" s="237"/>
-      <c r="AJ1" s="237"/>
-      <c r="AK1" s="237"/>
-      <c r="AL1" s="237"/>
-      <c r="AM1" s="237"/>
-      <c r="AN1" s="237"/>
-      <c r="AO1" s="237"/>
-      <c r="AP1" s="237"/>
-      <c r="AQ1" s="237"/>
-      <c r="AR1" s="237"/>
-      <c r="AS1" s="237"/>
-      <c r="AT1" s="237"/>
-      <c r="AU1" s="237"/>
-      <c r="AV1" s="237"/>
-      <c r="AW1" s="237"/>
-      <c r="AX1" s="237"/>
-      <c r="AY1" s="237"/>
-      <c r="AZ1" s="237"/>
-      <c r="BA1" s="237"/>
-      <c r="BB1" s="237"/>
-      <c r="BC1" s="237"/>
-      <c r="BD1" s="237"/>
-      <c r="BE1" s="237"/>
-      <c r="BF1" s="237"/>
-      <c r="BG1" s="237"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="M1" s="189"/>
+      <c r="N1" s="189"/>
+      <c r="O1" s="189"/>
+      <c r="P1" s="189"/>
+      <c r="Q1" s="189"/>
+      <c r="R1" s="189"/>
+      <c r="S1" s="189"/>
+      <c r="T1" s="189"/>
+      <c r="U1" s="189"/>
+      <c r="V1" s="189"/>
+      <c r="W1" s="189"/>
+      <c r="X1" s="189"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="189"/>
+      <c r="AA1" s="189"/>
+      <c r="AB1" s="189"/>
+      <c r="AC1" s="189"/>
+      <c r="AD1" s="189"/>
+      <c r="AE1" s="189"/>
+      <c r="AF1" s="189"/>
+      <c r="AG1" s="189"/>
+      <c r="AH1" s="189"/>
+      <c r="AI1" s="189"/>
+      <c r="AJ1" s="189"/>
+      <c r="AK1" s="189"/>
+      <c r="AL1" s="189"/>
+      <c r="AM1" s="189"/>
+      <c r="AN1" s="189"/>
+      <c r="AO1" s="189"/>
+      <c r="AP1" s="189"/>
+      <c r="AQ1" s="189"/>
+      <c r="AR1" s="189"/>
+      <c r="AS1" s="189"/>
+      <c r="AT1" s="189"/>
+      <c r="AU1" s="189"/>
+      <c r="AV1" s="189"/>
+      <c r="AW1" s="189"/>
+      <c r="AX1" s="189"/>
+      <c r="AY1" s="189"/>
+      <c r="AZ1" s="189"/>
+      <c r="BA1" s="189"/>
+      <c r="BB1" s="189"/>
+      <c r="BC1" s="189"/>
+      <c r="BD1" s="189"/>
+      <c r="BE1" s="189"/>
+      <c r="BF1" s="189"/>
+      <c r="BG1" s="189"/>
     </row>
     <row r="2" spans="1:61" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="238" t="s">
+      <c r="A2" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="239" t="s">
+      <c r="B2" s="191" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="239" t="s">
+      <c r="C2" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="240" t="s">
+      <c r="D2" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="243" t="s">
+      <c r="E2" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="267" t="s">
+      <c r="F2" s="270" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="249" t="s">
+      <c r="G2" s="201" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="250" t="s">
+      <c r="H2" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="251" t="s">
+      <c r="I2" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="251" t="s">
+      <c r="J2" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="251" t="s">
+      <c r="K2" s="205" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="250" t="s">
+      <c r="L2" s="204" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="250" t="s">
+      <c r="M2" s="204" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="250" t="s">
+      <c r="N2" s="204" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="232" t="s">
+      <c r="O2" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="233"/>
-      <c r="Q2" s="233"/>
-      <c r="R2" s="233"/>
-      <c r="S2" s="218" t="s">
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="219" t="s">
+      <c r="T2" s="211" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="219" t="s">
+      <c r="U2" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="223" t="s">
+      <c r="V2" s="215" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="224"/>
-      <c r="X2" s="224"/>
-      <c r="Y2" s="224"/>
-      <c r="Z2" s="224"/>
-      <c r="AA2" s="225"/>
-      <c r="AB2" s="222" t="s">
+      <c r="W2" s="216"/>
+      <c r="X2" s="216"/>
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="216"/>
+      <c r="AA2" s="217"/>
+      <c r="AB2" s="214" t="s">
         <v>20</v>
       </c>
-      <c r="AC2" s="222"/>
-      <c r="AD2" s="222"/>
-      <c r="AE2" s="222"/>
+      <c r="AC2" s="214"/>
+      <c r="AD2" s="214"/>
+      <c r="AE2" s="214"/>
       <c r="AF2" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="AG2" s="223" t="s">
+      <c r="AG2" s="215" t="s">
         <v>22</v>
       </c>
-      <c r="AH2" s="224"/>
-      <c r="AI2" s="225"/>
-      <c r="AJ2" s="226" t="s">
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="217"/>
+      <c r="AJ2" s="218" t="s">
         <v>23</v>
       </c>
-      <c r="AK2" s="227"/>
-      <c r="AL2" s="227"/>
-      <c r="AM2" s="227"/>
-      <c r="AN2" s="228"/>
-      <c r="AO2" s="205" t="s">
+      <c r="AK2" s="219"/>
+      <c r="AL2" s="219"/>
+      <c r="AM2" s="219"/>
+      <c r="AN2" s="220"/>
+      <c r="AO2" s="245" t="s">
         <v>24</v>
       </c>
-      <c r="AP2" s="208" t="s">
+      <c r="AP2" s="246" t="s">
         <v>25</v>
       </c>
-      <c r="AQ2" s="211" t="s">
+      <c r="AQ2" s="249" t="s">
         <v>26</v>
       </c>
-      <c r="AR2" s="212"/>
-      <c r="AS2" s="212"/>
-      <c r="AT2" s="213"/>
-      <c r="AU2" s="208" t="s">
+      <c r="AR2" s="250"/>
+      <c r="AS2" s="250"/>
+      <c r="AT2" s="251"/>
+      <c r="AU2" s="246" t="s">
         <v>27</v>
       </c>
-      <c r="AV2" s="208" t="s">
+      <c r="AV2" s="246" t="s">
         <v>28</v>
       </c>
       <c r="AW2" s="260" t="s">
@@ -7974,50 +7974,50 @@
       <c r="AZ2" s="262"/>
       <c r="BA2" s="262"/>
       <c r="BB2" s="263"/>
-      <c r="BC2" s="196" t="s">
+      <c r="BC2" s="236" t="s">
         <v>31</v>
       </c>
-      <c r="BD2" s="196" t="s">
+      <c r="BD2" s="236" t="s">
         <v>32</v>
       </c>
-      <c r="BE2" s="196" t="s">
+      <c r="BE2" s="236" t="s">
         <v>33</v>
       </c>
-      <c r="BF2" s="196" t="s">
+      <c r="BF2" s="236" t="s">
         <v>34</v>
       </c>
-      <c r="BG2" s="270" t="s">
+      <c r="BG2" s="267" t="s">
         <v>35</v>
       </c>
-      <c r="BH2" s="184" t="s">
+      <c r="BH2" s="224" t="s">
         <v>118</v>
       </c>
-      <c r="BI2" s="184" t="s">
+      <c r="BI2" s="224" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:61" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="238"/>
-      <c r="B3" s="239"/>
-      <c r="C3" s="239"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="268"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="251"/>
-      <c r="J3" s="251"/>
-      <c r="K3" s="251"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="234"/>
-      <c r="P3" s="235"/>
-      <c r="Q3" s="235"/>
-      <c r="R3" s="235"/>
-      <c r="S3" s="218"/>
-      <c r="T3" s="220"/>
-      <c r="U3" s="220"/>
+      <c r="A3" s="190"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="271"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="187"/>
+      <c r="Q3" s="187"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="210"/>
+      <c r="T3" s="212"/>
+      <c r="U3" s="212"/>
       <c r="V3" s="54">
         <v>0.16</v>
       </c>
@@ -8059,13 +8059,13 @@
       <c r="AI3" s="56">
         <v>0.1</v>
       </c>
-      <c r="AJ3" s="229"/>
-      <c r="AK3" s="230"/>
-      <c r="AL3" s="230"/>
-      <c r="AM3" s="230"/>
-      <c r="AN3" s="231"/>
-      <c r="AO3" s="206"/>
-      <c r="AP3" s="209"/>
+      <c r="AJ3" s="221"/>
+      <c r="AK3" s="222"/>
+      <c r="AL3" s="222"/>
+      <c r="AM3" s="222"/>
+      <c r="AN3" s="223"/>
+      <c r="AO3" s="202"/>
+      <c r="AP3" s="247"/>
       <c r="AQ3" s="59">
         <v>0.08</v>
       </c>
@@ -8078,37 +8078,37 @@
       <c r="AT3" s="60">
         <v>0.05</v>
       </c>
-      <c r="AU3" s="209"/>
-      <c r="AV3" s="209"/>
-      <c r="AW3" s="209"/>
+      <c r="AU3" s="247"/>
+      <c r="AV3" s="247"/>
+      <c r="AW3" s="247"/>
       <c r="AX3" s="264"/>
       <c r="AY3" s="265"/>
       <c r="AZ3" s="265"/>
       <c r="BA3" s="265"/>
       <c r="BB3" s="266"/>
-      <c r="BC3" s="197"/>
-      <c r="BD3" s="197"/>
-      <c r="BE3" s="197"/>
-      <c r="BF3" s="197"/>
-      <c r="BG3" s="271"/>
-      <c r="BH3" s="185"/>
-      <c r="BI3" s="185"/>
+      <c r="BC3" s="237"/>
+      <c r="BD3" s="237"/>
+      <c r="BE3" s="237"/>
+      <c r="BF3" s="237"/>
+      <c r="BG3" s="268"/>
+      <c r="BH3" s="225"/>
+      <c r="BI3" s="225"/>
     </row>
     <row r="4" spans="1:61" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="238"/>
-      <c r="B4" s="239"/>
-      <c r="C4" s="239"/>
-      <c r="D4" s="242"/>
-      <c r="E4" s="245"/>
-      <c r="F4" s="269"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="251"/>
-      <c r="J4" s="251"/>
-      <c r="K4" s="251"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="207"/>
-      <c r="N4" s="207"/>
+      <c r="A4" s="190"/>
+      <c r="B4" s="191"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="197"/>
+      <c r="F4" s="272"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="205"/>
+      <c r="K4" s="205"/>
+      <c r="L4" s="203"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="203"/>
       <c r="O4" s="53" t="s">
         <v>38</v>
       </c>
@@ -8121,9 +8121,9 @@
       <c r="R4" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="218"/>
-      <c r="T4" s="221"/>
-      <c r="U4" s="221"/>
+      <c r="S4" s="210"/>
+      <c r="T4" s="213"/>
+      <c r="U4" s="213"/>
       <c r="V4" s="56" t="s">
         <v>42</v>
       </c>
@@ -8179,8 +8179,8 @@
       <c r="AN4" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="AO4" s="207"/>
-      <c r="AP4" s="210"/>
+      <c r="AO4" s="203"/>
+      <c r="AP4" s="248"/>
       <c r="AQ4" s="62" t="s">
         <v>42</v>
       </c>
@@ -8193,9 +8193,9 @@
       <c r="AT4" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="AU4" s="210"/>
-      <c r="AV4" s="210"/>
-      <c r="AW4" s="210"/>
+      <c r="AU4" s="248"/>
+      <c r="AV4" s="248"/>
+      <c r="AW4" s="248"/>
       <c r="AX4" s="61" t="s">
         <v>50</v>
       </c>
@@ -8211,13 +8211,13 @@
       <c r="BB4" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="BC4" s="198"/>
-      <c r="BD4" s="198"/>
-      <c r="BE4" s="198"/>
-      <c r="BF4" s="198"/>
-      <c r="BG4" s="272"/>
-      <c r="BH4" s="186"/>
-      <c r="BI4" s="186"/>
+      <c r="BC4" s="238"/>
+      <c r="BD4" s="238"/>
+      <c r="BE4" s="238"/>
+      <c r="BF4" s="238"/>
+      <c r="BG4" s="269"/>
+      <c r="BH4" s="226"/>
+      <c r="BI4" s="226"/>
     </row>
     <row r="5" spans="1:61" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="77">
@@ -12272,6 +12272,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A1:BG1"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="AU2:AU4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="T2:T4"/>
     <mergeCell ref="BF2:BF4"/>
     <mergeCell ref="BG2:BG4"/>
     <mergeCell ref="BH2:BH4"/>
@@ -12288,28 +12310,6 @@
     <mergeCell ref="AF2:AF4"/>
     <mergeCell ref="AO2:AO4"/>
     <mergeCell ref="AP2:AP4"/>
-    <mergeCell ref="AU2:AU4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="T2:T4"/>
-    <mergeCell ref="A1:BG1"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="1">
@@ -15137,171 +15137,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="236" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="237"/>
-      <c r="M1" s="237"/>
-      <c r="N1" s="237"/>
-      <c r="O1" s="237"/>
-      <c r="P1" s="237"/>
-      <c r="Q1" s="237"/>
-      <c r="R1" s="237"/>
-      <c r="S1" s="237"/>
-      <c r="T1" s="237"/>
-      <c r="U1" s="237"/>
-      <c r="V1" s="237"/>
-      <c r="W1" s="237"/>
-      <c r="X1" s="237"/>
-      <c r="Y1" s="237"/>
-      <c r="Z1" s="237"/>
-      <c r="AA1" s="237"/>
-      <c r="AB1" s="237"/>
-      <c r="AC1" s="237"/>
-      <c r="AD1" s="237"/>
-      <c r="AE1" s="237"/>
-      <c r="AF1" s="237"/>
-      <c r="AG1" s="237"/>
-      <c r="AH1" s="237"/>
-      <c r="AI1" s="237"/>
-      <c r="AJ1" s="237"/>
-      <c r="AK1" s="237"/>
-      <c r="AL1" s="237"/>
-      <c r="AM1" s="237"/>
-      <c r="AN1" s="237"/>
-      <c r="AO1" s="237"/>
-      <c r="AP1" s="237"/>
-      <c r="AQ1" s="237"/>
-      <c r="AR1" s="237"/>
-      <c r="AS1" s="237"/>
-      <c r="AT1" s="237"/>
-      <c r="AU1" s="237"/>
-      <c r="AV1" s="237"/>
-      <c r="AW1" s="237"/>
-      <c r="AX1" s="237"/>
-      <c r="AY1" s="237"/>
-      <c r="AZ1" s="237"/>
-      <c r="BA1" s="237"/>
-      <c r="BB1" s="237"/>
-      <c r="BC1" s="237"/>
-      <c r="BD1" s="237"/>
-      <c r="BE1" s="237"/>
-      <c r="BF1" s="237"/>
-      <c r="BG1" s="237"/>
+      <c r="A1" s="188" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="M1" s="189"/>
+      <c r="N1" s="189"/>
+      <c r="O1" s="189"/>
+      <c r="P1" s="189"/>
+      <c r="Q1" s="189"/>
+      <c r="R1" s="189"/>
+      <c r="S1" s="189"/>
+      <c r="T1" s="189"/>
+      <c r="U1" s="189"/>
+      <c r="V1" s="189"/>
+      <c r="W1" s="189"/>
+      <c r="X1" s="189"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="189"/>
+      <c r="AA1" s="189"/>
+      <c r="AB1" s="189"/>
+      <c r="AC1" s="189"/>
+      <c r="AD1" s="189"/>
+      <c r="AE1" s="189"/>
+      <c r="AF1" s="189"/>
+      <c r="AG1" s="189"/>
+      <c r="AH1" s="189"/>
+      <c r="AI1" s="189"/>
+      <c r="AJ1" s="189"/>
+      <c r="AK1" s="189"/>
+      <c r="AL1" s="189"/>
+      <c r="AM1" s="189"/>
+      <c r="AN1" s="189"/>
+      <c r="AO1" s="189"/>
+      <c r="AP1" s="189"/>
+      <c r="AQ1" s="189"/>
+      <c r="AR1" s="189"/>
+      <c r="AS1" s="189"/>
+      <c r="AT1" s="189"/>
+      <c r="AU1" s="189"/>
+      <c r="AV1" s="189"/>
+      <c r="AW1" s="189"/>
+      <c r="AX1" s="189"/>
+      <c r="AY1" s="189"/>
+      <c r="AZ1" s="189"/>
+      <c r="BA1" s="189"/>
+      <c r="BB1" s="189"/>
+      <c r="BC1" s="189"/>
+      <c r="BD1" s="189"/>
+      <c r="BE1" s="189"/>
+      <c r="BF1" s="189"/>
+      <c r="BG1" s="189"/>
     </row>
     <row r="2" spans="1:59" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="239" t="s">
+      <c r="A2" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="239" t="s">
+      <c r="B2" s="191" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="239" t="s">
+      <c r="C2" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="240" t="s">
+      <c r="D2" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="243" t="s">
+      <c r="E2" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="267" t="s">
+      <c r="F2" s="270" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="250" t="s">
+      <c r="G2" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="250" t="s">
+      <c r="H2" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="251" t="s">
+      <c r="I2" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="251" t="s">
+      <c r="J2" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="251" t="s">
+      <c r="K2" s="205" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="250" t="s">
+      <c r="L2" s="204" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="250" t="s">
+      <c r="M2" s="204" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="250" t="s">
+      <c r="N2" s="204" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="232" t="s">
+      <c r="O2" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="233"/>
-      <c r="Q2" s="233"/>
-      <c r="R2" s="233"/>
-      <c r="S2" s="218" t="s">
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="219" t="s">
+      <c r="T2" s="211" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="219" t="s">
+      <c r="U2" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="223" t="s">
+      <c r="V2" s="215" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="224"/>
-      <c r="X2" s="224"/>
-      <c r="Y2" s="224"/>
-      <c r="Z2" s="224"/>
-      <c r="AA2" s="225"/>
-      <c r="AB2" s="222" t="s">
+      <c r="W2" s="216"/>
+      <c r="X2" s="216"/>
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="216"/>
+      <c r="AA2" s="217"/>
+      <c r="AB2" s="214" t="s">
         <v>20</v>
       </c>
-      <c r="AC2" s="222"/>
-      <c r="AD2" s="222"/>
-      <c r="AE2" s="222"/>
+      <c r="AC2" s="214"/>
+      <c r="AD2" s="214"/>
+      <c r="AE2" s="214"/>
       <c r="AF2" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="AG2" s="223" t="s">
+      <c r="AG2" s="215" t="s">
         <v>22</v>
       </c>
-      <c r="AH2" s="224"/>
-      <c r="AI2" s="225"/>
-      <c r="AJ2" s="226" t="s">
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="217"/>
+      <c r="AJ2" s="218" t="s">
         <v>23</v>
       </c>
-      <c r="AK2" s="227"/>
-      <c r="AL2" s="227"/>
-      <c r="AM2" s="227"/>
-      <c r="AN2" s="228"/>
-      <c r="AO2" s="205" t="s">
+      <c r="AK2" s="219"/>
+      <c r="AL2" s="219"/>
+      <c r="AM2" s="219"/>
+      <c r="AN2" s="220"/>
+      <c r="AO2" s="245" t="s">
         <v>24</v>
       </c>
-      <c r="AP2" s="208" t="s">
+      <c r="AP2" s="246" t="s">
         <v>25</v>
       </c>
-      <c r="AQ2" s="211" t="s">
+      <c r="AQ2" s="249" t="s">
         <v>26</v>
       </c>
-      <c r="AR2" s="212"/>
-      <c r="AS2" s="212"/>
-      <c r="AT2" s="213"/>
-      <c r="AU2" s="208" t="s">
+      <c r="AR2" s="250"/>
+      <c r="AS2" s="250"/>
+      <c r="AT2" s="251"/>
+      <c r="AU2" s="246" t="s">
         <v>27</v>
       </c>
-      <c r="AV2" s="208" t="s">
+      <c r="AV2" s="246" t="s">
         <v>28</v>
       </c>
       <c r="AW2" s="260" t="s">
@@ -15314,44 +15314,44 @@
       <c r="AZ2" s="262"/>
       <c r="BA2" s="262"/>
       <c r="BB2" s="263"/>
-      <c r="BC2" s="196" t="s">
+      <c r="BC2" s="236" t="s">
         <v>31</v>
       </c>
-      <c r="BD2" s="196" t="s">
+      <c r="BD2" s="236" t="s">
         <v>32</v>
       </c>
-      <c r="BE2" s="196" t="s">
+      <c r="BE2" s="236" t="s">
         <v>33</v>
       </c>
-      <c r="BF2" s="196" t="s">
+      <c r="BF2" s="236" t="s">
         <v>34</v>
       </c>
-      <c r="BG2" s="270" t="s">
+      <c r="BG2" s="267" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:59" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="239"/>
-      <c r="B3" s="239"/>
-      <c r="C3" s="239"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="268"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="251"/>
-      <c r="J3" s="251"/>
-      <c r="K3" s="251"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="234"/>
-      <c r="P3" s="235"/>
-      <c r="Q3" s="235"/>
-      <c r="R3" s="235"/>
-      <c r="S3" s="218"/>
-      <c r="T3" s="220"/>
-      <c r="U3" s="220"/>
+      <c r="A3" s="191"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="271"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="187"/>
+      <c r="Q3" s="187"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="210"/>
+      <c r="T3" s="212"/>
+      <c r="U3" s="212"/>
       <c r="V3" s="54">
         <v>0.16</v>
       </c>
@@ -15393,13 +15393,13 @@
       <c r="AI3" s="56">
         <v>0.1</v>
       </c>
-      <c r="AJ3" s="229"/>
-      <c r="AK3" s="230"/>
-      <c r="AL3" s="230"/>
-      <c r="AM3" s="230"/>
-      <c r="AN3" s="231"/>
-      <c r="AO3" s="206"/>
-      <c r="AP3" s="209"/>
+      <c r="AJ3" s="221"/>
+      <c r="AK3" s="222"/>
+      <c r="AL3" s="222"/>
+      <c r="AM3" s="222"/>
+      <c r="AN3" s="223"/>
+      <c r="AO3" s="202"/>
+      <c r="AP3" s="247"/>
       <c r="AQ3" s="59">
         <v>0.08</v>
       </c>
@@ -15412,35 +15412,35 @@
       <c r="AT3" s="60">
         <v>0.05</v>
       </c>
-      <c r="AU3" s="209"/>
-      <c r="AV3" s="209"/>
-      <c r="AW3" s="209"/>
+      <c r="AU3" s="247"/>
+      <c r="AV3" s="247"/>
+      <c r="AW3" s="247"/>
       <c r="AX3" s="264"/>
       <c r="AY3" s="265"/>
       <c r="AZ3" s="265"/>
       <c r="BA3" s="265"/>
       <c r="BB3" s="266"/>
-      <c r="BC3" s="197"/>
-      <c r="BD3" s="197"/>
-      <c r="BE3" s="197"/>
-      <c r="BF3" s="197"/>
-      <c r="BG3" s="271"/>
+      <c r="BC3" s="237"/>
+      <c r="BD3" s="237"/>
+      <c r="BE3" s="237"/>
+      <c r="BF3" s="237"/>
+      <c r="BG3" s="268"/>
     </row>
     <row r="4" spans="1:59" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="239"/>
-      <c r="B4" s="239"/>
-      <c r="C4" s="239"/>
-      <c r="D4" s="242"/>
-      <c r="E4" s="245"/>
-      <c r="F4" s="269"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="251"/>
-      <c r="J4" s="251"/>
-      <c r="K4" s="251"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="207"/>
-      <c r="N4" s="207"/>
+      <c r="A4" s="191"/>
+      <c r="B4" s="191"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="197"/>
+      <c r="F4" s="272"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="205"/>
+      <c r="K4" s="205"/>
+      <c r="L4" s="203"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="203"/>
       <c r="O4" s="53" t="s">
         <v>38</v>
       </c>
@@ -15453,9 +15453,9 @@
       <c r="R4" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="218"/>
-      <c r="T4" s="221"/>
-      <c r="U4" s="221"/>
+      <c r="S4" s="210"/>
+      <c r="T4" s="213"/>
+      <c r="U4" s="213"/>
       <c r="V4" s="56" t="s">
         <v>42</v>
       </c>
@@ -15511,8 +15511,8 @@
       <c r="AN4" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="AO4" s="207"/>
-      <c r="AP4" s="210"/>
+      <c r="AO4" s="203"/>
+      <c r="AP4" s="248"/>
       <c r="AQ4" s="62" t="s">
         <v>42</v>
       </c>
@@ -15525,9 +15525,9 @@
       <c r="AT4" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="AU4" s="210"/>
-      <c r="AV4" s="210"/>
-      <c r="AW4" s="210"/>
+      <c r="AU4" s="248"/>
+      <c r="AV4" s="248"/>
+      <c r="AW4" s="248"/>
       <c r="AX4" s="61" t="s">
         <v>50</v>
       </c>
@@ -15543,11 +15543,11 @@
       <c r="BB4" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="BC4" s="198"/>
-      <c r="BD4" s="198"/>
-      <c r="BE4" s="198"/>
-      <c r="BF4" s="198"/>
-      <c r="BG4" s="272"/>
+      <c r="BC4" s="238"/>
+      <c r="BD4" s="238"/>
+      <c r="BE4" s="238"/>
+      <c r="BF4" s="238"/>
+      <c r="BG4" s="269"/>
     </row>
     <row r="5" spans="1:59" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="14">
@@ -19492,26 +19492,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="BF2:BF4"/>
-    <mergeCell ref="BG2:BG4"/>
-    <mergeCell ref="AX2:BB3"/>
-    <mergeCell ref="AJ2:AN3"/>
-    <mergeCell ref="O2:R3"/>
-    <mergeCell ref="AV2:AV4"/>
-    <mergeCell ref="AW2:AW4"/>
-    <mergeCell ref="BC2:BC4"/>
-    <mergeCell ref="BD2:BD4"/>
-    <mergeCell ref="BE2:BE4"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="AF2:AF4"/>
-    <mergeCell ref="AO2:AO4"/>
-    <mergeCell ref="AP2:AP4"/>
-    <mergeCell ref="AU2:AU4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="T2:T4"/>
     <mergeCell ref="A1:BG1"/>
     <mergeCell ref="V2:AA2"/>
     <mergeCell ref="AB2:AE2"/>
@@ -19528,6 +19508,26 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="T2:T4"/>
+    <mergeCell ref="BF2:BF4"/>
+    <mergeCell ref="BG2:BG4"/>
+    <mergeCell ref="AX2:BB3"/>
+    <mergeCell ref="AJ2:AN3"/>
+    <mergeCell ref="O2:R3"/>
+    <mergeCell ref="AV2:AV4"/>
+    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="BC2:BC4"/>
+    <mergeCell ref="BD2:BD4"/>
+    <mergeCell ref="BE2:BE4"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="AF2:AF4"/>
+    <mergeCell ref="AO2:AO4"/>
+    <mergeCell ref="AP2:AP4"/>
+    <mergeCell ref="AU2:AU4"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="1">
@@ -22363,171 +22363,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="188" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="237"/>
-      <c r="M1" s="237"/>
-      <c r="N1" s="237"/>
-      <c r="O1" s="237"/>
-      <c r="P1" s="237"/>
-      <c r="Q1" s="237"/>
-      <c r="R1" s="237"/>
-      <c r="S1" s="237"/>
-      <c r="T1" s="237"/>
-      <c r="U1" s="237"/>
-      <c r="V1" s="237"/>
-      <c r="W1" s="237"/>
-      <c r="X1" s="237"/>
-      <c r="Y1" s="237"/>
-      <c r="Z1" s="237"/>
-      <c r="AA1" s="237"/>
-      <c r="AB1" s="237"/>
-      <c r="AC1" s="237"/>
-      <c r="AD1" s="237"/>
-      <c r="AE1" s="237"/>
-      <c r="AF1" s="237"/>
-      <c r="AG1" s="237"/>
-      <c r="AH1" s="237"/>
-      <c r="AI1" s="237"/>
-      <c r="AJ1" s="237"/>
-      <c r="AK1" s="237"/>
-      <c r="AL1" s="237"/>
-      <c r="AM1" s="237"/>
-      <c r="AN1" s="237"/>
-      <c r="AO1" s="237"/>
-      <c r="AP1" s="237"/>
-      <c r="AQ1" s="237"/>
-      <c r="AR1" s="237"/>
-      <c r="AS1" s="237"/>
-      <c r="AT1" s="237"/>
-      <c r="AU1" s="237"/>
-      <c r="AV1" s="237"/>
-      <c r="AW1" s="237"/>
-      <c r="AX1" s="237"/>
-      <c r="AY1" s="237"/>
-      <c r="AZ1" s="237"/>
-      <c r="BA1" s="237"/>
-      <c r="BB1" s="237"/>
-      <c r="BC1" s="237"/>
-      <c r="BD1" s="237"/>
-      <c r="BE1" s="237"/>
-      <c r="BF1" s="237"/>
-      <c r="BG1" s="237"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="M1" s="189"/>
+      <c r="N1" s="189"/>
+      <c r="O1" s="189"/>
+      <c r="P1" s="189"/>
+      <c r="Q1" s="189"/>
+      <c r="R1" s="189"/>
+      <c r="S1" s="189"/>
+      <c r="T1" s="189"/>
+      <c r="U1" s="189"/>
+      <c r="V1" s="189"/>
+      <c r="W1" s="189"/>
+      <c r="X1" s="189"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="189"/>
+      <c r="AA1" s="189"/>
+      <c r="AB1" s="189"/>
+      <c r="AC1" s="189"/>
+      <c r="AD1" s="189"/>
+      <c r="AE1" s="189"/>
+      <c r="AF1" s="189"/>
+      <c r="AG1" s="189"/>
+      <c r="AH1" s="189"/>
+      <c r="AI1" s="189"/>
+      <c r="AJ1" s="189"/>
+      <c r="AK1" s="189"/>
+      <c r="AL1" s="189"/>
+      <c r="AM1" s="189"/>
+      <c r="AN1" s="189"/>
+      <c r="AO1" s="189"/>
+      <c r="AP1" s="189"/>
+      <c r="AQ1" s="189"/>
+      <c r="AR1" s="189"/>
+      <c r="AS1" s="189"/>
+      <c r="AT1" s="189"/>
+      <c r="AU1" s="189"/>
+      <c r="AV1" s="189"/>
+      <c r="AW1" s="189"/>
+      <c r="AX1" s="189"/>
+      <c r="AY1" s="189"/>
+      <c r="AZ1" s="189"/>
+      <c r="BA1" s="189"/>
+      <c r="BB1" s="189"/>
+      <c r="BC1" s="189"/>
+      <c r="BD1" s="189"/>
+      <c r="BE1" s="189"/>
+      <c r="BF1" s="189"/>
+      <c r="BG1" s="189"/>
     </row>
     <row r="2" spans="1:59" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="239" t="s">
+      <c r="A2" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="239" t="s">
+      <c r="B2" s="191" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="239" t="s">
+      <c r="C2" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="240" t="s">
+      <c r="D2" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="243" t="s">
+      <c r="E2" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="267" t="s">
+      <c r="F2" s="270" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="250" t="s">
+      <c r="G2" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="250" t="s">
+      <c r="H2" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="251" t="s">
+      <c r="I2" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="251" t="s">
+      <c r="J2" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="251" t="s">
+      <c r="K2" s="205" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="250" t="s">
+      <c r="L2" s="204" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="250" t="s">
+      <c r="M2" s="204" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="250" t="s">
+      <c r="N2" s="204" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="232" t="s">
+      <c r="O2" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="233"/>
-      <c r="Q2" s="233"/>
-      <c r="R2" s="233"/>
-      <c r="S2" s="218" t="s">
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="219" t="s">
+      <c r="T2" s="211" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="219" t="s">
+      <c r="U2" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="223" t="s">
+      <c r="V2" s="215" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="224"/>
-      <c r="X2" s="224"/>
-      <c r="Y2" s="224"/>
-      <c r="Z2" s="224"/>
-      <c r="AA2" s="225"/>
-      <c r="AB2" s="222" t="s">
+      <c r="W2" s="216"/>
+      <c r="X2" s="216"/>
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="216"/>
+      <c r="AA2" s="217"/>
+      <c r="AB2" s="214" t="s">
         <v>20</v>
       </c>
-      <c r="AC2" s="222"/>
-      <c r="AD2" s="222"/>
-      <c r="AE2" s="222"/>
+      <c r="AC2" s="214"/>
+      <c r="AD2" s="214"/>
+      <c r="AE2" s="214"/>
       <c r="AF2" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="AG2" s="223" t="s">
+      <c r="AG2" s="215" t="s">
         <v>22</v>
       </c>
-      <c r="AH2" s="224"/>
-      <c r="AI2" s="225"/>
-      <c r="AJ2" s="226" t="s">
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="217"/>
+      <c r="AJ2" s="218" t="s">
         <v>23</v>
       </c>
-      <c r="AK2" s="227"/>
-      <c r="AL2" s="227"/>
-      <c r="AM2" s="227"/>
-      <c r="AN2" s="228"/>
-      <c r="AO2" s="205" t="s">
+      <c r="AK2" s="219"/>
+      <c r="AL2" s="219"/>
+      <c r="AM2" s="219"/>
+      <c r="AN2" s="220"/>
+      <c r="AO2" s="245" t="s">
         <v>24</v>
       </c>
-      <c r="AP2" s="208" t="s">
+      <c r="AP2" s="246" t="s">
         <v>25</v>
       </c>
-      <c r="AQ2" s="211" t="s">
+      <c r="AQ2" s="249" t="s">
         <v>26</v>
       </c>
-      <c r="AR2" s="212"/>
-      <c r="AS2" s="212"/>
-      <c r="AT2" s="213"/>
-      <c r="AU2" s="208" t="s">
+      <c r="AR2" s="250"/>
+      <c r="AS2" s="250"/>
+      <c r="AT2" s="251"/>
+      <c r="AU2" s="246" t="s">
         <v>27</v>
       </c>
-      <c r="AV2" s="208" t="s">
+      <c r="AV2" s="246" t="s">
         <v>28</v>
       </c>
       <c r="AW2" s="260" t="s">
@@ -22540,44 +22540,44 @@
       <c r="AZ2" s="262"/>
       <c r="BA2" s="262"/>
       <c r="BB2" s="263"/>
-      <c r="BC2" s="196" t="s">
+      <c r="BC2" s="236" t="s">
         <v>31</v>
       </c>
-      <c r="BD2" s="196" t="s">
+      <c r="BD2" s="236" t="s">
         <v>32</v>
       </c>
-      <c r="BE2" s="196" t="s">
+      <c r="BE2" s="236" t="s">
         <v>33</v>
       </c>
-      <c r="BF2" s="196" t="s">
+      <c r="BF2" s="236" t="s">
         <v>34</v>
       </c>
-      <c r="BG2" s="270" t="s">
+      <c r="BG2" s="267" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:59" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="239"/>
-      <c r="B3" s="239"/>
-      <c r="C3" s="239"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="268"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="251"/>
-      <c r="J3" s="251"/>
-      <c r="K3" s="251"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="234"/>
-      <c r="P3" s="235"/>
-      <c r="Q3" s="235"/>
-      <c r="R3" s="235"/>
-      <c r="S3" s="218"/>
-      <c r="T3" s="220"/>
-      <c r="U3" s="220"/>
+      <c r="A3" s="191"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="271"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="187"/>
+      <c r="Q3" s="187"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="210"/>
+      <c r="T3" s="212"/>
+      <c r="U3" s="212"/>
       <c r="V3" s="54">
         <v>0.16</v>
       </c>
@@ -22619,13 +22619,13 @@
       <c r="AI3" s="56">
         <v>0.1</v>
       </c>
-      <c r="AJ3" s="229"/>
-      <c r="AK3" s="230"/>
-      <c r="AL3" s="230"/>
-      <c r="AM3" s="230"/>
-      <c r="AN3" s="231"/>
-      <c r="AO3" s="206"/>
-      <c r="AP3" s="209"/>
+      <c r="AJ3" s="221"/>
+      <c r="AK3" s="222"/>
+      <c r="AL3" s="222"/>
+      <c r="AM3" s="222"/>
+      <c r="AN3" s="223"/>
+      <c r="AO3" s="202"/>
+      <c r="AP3" s="247"/>
       <c r="AQ3" s="59">
         <v>0.08</v>
       </c>
@@ -22638,35 +22638,35 @@
       <c r="AT3" s="60">
         <v>0.05</v>
       </c>
-      <c r="AU3" s="209"/>
-      <c r="AV3" s="209"/>
-      <c r="AW3" s="209"/>
+      <c r="AU3" s="247"/>
+      <c r="AV3" s="247"/>
+      <c r="AW3" s="247"/>
       <c r="AX3" s="264"/>
       <c r="AY3" s="265"/>
       <c r="AZ3" s="265"/>
       <c r="BA3" s="265"/>
       <c r="BB3" s="266"/>
-      <c r="BC3" s="197"/>
-      <c r="BD3" s="197"/>
-      <c r="BE3" s="197"/>
-      <c r="BF3" s="197"/>
-      <c r="BG3" s="271"/>
+      <c r="BC3" s="237"/>
+      <c r="BD3" s="237"/>
+      <c r="BE3" s="237"/>
+      <c r="BF3" s="237"/>
+      <c r="BG3" s="268"/>
     </row>
     <row r="4" spans="1:59" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="239"/>
-      <c r="B4" s="239"/>
-      <c r="C4" s="239"/>
-      <c r="D4" s="242"/>
-      <c r="E4" s="245"/>
-      <c r="F4" s="269"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="251"/>
-      <c r="J4" s="251"/>
-      <c r="K4" s="251"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="207"/>
-      <c r="N4" s="207"/>
+      <c r="A4" s="191"/>
+      <c r="B4" s="191"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="197"/>
+      <c r="F4" s="272"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="205"/>
+      <c r="K4" s="205"/>
+      <c r="L4" s="203"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="203"/>
       <c r="O4" s="53" t="s">
         <v>38</v>
       </c>
@@ -22679,9 +22679,9 @@
       <c r="R4" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="218"/>
-      <c r="T4" s="221"/>
-      <c r="U4" s="221"/>
+      <c r="S4" s="210"/>
+      <c r="T4" s="213"/>
+      <c r="U4" s="213"/>
       <c r="V4" s="56" t="s">
         <v>42</v>
       </c>
@@ -22737,8 +22737,8 @@
       <c r="AN4" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="AO4" s="207"/>
-      <c r="AP4" s="210"/>
+      <c r="AO4" s="203"/>
+      <c r="AP4" s="248"/>
       <c r="AQ4" s="62" t="s">
         <v>42</v>
       </c>
@@ -22751,9 +22751,9 @@
       <c r="AT4" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="AU4" s="210"/>
-      <c r="AV4" s="210"/>
-      <c r="AW4" s="210"/>
+      <c r="AU4" s="248"/>
+      <c r="AV4" s="248"/>
+      <c r="AW4" s="248"/>
       <c r="AX4" s="61" t="s">
         <v>50</v>
       </c>
@@ -22769,11 +22769,11 @@
       <c r="BB4" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="BC4" s="198"/>
-      <c r="BD4" s="198"/>
-      <c r="BE4" s="198"/>
-      <c r="BF4" s="198"/>
-      <c r="BG4" s="272"/>
+      <c r="BC4" s="238"/>
+      <c r="BD4" s="238"/>
+      <c r="BE4" s="238"/>
+      <c r="BF4" s="238"/>
+      <c r="BG4" s="269"/>
     </row>
     <row r="5" spans="1:59" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="14">
@@ -26773,26 +26773,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="BF2:BF4"/>
-    <mergeCell ref="BG2:BG4"/>
-    <mergeCell ref="AJ2:AN3"/>
-    <mergeCell ref="AX2:BB3"/>
-    <mergeCell ref="O2:R3"/>
-    <mergeCell ref="AV2:AV4"/>
-    <mergeCell ref="AW2:AW4"/>
-    <mergeCell ref="BC2:BC4"/>
-    <mergeCell ref="BD2:BD4"/>
-    <mergeCell ref="BE2:BE4"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="AF2:AF4"/>
-    <mergeCell ref="AO2:AO4"/>
-    <mergeCell ref="AP2:AP4"/>
-    <mergeCell ref="AU2:AU4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="T2:T4"/>
     <mergeCell ref="A1:BG1"/>
     <mergeCell ref="V2:AA2"/>
     <mergeCell ref="AB2:AE2"/>
@@ -26809,6 +26789,26 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="T2:T4"/>
+    <mergeCell ref="BF2:BF4"/>
+    <mergeCell ref="BG2:BG4"/>
+    <mergeCell ref="AJ2:AN3"/>
+    <mergeCell ref="AX2:BB3"/>
+    <mergeCell ref="O2:R3"/>
+    <mergeCell ref="AV2:AV4"/>
+    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="BC2:BC4"/>
+    <mergeCell ref="BD2:BD4"/>
+    <mergeCell ref="BE2:BE4"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="AF2:AF4"/>
+    <mergeCell ref="AO2:AO4"/>
+    <mergeCell ref="AP2:AP4"/>
+    <mergeCell ref="AU2:AU4"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="1">
@@ -30167,7 +30167,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -30591,7 +30591,7 @@
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28">
-        <v>490.5</v>
+        <v>0</v>
       </c>
       <c r="H12" s="28">
         <v>4509.5</v>
@@ -30620,7 +30620,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="175">
-        <v>3726.1</v>
+        <v>4216.6000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -30937,7 +30937,7 @@
       <pane xSplit="6" ySplit="4" topLeftCell="AS5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AX17" sqref="AX17"/>
+      <selection pane="bottomRight" activeCell="BP10" sqref="BP10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
@@ -30990,9 +30990,9 @@
     <col min="55" max="55" width="6.6640625" style="42" customWidth="1" outlineLevel="1"/>
     <col min="56" max="56" width="10.5546875" style="42" customWidth="1" outlineLevel="1"/>
     <col min="57" max="57" width="6.21875" style="42" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="58" width="11.77734375" style="42" customWidth="1" outlineLevel="1"/>
-    <col min="59" max="59" width="13" style="42" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="60" width="9.44140625" style="42" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="11.77734375" style="42" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="59" max="59" width="13" style="42" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="60" max="60" width="9.44140625" style="42" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="61" max="62" width="11.77734375" style="46" customWidth="1"/>
     <col min="63" max="63" width="10.109375" style="46" customWidth="1"/>
     <col min="64" max="64" width="0" style="41" hidden="1" customWidth="1"/>
@@ -31001,146 +31001,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="188" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="237"/>
-      <c r="M1" s="237"/>
-      <c r="N1" s="237"/>
-      <c r="O1" s="237"/>
-      <c r="P1" s="237"/>
-      <c r="Q1" s="237"/>
-      <c r="R1" s="237"/>
-      <c r="S1" s="237"/>
-      <c r="T1" s="237"/>
-      <c r="U1" s="237"/>
-      <c r="V1" s="237"/>
-      <c r="W1" s="237"/>
-      <c r="X1" s="237"/>
-      <c r="Y1" s="237"/>
-      <c r="Z1" s="237"/>
-      <c r="AA1" s="237"/>
-      <c r="AB1" s="237"/>
-      <c r="AC1" s="237"/>
-      <c r="AD1" s="237"/>
-      <c r="AE1" s="237"/>
-      <c r="AF1" s="237"/>
-      <c r="AG1" s="237"/>
-      <c r="AH1" s="237"/>
-      <c r="AI1" s="237"/>
-      <c r="AJ1" s="237"/>
-      <c r="AK1" s="237"/>
-      <c r="AL1" s="237"/>
-      <c r="AM1" s="237"/>
-      <c r="AN1" s="237"/>
-      <c r="AO1" s="237"/>
-      <c r="AP1" s="237"/>
-      <c r="AQ1" s="237"/>
-      <c r="AR1" s="237"/>
-      <c r="AS1" s="237"/>
-      <c r="AT1" s="237"/>
-      <c r="AU1" s="237"/>
-      <c r="AV1" s="237"/>
-      <c r="AW1" s="237"/>
-      <c r="AX1" s="237"/>
-      <c r="AY1" s="237"/>
-      <c r="AZ1" s="237"/>
-      <c r="BA1" s="237"/>
-      <c r="BB1" s="237"/>
-      <c r="BC1" s="237"/>
-      <c r="BD1" s="237"/>
-      <c r="BE1" s="237"/>
-      <c r="BF1" s="237"/>
-      <c r="BG1" s="237"/>
-      <c r="BH1" s="237"/>
-      <c r="BI1" s="237"/>
-      <c r="BJ1" s="237"/>
-      <c r="BK1" s="237"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="M1" s="189"/>
+      <c r="N1" s="189"/>
+      <c r="O1" s="189"/>
+      <c r="P1" s="189"/>
+      <c r="Q1" s="189"/>
+      <c r="R1" s="189"/>
+      <c r="S1" s="189"/>
+      <c r="T1" s="189"/>
+      <c r="U1" s="189"/>
+      <c r="V1" s="189"/>
+      <c r="W1" s="189"/>
+      <c r="X1" s="189"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="189"/>
+      <c r="AA1" s="189"/>
+      <c r="AB1" s="189"/>
+      <c r="AC1" s="189"/>
+      <c r="AD1" s="189"/>
+      <c r="AE1" s="189"/>
+      <c r="AF1" s="189"/>
+      <c r="AG1" s="189"/>
+      <c r="AH1" s="189"/>
+      <c r="AI1" s="189"/>
+      <c r="AJ1" s="189"/>
+      <c r="AK1" s="189"/>
+      <c r="AL1" s="189"/>
+      <c r="AM1" s="189"/>
+      <c r="AN1" s="189"/>
+      <c r="AO1" s="189"/>
+      <c r="AP1" s="189"/>
+      <c r="AQ1" s="189"/>
+      <c r="AR1" s="189"/>
+      <c r="AS1" s="189"/>
+      <c r="AT1" s="189"/>
+      <c r="AU1" s="189"/>
+      <c r="AV1" s="189"/>
+      <c r="AW1" s="189"/>
+      <c r="AX1" s="189"/>
+      <c r="AY1" s="189"/>
+      <c r="AZ1" s="189"/>
+      <c r="BA1" s="189"/>
+      <c r="BB1" s="189"/>
+      <c r="BC1" s="189"/>
+      <c r="BD1" s="189"/>
+      <c r="BE1" s="189"/>
+      <c r="BF1" s="189"/>
+      <c r="BG1" s="189"/>
+      <c r="BH1" s="189"/>
+      <c r="BI1" s="189"/>
+      <c r="BJ1" s="189"/>
+      <c r="BK1" s="189"/>
     </row>
     <row r="2" spans="1:65" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="238" t="s">
+      <c r="A2" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="239" t="s">
+      <c r="B2" s="191" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="239" t="s">
+      <c r="C2" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="240" t="s">
+      <c r="D2" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="243" t="s">
+      <c r="E2" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="246" t="s">
+      <c r="F2" s="198" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="249" t="s">
+      <c r="G2" s="201" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="250" t="s">
+      <c r="H2" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="251" t="s">
+      <c r="I2" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="251" t="s">
+      <c r="J2" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="251" t="s">
+      <c r="K2" s="205" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="250" t="s">
+      <c r="L2" s="204" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="250" t="s">
+      <c r="M2" s="204" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="250" t="s">
+      <c r="N2" s="204" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="232" t="s">
+      <c r="O2" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="233"/>
-      <c r="Q2" s="233"/>
-      <c r="R2" s="233"/>
-      <c r="S2" s="218" t="s">
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="219" t="s">
+      <c r="T2" s="211" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="219" t="s">
+      <c r="U2" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="222" t="s">
+      <c r="V2" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="222"/>
-      <c r="X2" s="222"/>
-      <c r="Y2" s="222"/>
-      <c r="Z2" s="222"/>
-      <c r="AA2" s="222"/>
-      <c r="AB2" s="222"/>
-      <c r="AC2" s="222"/>
-      <c r="AD2" s="222"/>
-      <c r="AE2" s="223" t="s">
+      <c r="W2" s="214"/>
+      <c r="X2" s="214"/>
+      <c r="Y2" s="214"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="214"/>
+      <c r="AB2" s="214"/>
+      <c r="AC2" s="214"/>
+      <c r="AD2" s="214"/>
+      <c r="AE2" s="215" t="s">
         <v>131</v>
       </c>
-      <c r="AF2" s="224"/>
-      <c r="AG2" s="225"/>
+      <c r="AF2" s="216"/>
+      <c r="AG2" s="217"/>
       <c r="AH2" s="177" t="s">
         <v>175</v>
       </c>
@@ -31150,107 +31150,107 @@
       <c r="AL2" s="177" t="s">
         <v>110</v>
       </c>
-      <c r="AM2" s="226" t="s">
+      <c r="AM2" s="218" t="s">
         <v>23</v>
       </c>
-      <c r="AN2" s="227"/>
-      <c r="AO2" s="227"/>
-      <c r="AP2" s="227"/>
-      <c r="AQ2" s="228"/>
-      <c r="AR2" s="205" t="s">
+      <c r="AN2" s="219"/>
+      <c r="AO2" s="219"/>
+      <c r="AP2" s="219"/>
+      <c r="AQ2" s="220"/>
+      <c r="AR2" s="245" t="s">
         <v>24</v>
       </c>
-      <c r="AS2" s="208" t="s">
+      <c r="AS2" s="246" t="s">
         <v>25</v>
       </c>
-      <c r="AT2" s="211" t="s">
+      <c r="AT2" s="249" t="s">
         <v>26</v>
       </c>
-      <c r="AU2" s="212"/>
-      <c r="AV2" s="212"/>
-      <c r="AW2" s="213"/>
-      <c r="AX2" s="214" t="s">
+      <c r="AU2" s="250"/>
+      <c r="AV2" s="250"/>
+      <c r="AW2" s="251"/>
+      <c r="AX2" s="206" t="s">
         <v>153</v>
       </c>
-      <c r="AY2" s="214" t="s">
+      <c r="AY2" s="206" t="s">
         <v>154</v>
       </c>
-      <c r="AZ2" s="217" t="s">
+      <c r="AZ2" s="209" t="s">
         <v>29</v>
       </c>
-      <c r="BA2" s="190" t="s">
+      <c r="BA2" s="230" t="s">
         <v>155</v>
       </c>
-      <c r="BB2" s="191"/>
-      <c r="BC2" s="191"/>
-      <c r="BD2" s="191"/>
-      <c r="BE2" s="192"/>
-      <c r="BF2" s="196" t="s">
+      <c r="BB2" s="231"/>
+      <c r="BC2" s="231"/>
+      <c r="BD2" s="231"/>
+      <c r="BE2" s="232"/>
+      <c r="BF2" s="236" t="s">
         <v>31</v>
       </c>
-      <c r="BG2" s="196" t="s">
+      <c r="BG2" s="236" t="s">
         <v>32</v>
       </c>
-      <c r="BH2" s="196" t="s">
+      <c r="BH2" s="236" t="s">
         <v>33</v>
       </c>
-      <c r="BI2" s="199" t="s">
+      <c r="BI2" s="239" t="s">
         <v>34</v>
       </c>
       <c r="BJ2" s="254" t="s">
         <v>176</v>
       </c>
-      <c r="BK2" s="202" t="s">
+      <c r="BK2" s="242" t="s">
         <v>35</v>
       </c>
-      <c r="BL2" s="184" t="s">
+      <c r="BL2" s="224" t="s">
         <v>118</v>
       </c>
-      <c r="BM2" s="184" t="s">
+      <c r="BM2" s="224" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:65" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="238"/>
-      <c r="B3" s="239"/>
-      <c r="C3" s="239"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="251"/>
-      <c r="J3" s="251"/>
-      <c r="K3" s="251"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="234"/>
-      <c r="P3" s="235"/>
-      <c r="Q3" s="235"/>
-      <c r="R3" s="235"/>
-      <c r="S3" s="218"/>
-      <c r="T3" s="220"/>
-      <c r="U3" s="220"/>
-      <c r="V3" s="187" t="s">
+      <c r="A3" s="190"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="187"/>
+      <c r="Q3" s="187"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="210"/>
+      <c r="T3" s="212"/>
+      <c r="U3" s="212"/>
+      <c r="V3" s="227" t="s">
         <v>171</v>
       </c>
       <c r="W3" s="54">
         <v>0.16</v>
       </c>
-      <c r="X3" s="188" t="s">
+      <c r="X3" s="228" t="s">
         <v>172</v>
       </c>
       <c r="Y3" s="54">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="Z3" s="188" t="s">
+      <c r="Z3" s="228" t="s">
         <v>173</v>
       </c>
       <c r="AA3" s="54">
         <v>2E-3</v>
       </c>
-      <c r="AB3" s="189" t="s">
+      <c r="AB3" s="229" t="s">
         <v>174</v>
       </c>
       <c r="AC3" s="54">
@@ -31282,13 +31282,13 @@
       <c r="AL3" s="173">
         <v>0.1</v>
       </c>
-      <c r="AM3" s="229"/>
-      <c r="AN3" s="230"/>
-      <c r="AO3" s="230"/>
-      <c r="AP3" s="230"/>
-      <c r="AQ3" s="231"/>
-      <c r="AR3" s="206"/>
-      <c r="AS3" s="209"/>
+      <c r="AM3" s="221"/>
+      <c r="AN3" s="222"/>
+      <c r="AO3" s="222"/>
+      <c r="AP3" s="222"/>
+      <c r="AQ3" s="223"/>
+      <c r="AR3" s="202"/>
+      <c r="AS3" s="247"/>
       <c r="AT3" s="59">
         <v>0.08</v>
       </c>
@@ -31301,38 +31301,38 @@
       <c r="AW3" s="60">
         <v>0.05</v>
       </c>
-      <c r="AX3" s="215"/>
-      <c r="AY3" s="215"/>
-      <c r="AZ3" s="215"/>
-      <c r="BA3" s="193"/>
-      <c r="BB3" s="194"/>
-      <c r="BC3" s="194"/>
-      <c r="BD3" s="194"/>
-      <c r="BE3" s="195"/>
-      <c r="BF3" s="197"/>
-      <c r="BG3" s="197"/>
-      <c r="BH3" s="197"/>
-      <c r="BI3" s="200"/>
+      <c r="AX3" s="207"/>
+      <c r="AY3" s="207"/>
+      <c r="AZ3" s="207"/>
+      <c r="BA3" s="233"/>
+      <c r="BB3" s="234"/>
+      <c r="BC3" s="234"/>
+      <c r="BD3" s="234"/>
+      <c r="BE3" s="235"/>
+      <c r="BF3" s="237"/>
+      <c r="BG3" s="237"/>
+      <c r="BH3" s="237"/>
+      <c r="BI3" s="240"/>
       <c r="BJ3" s="255"/>
-      <c r="BK3" s="203"/>
-      <c r="BL3" s="185"/>
-      <c r="BM3" s="185"/>
+      <c r="BK3" s="243"/>
+      <c r="BL3" s="225"/>
+      <c r="BM3" s="225"/>
     </row>
     <row r="4" spans="1:65" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="238"/>
-      <c r="B4" s="239"/>
-      <c r="C4" s="239"/>
-      <c r="D4" s="242"/>
-      <c r="E4" s="245"/>
-      <c r="F4" s="248"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="251"/>
-      <c r="J4" s="251"/>
-      <c r="K4" s="251"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="207"/>
-      <c r="N4" s="207"/>
+      <c r="A4" s="190"/>
+      <c r="B4" s="191"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="197"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="205"/>
+      <c r="K4" s="205"/>
+      <c r="L4" s="203"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="203"/>
       <c r="O4" s="53" t="s">
         <v>38</v>
       </c>
@@ -31345,22 +31345,22 @@
       <c r="R4" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="218"/>
-      <c r="T4" s="221"/>
-      <c r="U4" s="221"/>
-      <c r="V4" s="187"/>
+      <c r="S4" s="210"/>
+      <c r="T4" s="213"/>
+      <c r="U4" s="213"/>
+      <c r="V4" s="227"/>
       <c r="W4" s="173" t="s">
         <v>42</v>
       </c>
-      <c r="X4" s="188"/>
+      <c r="X4" s="228"/>
       <c r="Y4" s="173" t="s">
         <v>43</v>
       </c>
-      <c r="Z4" s="188"/>
+      <c r="Z4" s="228"/>
       <c r="AA4" s="173" t="s">
         <v>44</v>
       </c>
-      <c r="AB4" s="189"/>
+      <c r="AB4" s="229"/>
       <c r="AC4" s="178" t="s">
         <v>170</v>
       </c>
@@ -31404,8 +31404,8 @@
       <c r="AQ4" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="AR4" s="207"/>
-      <c r="AS4" s="210"/>
+      <c r="AR4" s="203"/>
+      <c r="AS4" s="248"/>
       <c r="AT4" s="62" t="s">
         <v>42</v>
       </c>
@@ -31418,9 +31418,9 @@
       <c r="AW4" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="AX4" s="216"/>
-      <c r="AY4" s="216"/>
-      <c r="AZ4" s="216"/>
+      <c r="AX4" s="208"/>
+      <c r="AY4" s="208"/>
+      <c r="AZ4" s="208"/>
       <c r="BA4" s="171" t="s">
         <v>156</v>
       </c>
@@ -31436,14 +31436,14 @@
       <c r="BE4" s="172" t="s">
         <v>160</v>
       </c>
-      <c r="BF4" s="198"/>
-      <c r="BG4" s="198"/>
-      <c r="BH4" s="198"/>
-      <c r="BI4" s="201"/>
+      <c r="BF4" s="238"/>
+      <c r="BG4" s="238"/>
+      <c r="BH4" s="238"/>
+      <c r="BI4" s="241"/>
       <c r="BJ4" s="256"/>
-      <c r="BK4" s="204"/>
-      <c r="BL4" s="186"/>
-      <c r="BM4" s="186"/>
+      <c r="BK4" s="244"/>
+      <c r="BL4" s="226"/>
+      <c r="BM4" s="226"/>
     </row>
     <row r="5" spans="1:65" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="77">
@@ -32155,11 +32155,11 @@
       <c r="Q8" s="36"/>
       <c r="R8" s="36"/>
       <c r="S8" s="36">
-        <v>490.5</v>
+        <v>0</v>
       </c>
       <c r="T8" s="36">
         <f t="shared" ref="T8" si="27">N8-R8-S8</f>
-        <v>4509.5</v>
+        <v>5000</v>
       </c>
       <c r="U8" s="26">
         <v>5100</v>
@@ -32246,7 +32246,7 @@
       </c>
       <c r="AS8" s="63">
         <f t="shared" si="1"/>
-        <v>4509.5</v>
+        <v>5000</v>
       </c>
       <c r="AT8" s="63">
         <f t="shared" si="2"/>
@@ -32266,7 +32266,7 @@
       </c>
       <c r="AX8" s="63">
         <f>$AS8+VLOOKUP($F8,'6月工资表'!$F$5:$BI$23,42,FALSE)</f>
-        <v>50038</v>
+        <v>50528.5</v>
       </c>
       <c r="AY8" s="63">
         <f>$AR8+VLOOKUP($F8,'6月工资表'!$F$5:$BI$23,43,FALSE)</f>
@@ -32298,7 +32298,7 @@
       </c>
       <c r="BF8" s="63">
         <f t="shared" si="6"/>
-        <v>-11469.44</v>
+        <v>-10978.94</v>
       </c>
       <c r="BG8" s="63">
         <f>ROUND(IF(BF8="","",MAX(0,BF8*{3;10;20;25;30;35;45}%-{0;2520;16920;31920;52920;85920;181920})),2)</f>
@@ -32315,7 +32315,7 @@
       <c r="BJ8" s="9"/>
       <c r="BK8" s="183">
         <f t="shared" ref="BK8" si="28">IF(AS8="","",AS8-AT8-AU8-AV8-AW8-BI8+BJ8)</f>
-        <v>3726.1000000000004</v>
+        <v>4216.6000000000004</v>
       </c>
       <c r="BL8" s="65"/>
       <c r="BM8" s="65"/>
@@ -33695,7 +33695,7 @@
       </c>
       <c r="T15" s="42">
         <f>SUM(T5:T14)</f>
-        <v>85431.2</v>
+        <v>85921.7</v>
       </c>
       <c r="W15" s="42">
         <f>SUM(W5:W14)</f>
@@ -33748,7 +33748,7 @@
       </c>
       <c r="AS15" s="42">
         <f t="shared" ref="AS15:BM15" si="32">SUM(AS5:AS14)</f>
-        <v>85431.2</v>
+        <v>85921.7</v>
       </c>
       <c r="AT15" s="42">
         <f t="shared" si="32"/>
@@ -33768,7 +33768,7 @@
       </c>
       <c r="AX15" s="42">
         <f t="shared" si="32"/>
-        <v>760382.01</v>
+        <v>760872.51</v>
       </c>
       <c r="AY15" s="42">
         <f t="shared" si="32"/>
@@ -33800,7 +33800,7 @@
       </c>
       <c r="BF15" s="42">
         <f t="shared" si="32"/>
-        <v>217245.96000000002</v>
+        <v>217736.46000000002</v>
       </c>
       <c r="BG15" s="42">
         <f t="shared" si="32"/>
@@ -33820,7 +33820,7 @@
       </c>
       <c r="BK15" s="46">
         <f>SUM(BK5:BK14)</f>
-        <v>116736.59999999999</v>
+        <v>117227.09999999999</v>
       </c>
       <c r="BL15" s="154"/>
       <c r="BM15" s="42">
@@ -33861,6 +33861,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="O2:R3"/>
+    <mergeCell ref="BK2:BK4"/>
+    <mergeCell ref="BL2:BL4"/>
+    <mergeCell ref="AX2:AX4"/>
+    <mergeCell ref="AR2:AR4"/>
+    <mergeCell ref="AS2:AS4"/>
+    <mergeCell ref="AT2:AW2"/>
+    <mergeCell ref="BM2:BM4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="V2:AD2"/>
+    <mergeCell ref="AY2:AY4"/>
+    <mergeCell ref="AZ2:AZ4"/>
+    <mergeCell ref="BA2:BE3"/>
+    <mergeCell ref="BF2:BF4"/>
+    <mergeCell ref="BG2:BG4"/>
+    <mergeCell ref="BH2:BH4"/>
+    <mergeCell ref="AM2:AQ3"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="BJ2:BJ4"/>
+    <mergeCell ref="BI2:BI4"/>
     <mergeCell ref="A1:BK1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
@@ -33877,31 +33902,6 @@
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="L2:L4"/>
-    <mergeCell ref="BM2:BM4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="V2:AD2"/>
-    <mergeCell ref="AY2:AY4"/>
-    <mergeCell ref="AZ2:AZ4"/>
-    <mergeCell ref="BA2:BE3"/>
-    <mergeCell ref="BF2:BF4"/>
-    <mergeCell ref="BG2:BG4"/>
-    <mergeCell ref="BH2:BH4"/>
-    <mergeCell ref="AM2:AQ3"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="BJ2:BJ4"/>
-    <mergeCell ref="BI2:BI4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="O2:R3"/>
-    <mergeCell ref="BK2:BK4"/>
-    <mergeCell ref="BL2:BL4"/>
-    <mergeCell ref="AX2:AX4"/>
-    <mergeCell ref="AR2:AR4"/>
-    <mergeCell ref="AS2:AS4"/>
-    <mergeCell ref="AT2:AW2"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E14" xr:uid="{E0FACE11-4004-4A59-A3AE-5C17C042D7F3}">
@@ -33919,7 +33919,7 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -34343,7 +34343,7 @@
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28">
-        <v>490.5</v>
+        <v>0</v>
       </c>
       <c r="H12" s="28">
         <v>4509.5</v>
@@ -34372,7 +34372,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="175">
-        <v>3726.1</v>
+        <v>4216.6000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -35214,227 +35214,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="188" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="237"/>
-      <c r="M1" s="237"/>
-      <c r="N1" s="237"/>
-      <c r="O1" s="237"/>
-      <c r="P1" s="237"/>
-      <c r="Q1" s="237"/>
-      <c r="R1" s="237"/>
-      <c r="S1" s="237"/>
-      <c r="T1" s="237"/>
-      <c r="U1" s="237"/>
-      <c r="V1" s="237"/>
-      <c r="W1" s="237"/>
-      <c r="X1" s="237"/>
-      <c r="Y1" s="237"/>
-      <c r="Z1" s="237"/>
-      <c r="AA1" s="237"/>
-      <c r="AB1" s="237"/>
-      <c r="AC1" s="237"/>
-      <c r="AD1" s="237"/>
-      <c r="AE1" s="237"/>
-      <c r="AF1" s="237"/>
-      <c r="AG1" s="237"/>
-      <c r="AH1" s="237"/>
-      <c r="AI1" s="237"/>
-      <c r="AJ1" s="237"/>
-      <c r="AK1" s="237"/>
-      <c r="AL1" s="237"/>
-      <c r="AM1" s="237"/>
-      <c r="AN1" s="237"/>
-      <c r="AO1" s="237"/>
-      <c r="AP1" s="237"/>
-      <c r="AQ1" s="237"/>
-      <c r="AR1" s="237"/>
-      <c r="AS1" s="237"/>
-      <c r="AT1" s="237"/>
-      <c r="AU1" s="237"/>
-      <c r="AV1" s="237"/>
-      <c r="AW1" s="237"/>
-      <c r="AX1" s="237"/>
-      <c r="AY1" s="237"/>
-      <c r="AZ1" s="237"/>
-      <c r="BA1" s="237"/>
-      <c r="BB1" s="237"/>
-      <c r="BC1" s="237"/>
-      <c r="BD1" s="237"/>
-      <c r="BE1" s="237"/>
-      <c r="BF1" s="237"/>
-      <c r="BG1" s="237"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="M1" s="189"/>
+      <c r="N1" s="189"/>
+      <c r="O1" s="189"/>
+      <c r="P1" s="189"/>
+      <c r="Q1" s="189"/>
+      <c r="R1" s="189"/>
+      <c r="S1" s="189"/>
+      <c r="T1" s="189"/>
+      <c r="U1" s="189"/>
+      <c r="V1" s="189"/>
+      <c r="W1" s="189"/>
+      <c r="X1" s="189"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="189"/>
+      <c r="AA1" s="189"/>
+      <c r="AB1" s="189"/>
+      <c r="AC1" s="189"/>
+      <c r="AD1" s="189"/>
+      <c r="AE1" s="189"/>
+      <c r="AF1" s="189"/>
+      <c r="AG1" s="189"/>
+      <c r="AH1" s="189"/>
+      <c r="AI1" s="189"/>
+      <c r="AJ1" s="189"/>
+      <c r="AK1" s="189"/>
+      <c r="AL1" s="189"/>
+      <c r="AM1" s="189"/>
+      <c r="AN1" s="189"/>
+      <c r="AO1" s="189"/>
+      <c r="AP1" s="189"/>
+      <c r="AQ1" s="189"/>
+      <c r="AR1" s="189"/>
+      <c r="AS1" s="189"/>
+      <c r="AT1" s="189"/>
+      <c r="AU1" s="189"/>
+      <c r="AV1" s="189"/>
+      <c r="AW1" s="189"/>
+      <c r="AX1" s="189"/>
+      <c r="AY1" s="189"/>
+      <c r="AZ1" s="189"/>
+      <c r="BA1" s="189"/>
+      <c r="BB1" s="189"/>
+      <c r="BC1" s="189"/>
+      <c r="BD1" s="189"/>
+      <c r="BE1" s="189"/>
+      <c r="BF1" s="189"/>
+      <c r="BG1" s="189"/>
     </row>
     <row r="2" spans="1:61" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="238" t="s">
+      <c r="A2" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="239" t="s">
+      <c r="B2" s="191" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="239" t="s">
+      <c r="C2" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="240" t="s">
+      <c r="D2" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="243" t="s">
+      <c r="E2" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="246" t="s">
+      <c r="F2" s="198" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="249" t="s">
+      <c r="G2" s="201" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="250" t="s">
+      <c r="H2" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="251" t="s">
+      <c r="I2" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="251" t="s">
+      <c r="J2" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="251" t="s">
+      <c r="K2" s="205" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="250" t="s">
+      <c r="L2" s="204" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="250" t="s">
+      <c r="M2" s="204" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="250" t="s">
+      <c r="N2" s="204" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="232" t="s">
+      <c r="O2" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="233"/>
-      <c r="Q2" s="233"/>
-      <c r="R2" s="233"/>
-      <c r="S2" s="218" t="s">
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="219" t="s">
+      <c r="T2" s="211" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="219" t="s">
+      <c r="U2" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="223" t="s">
+      <c r="V2" s="215" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="224"/>
-      <c r="X2" s="224"/>
-      <c r="Y2" s="224"/>
-      <c r="Z2" s="224"/>
-      <c r="AA2" s="225"/>
-      <c r="AB2" s="222" t="s">
+      <c r="W2" s="216"/>
+      <c r="X2" s="216"/>
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="216"/>
+      <c r="AA2" s="217"/>
+      <c r="AB2" s="214" t="s">
         <v>20</v>
       </c>
-      <c r="AC2" s="222"/>
-      <c r="AD2" s="222"/>
-      <c r="AE2" s="222"/>
+      <c r="AC2" s="214"/>
+      <c r="AD2" s="214"/>
+      <c r="AE2" s="214"/>
       <c r="AF2" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="AG2" s="223" t="s">
+      <c r="AG2" s="215" t="s">
         <v>22</v>
       </c>
-      <c r="AH2" s="224"/>
-      <c r="AI2" s="225"/>
-      <c r="AJ2" s="226" t="s">
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="217"/>
+      <c r="AJ2" s="218" t="s">
         <v>23</v>
       </c>
-      <c r="AK2" s="227"/>
-      <c r="AL2" s="227"/>
-      <c r="AM2" s="227"/>
-      <c r="AN2" s="228"/>
-      <c r="AO2" s="205" t="s">
+      <c r="AK2" s="219"/>
+      <c r="AL2" s="219"/>
+      <c r="AM2" s="219"/>
+      <c r="AN2" s="220"/>
+      <c r="AO2" s="245" t="s">
         <v>24</v>
       </c>
-      <c r="AP2" s="208" t="s">
+      <c r="AP2" s="246" t="s">
         <v>25</v>
       </c>
-      <c r="AQ2" s="211" t="s">
+      <c r="AQ2" s="249" t="s">
         <v>26</v>
       </c>
-      <c r="AR2" s="212"/>
-      <c r="AS2" s="212"/>
-      <c r="AT2" s="213"/>
-      <c r="AU2" s="214" t="s">
+      <c r="AR2" s="250"/>
+      <c r="AS2" s="250"/>
+      <c r="AT2" s="251"/>
+      <c r="AU2" s="206" t="s">
         <v>153</v>
       </c>
-      <c r="AV2" s="214" t="s">
+      <c r="AV2" s="206" t="s">
         <v>154</v>
       </c>
-      <c r="AW2" s="217" t="s">
+      <c r="AW2" s="209" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="190" t="s">
+      <c r="AX2" s="230" t="s">
         <v>155</v>
       </c>
-      <c r="AY2" s="191"/>
-      <c r="AZ2" s="191"/>
-      <c r="BA2" s="191"/>
-      <c r="BB2" s="192"/>
-      <c r="BC2" s="196" t="s">
+      <c r="AY2" s="231"/>
+      <c r="AZ2" s="231"/>
+      <c r="BA2" s="231"/>
+      <c r="BB2" s="232"/>
+      <c r="BC2" s="236" t="s">
         <v>31</v>
       </c>
-      <c r="BD2" s="196" t="s">
+      <c r="BD2" s="236" t="s">
         <v>32</v>
       </c>
-      <c r="BE2" s="196" t="s">
+      <c r="BE2" s="236" t="s">
         <v>33</v>
       </c>
-      <c r="BF2" s="199" t="s">
+      <c r="BF2" s="239" t="s">
         <v>34</v>
       </c>
-      <c r="BG2" s="202" t="s">
+      <c r="BG2" s="242" t="s">
         <v>35</v>
       </c>
-      <c r="BH2" s="184" t="s">
+      <c r="BH2" s="224" t="s">
         <v>118</v>
       </c>
-      <c r="BI2" s="184" t="s">
+      <c r="BI2" s="224" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:61" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="238"/>
-      <c r="B3" s="239"/>
-      <c r="C3" s="239"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="251"/>
-      <c r="J3" s="251"/>
-      <c r="K3" s="251"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="234"/>
-      <c r="P3" s="235"/>
-      <c r="Q3" s="235"/>
-      <c r="R3" s="235"/>
-      <c r="S3" s="218"/>
-      <c r="T3" s="220"/>
-      <c r="U3" s="220"/>
+      <c r="A3" s="190"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="187"/>
+      <c r="Q3" s="187"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="210"/>
+      <c r="T3" s="212"/>
+      <c r="U3" s="212"/>
       <c r="V3" s="54">
         <v>0.16</v>
       </c>
@@ -35476,13 +35476,13 @@
       <c r="AI3" s="163">
         <v>0.1</v>
       </c>
-      <c r="AJ3" s="229"/>
-      <c r="AK3" s="230"/>
-      <c r="AL3" s="230"/>
-      <c r="AM3" s="230"/>
-      <c r="AN3" s="231"/>
-      <c r="AO3" s="206"/>
-      <c r="AP3" s="209"/>
+      <c r="AJ3" s="221"/>
+      <c r="AK3" s="222"/>
+      <c r="AL3" s="222"/>
+      <c r="AM3" s="222"/>
+      <c r="AN3" s="223"/>
+      <c r="AO3" s="202"/>
+      <c r="AP3" s="247"/>
       <c r="AQ3" s="59">
         <v>0.08</v>
       </c>
@@ -35495,37 +35495,37 @@
       <c r="AT3" s="60">
         <v>0.05</v>
       </c>
-      <c r="AU3" s="215"/>
-      <c r="AV3" s="215"/>
-      <c r="AW3" s="215"/>
-      <c r="AX3" s="193"/>
-      <c r="AY3" s="194"/>
-      <c r="AZ3" s="194"/>
-      <c r="BA3" s="194"/>
-      <c r="BB3" s="195"/>
-      <c r="BC3" s="197"/>
-      <c r="BD3" s="197"/>
-      <c r="BE3" s="197"/>
-      <c r="BF3" s="200"/>
-      <c r="BG3" s="203"/>
-      <c r="BH3" s="185"/>
-      <c r="BI3" s="185"/>
+      <c r="AU3" s="207"/>
+      <c r="AV3" s="207"/>
+      <c r="AW3" s="207"/>
+      <c r="AX3" s="233"/>
+      <c r="AY3" s="234"/>
+      <c r="AZ3" s="234"/>
+      <c r="BA3" s="234"/>
+      <c r="BB3" s="235"/>
+      <c r="BC3" s="237"/>
+      <c r="BD3" s="237"/>
+      <c r="BE3" s="237"/>
+      <c r="BF3" s="240"/>
+      <c r="BG3" s="243"/>
+      <c r="BH3" s="225"/>
+      <c r="BI3" s="225"/>
     </row>
     <row r="4" spans="1:61" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="238"/>
-      <c r="B4" s="239"/>
-      <c r="C4" s="239"/>
-      <c r="D4" s="242"/>
-      <c r="E4" s="245"/>
-      <c r="F4" s="248"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="251"/>
-      <c r="J4" s="251"/>
-      <c r="K4" s="251"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="207"/>
-      <c r="N4" s="207"/>
+      <c r="A4" s="190"/>
+      <c r="B4" s="191"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="197"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="205"/>
+      <c r="K4" s="205"/>
+      <c r="L4" s="203"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="203"/>
       <c r="O4" s="53" t="s">
         <v>38</v>
       </c>
@@ -35538,9 +35538,9 @@
       <c r="R4" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="218"/>
-      <c r="T4" s="221"/>
-      <c r="U4" s="221"/>
+      <c r="S4" s="210"/>
+      <c r="T4" s="213"/>
+      <c r="U4" s="213"/>
       <c r="V4" s="163" t="s">
         <v>42</v>
       </c>
@@ -35596,8 +35596,8 @@
       <c r="AN4" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="AO4" s="207"/>
-      <c r="AP4" s="210"/>
+      <c r="AO4" s="203"/>
+      <c r="AP4" s="248"/>
       <c r="AQ4" s="62" t="s">
         <v>42</v>
       </c>
@@ -35610,9 +35610,9 @@
       <c r="AT4" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="AU4" s="216"/>
-      <c r="AV4" s="216"/>
-      <c r="AW4" s="216"/>
+      <c r="AU4" s="208"/>
+      <c r="AV4" s="208"/>
+      <c r="AW4" s="208"/>
       <c r="AX4" s="162" t="s">
         <v>156</v>
       </c>
@@ -35628,13 +35628,13 @@
       <c r="BB4" s="164" t="s">
         <v>160</v>
       </c>
-      <c r="BC4" s="198"/>
-      <c r="BD4" s="198"/>
-      <c r="BE4" s="198"/>
-      <c r="BF4" s="201"/>
-      <c r="BG4" s="204"/>
-      <c r="BH4" s="186"/>
-      <c r="BI4" s="186"/>
+      <c r="BC4" s="238"/>
+      <c r="BD4" s="238"/>
+      <c r="BE4" s="238"/>
+      <c r="BF4" s="241"/>
+      <c r="BG4" s="244"/>
+      <c r="BH4" s="226"/>
+      <c r="BI4" s="226"/>
     </row>
     <row r="5" spans="1:61" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="77">
@@ -38097,6 +38097,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="BF2:BF4"/>
+    <mergeCell ref="BG2:BG4"/>
+    <mergeCell ref="BH2:BH4"/>
+    <mergeCell ref="BI2:BI4"/>
+    <mergeCell ref="AV2:AV4"/>
+    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="AX2:BB3"/>
+    <mergeCell ref="BC2:BC4"/>
+    <mergeCell ref="BD2:BD4"/>
+    <mergeCell ref="BE2:BE4"/>
+    <mergeCell ref="AU2:AU4"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="T2:T4"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AF4"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AN3"/>
+    <mergeCell ref="AO2:AO4"/>
+    <mergeCell ref="AP2:AP4"/>
+    <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="O2:R3"/>
     <mergeCell ref="A1:BG1"/>
     <mergeCell ref="A2:A4"/>
@@ -38113,28 +38135,6 @@
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
-    <mergeCell ref="AU2:AU4"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="T2:T4"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AF4"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AJ2:AN3"/>
-    <mergeCell ref="AO2:AO4"/>
-    <mergeCell ref="AP2:AP4"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="BF2:BF4"/>
-    <mergeCell ref="BG2:BG4"/>
-    <mergeCell ref="BH2:BH4"/>
-    <mergeCell ref="BI2:BI4"/>
-    <mergeCell ref="AV2:AV4"/>
-    <mergeCell ref="AW2:AW4"/>
-    <mergeCell ref="AX2:BB3"/>
-    <mergeCell ref="BC2:BC4"/>
-    <mergeCell ref="BD2:BD4"/>
-    <mergeCell ref="BE2:BE4"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -39527,227 +39527,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="188" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="237"/>
-      <c r="M1" s="237"/>
-      <c r="N1" s="237"/>
-      <c r="O1" s="237"/>
-      <c r="P1" s="237"/>
-      <c r="Q1" s="237"/>
-      <c r="R1" s="237"/>
-      <c r="S1" s="237"/>
-      <c r="T1" s="237"/>
-      <c r="U1" s="237"/>
-      <c r="V1" s="237"/>
-      <c r="W1" s="237"/>
-      <c r="X1" s="237"/>
-      <c r="Y1" s="237"/>
-      <c r="Z1" s="237"/>
-      <c r="AA1" s="237"/>
-      <c r="AB1" s="237"/>
-      <c r="AC1" s="237"/>
-      <c r="AD1" s="237"/>
-      <c r="AE1" s="237"/>
-      <c r="AF1" s="237"/>
-      <c r="AG1" s="237"/>
-      <c r="AH1" s="237"/>
-      <c r="AI1" s="237"/>
-      <c r="AJ1" s="237"/>
-      <c r="AK1" s="237"/>
-      <c r="AL1" s="237"/>
-      <c r="AM1" s="237"/>
-      <c r="AN1" s="237"/>
-      <c r="AO1" s="237"/>
-      <c r="AP1" s="237"/>
-      <c r="AQ1" s="237"/>
-      <c r="AR1" s="237"/>
-      <c r="AS1" s="237"/>
-      <c r="AT1" s="237"/>
-      <c r="AU1" s="237"/>
-      <c r="AV1" s="237"/>
-      <c r="AW1" s="237"/>
-      <c r="AX1" s="237"/>
-      <c r="AY1" s="237"/>
-      <c r="AZ1" s="237"/>
-      <c r="BA1" s="237"/>
-      <c r="BB1" s="237"/>
-      <c r="BC1" s="237"/>
-      <c r="BD1" s="237"/>
-      <c r="BE1" s="237"/>
-      <c r="BF1" s="237"/>
-      <c r="BG1" s="237"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="M1" s="189"/>
+      <c r="N1" s="189"/>
+      <c r="O1" s="189"/>
+      <c r="P1" s="189"/>
+      <c r="Q1" s="189"/>
+      <c r="R1" s="189"/>
+      <c r="S1" s="189"/>
+      <c r="T1" s="189"/>
+      <c r="U1" s="189"/>
+      <c r="V1" s="189"/>
+      <c r="W1" s="189"/>
+      <c r="X1" s="189"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="189"/>
+      <c r="AA1" s="189"/>
+      <c r="AB1" s="189"/>
+      <c r="AC1" s="189"/>
+      <c r="AD1" s="189"/>
+      <c r="AE1" s="189"/>
+      <c r="AF1" s="189"/>
+      <c r="AG1" s="189"/>
+      <c r="AH1" s="189"/>
+      <c r="AI1" s="189"/>
+      <c r="AJ1" s="189"/>
+      <c r="AK1" s="189"/>
+      <c r="AL1" s="189"/>
+      <c r="AM1" s="189"/>
+      <c r="AN1" s="189"/>
+      <c r="AO1" s="189"/>
+      <c r="AP1" s="189"/>
+      <c r="AQ1" s="189"/>
+      <c r="AR1" s="189"/>
+      <c r="AS1" s="189"/>
+      <c r="AT1" s="189"/>
+      <c r="AU1" s="189"/>
+      <c r="AV1" s="189"/>
+      <c r="AW1" s="189"/>
+      <c r="AX1" s="189"/>
+      <c r="AY1" s="189"/>
+      <c r="AZ1" s="189"/>
+      <c r="BA1" s="189"/>
+      <c r="BB1" s="189"/>
+      <c r="BC1" s="189"/>
+      <c r="BD1" s="189"/>
+      <c r="BE1" s="189"/>
+      <c r="BF1" s="189"/>
+      <c r="BG1" s="189"/>
     </row>
     <row r="2" spans="1:61" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="238" t="s">
+      <c r="A2" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="239" t="s">
+      <c r="B2" s="191" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="239" t="s">
+      <c r="C2" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="240" t="s">
+      <c r="D2" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="243" t="s">
+      <c r="E2" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="246" t="s">
+      <c r="F2" s="198" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="249" t="s">
+      <c r="G2" s="201" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="250" t="s">
+      <c r="H2" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="251" t="s">
+      <c r="I2" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="251" t="s">
+      <c r="J2" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="251" t="s">
+      <c r="K2" s="205" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="250" t="s">
+      <c r="L2" s="204" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="250" t="s">
+      <c r="M2" s="204" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="250" t="s">
+      <c r="N2" s="204" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="232" t="s">
+      <c r="O2" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="233"/>
-      <c r="Q2" s="233"/>
-      <c r="R2" s="233"/>
-      <c r="S2" s="218" t="s">
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="219" t="s">
+      <c r="T2" s="211" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="219" t="s">
+      <c r="U2" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="223" t="s">
+      <c r="V2" s="215" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="224"/>
-      <c r="X2" s="224"/>
-      <c r="Y2" s="224"/>
-      <c r="Z2" s="224"/>
-      <c r="AA2" s="225"/>
-      <c r="AB2" s="222" t="s">
+      <c r="W2" s="216"/>
+      <c r="X2" s="216"/>
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="216"/>
+      <c r="AA2" s="217"/>
+      <c r="AB2" s="214" t="s">
         <v>20</v>
       </c>
-      <c r="AC2" s="222"/>
-      <c r="AD2" s="222"/>
-      <c r="AE2" s="222"/>
+      <c r="AC2" s="214"/>
+      <c r="AD2" s="214"/>
+      <c r="AE2" s="214"/>
       <c r="AF2" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="AG2" s="223" t="s">
+      <c r="AG2" s="215" t="s">
         <v>22</v>
       </c>
-      <c r="AH2" s="224"/>
-      <c r="AI2" s="225"/>
-      <c r="AJ2" s="226" t="s">
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="217"/>
+      <c r="AJ2" s="218" t="s">
         <v>23</v>
       </c>
-      <c r="AK2" s="227"/>
-      <c r="AL2" s="227"/>
-      <c r="AM2" s="227"/>
-      <c r="AN2" s="228"/>
-      <c r="AO2" s="205" t="s">
+      <c r="AK2" s="219"/>
+      <c r="AL2" s="219"/>
+      <c r="AM2" s="219"/>
+      <c r="AN2" s="220"/>
+      <c r="AO2" s="245" t="s">
         <v>24</v>
       </c>
-      <c r="AP2" s="208" t="s">
+      <c r="AP2" s="246" t="s">
         <v>25</v>
       </c>
-      <c r="AQ2" s="211" t="s">
+      <c r="AQ2" s="249" t="s">
         <v>26</v>
       </c>
-      <c r="AR2" s="212"/>
-      <c r="AS2" s="212"/>
-      <c r="AT2" s="213"/>
-      <c r="AU2" s="214" t="s">
+      <c r="AR2" s="250"/>
+      <c r="AS2" s="250"/>
+      <c r="AT2" s="251"/>
+      <c r="AU2" s="206" t="s">
         <v>153</v>
       </c>
-      <c r="AV2" s="214" t="s">
+      <c r="AV2" s="206" t="s">
         <v>154</v>
       </c>
-      <c r="AW2" s="217" t="s">
+      <c r="AW2" s="209" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="190" t="s">
+      <c r="AX2" s="230" t="s">
         <v>155</v>
       </c>
-      <c r="AY2" s="191"/>
-      <c r="AZ2" s="191"/>
-      <c r="BA2" s="191"/>
-      <c r="BB2" s="192"/>
-      <c r="BC2" s="196" t="s">
+      <c r="AY2" s="231"/>
+      <c r="AZ2" s="231"/>
+      <c r="BA2" s="231"/>
+      <c r="BB2" s="232"/>
+      <c r="BC2" s="236" t="s">
         <v>31</v>
       </c>
-      <c r="BD2" s="196" t="s">
+      <c r="BD2" s="236" t="s">
         <v>32</v>
       </c>
-      <c r="BE2" s="196" t="s">
+      <c r="BE2" s="236" t="s">
         <v>33</v>
       </c>
-      <c r="BF2" s="199" t="s">
+      <c r="BF2" s="239" t="s">
         <v>34</v>
       </c>
-      <c r="BG2" s="202" t="s">
+      <c r="BG2" s="242" t="s">
         <v>35</v>
       </c>
-      <c r="BH2" s="184" t="s">
+      <c r="BH2" s="224" t="s">
         <v>118</v>
       </c>
-      <c r="BI2" s="184" t="s">
+      <c r="BI2" s="224" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:61" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="238"/>
-      <c r="B3" s="239"/>
-      <c r="C3" s="239"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="251"/>
-      <c r="J3" s="251"/>
-      <c r="K3" s="251"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="234"/>
-      <c r="P3" s="235"/>
-      <c r="Q3" s="235"/>
-      <c r="R3" s="235"/>
-      <c r="S3" s="218"/>
-      <c r="T3" s="220"/>
-      <c r="U3" s="220"/>
+      <c r="A3" s="190"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="187"/>
+      <c r="Q3" s="187"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="210"/>
+      <c r="T3" s="212"/>
+      <c r="U3" s="212"/>
       <c r="V3" s="54">
         <v>0.16</v>
       </c>
@@ -39789,13 +39789,13 @@
       <c r="AI3" s="141">
         <v>0.1</v>
       </c>
-      <c r="AJ3" s="229"/>
-      <c r="AK3" s="230"/>
-      <c r="AL3" s="230"/>
-      <c r="AM3" s="230"/>
-      <c r="AN3" s="231"/>
-      <c r="AO3" s="206"/>
-      <c r="AP3" s="209"/>
+      <c r="AJ3" s="221"/>
+      <c r="AK3" s="222"/>
+      <c r="AL3" s="222"/>
+      <c r="AM3" s="222"/>
+      <c r="AN3" s="223"/>
+      <c r="AO3" s="202"/>
+      <c r="AP3" s="247"/>
       <c r="AQ3" s="59">
         <v>0.08</v>
       </c>
@@ -39808,37 +39808,37 @@
       <c r="AT3" s="60">
         <v>0.05</v>
       </c>
-      <c r="AU3" s="215"/>
-      <c r="AV3" s="215"/>
-      <c r="AW3" s="215"/>
-      <c r="AX3" s="193"/>
-      <c r="AY3" s="194"/>
-      <c r="AZ3" s="194"/>
-      <c r="BA3" s="194"/>
-      <c r="BB3" s="195"/>
-      <c r="BC3" s="197"/>
-      <c r="BD3" s="197"/>
-      <c r="BE3" s="197"/>
-      <c r="BF3" s="200"/>
-      <c r="BG3" s="203"/>
-      <c r="BH3" s="185"/>
-      <c r="BI3" s="185"/>
+      <c r="AU3" s="207"/>
+      <c r="AV3" s="207"/>
+      <c r="AW3" s="207"/>
+      <c r="AX3" s="233"/>
+      <c r="AY3" s="234"/>
+      <c r="AZ3" s="234"/>
+      <c r="BA3" s="234"/>
+      <c r="BB3" s="235"/>
+      <c r="BC3" s="237"/>
+      <c r="BD3" s="237"/>
+      <c r="BE3" s="237"/>
+      <c r="BF3" s="240"/>
+      <c r="BG3" s="243"/>
+      <c r="BH3" s="225"/>
+      <c r="BI3" s="225"/>
     </row>
     <row r="4" spans="1:61" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="238"/>
-      <c r="B4" s="239"/>
-      <c r="C4" s="239"/>
-      <c r="D4" s="242"/>
-      <c r="E4" s="245"/>
-      <c r="F4" s="248"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="251"/>
-      <c r="J4" s="251"/>
-      <c r="K4" s="251"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="207"/>
-      <c r="N4" s="207"/>
+      <c r="A4" s="190"/>
+      <c r="B4" s="191"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="197"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="205"/>
+      <c r="K4" s="205"/>
+      <c r="L4" s="203"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="203"/>
       <c r="O4" s="53" t="s">
         <v>38</v>
       </c>
@@ -39851,9 +39851,9 @@
       <c r="R4" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="218"/>
-      <c r="T4" s="221"/>
-      <c r="U4" s="221"/>
+      <c r="S4" s="210"/>
+      <c r="T4" s="213"/>
+      <c r="U4" s="213"/>
       <c r="V4" s="141" t="s">
         <v>42</v>
       </c>
@@ -39909,8 +39909,8 @@
       <c r="AN4" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="AO4" s="207"/>
-      <c r="AP4" s="210"/>
+      <c r="AO4" s="203"/>
+      <c r="AP4" s="248"/>
       <c r="AQ4" s="62" t="s">
         <v>42</v>
       </c>
@@ -39923,9 +39923,9 @@
       <c r="AT4" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="AU4" s="216"/>
-      <c r="AV4" s="216"/>
-      <c r="AW4" s="216"/>
+      <c r="AU4" s="208"/>
+      <c r="AV4" s="208"/>
+      <c r="AW4" s="208"/>
       <c r="AX4" s="159" t="s">
         <v>156</v>
       </c>
@@ -39941,13 +39941,13 @@
       <c r="BB4" s="160" t="s">
         <v>160</v>
       </c>
-      <c r="BC4" s="198"/>
-      <c r="BD4" s="198"/>
-      <c r="BE4" s="198"/>
-      <c r="BF4" s="201"/>
-      <c r="BG4" s="204"/>
-      <c r="BH4" s="186"/>
-      <c r="BI4" s="186"/>
+      <c r="BC4" s="238"/>
+      <c r="BD4" s="238"/>
+      <c r="BE4" s="238"/>
+      <c r="BF4" s="241"/>
+      <c r="BG4" s="244"/>
+      <c r="BH4" s="226"/>
+      <c r="BI4" s="226"/>
     </row>
     <row r="5" spans="1:61" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="77">
@@ -42410,28 +42410,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="BF2:BF4"/>
-    <mergeCell ref="BG2:BG4"/>
-    <mergeCell ref="BH2:BH4"/>
-    <mergeCell ref="BI2:BI4"/>
-    <mergeCell ref="AV2:AV4"/>
-    <mergeCell ref="AW2:AW4"/>
-    <mergeCell ref="AX2:BB3"/>
-    <mergeCell ref="BC2:BC4"/>
-    <mergeCell ref="BD2:BD4"/>
-    <mergeCell ref="BE2:BE4"/>
-    <mergeCell ref="AU2:AU4"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="T2:T4"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AF4"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AJ2:AN3"/>
-    <mergeCell ref="AO2:AO4"/>
-    <mergeCell ref="AP2:AP4"/>
-    <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="O2:R3"/>
     <mergeCell ref="A1:BG1"/>
     <mergeCell ref="A2:A4"/>
@@ -42448,6 +42426,28 @@
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
+    <mergeCell ref="AU2:AU4"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="T2:T4"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AF4"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AN3"/>
+    <mergeCell ref="AO2:AO4"/>
+    <mergeCell ref="AP2:AP4"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="BF2:BF4"/>
+    <mergeCell ref="BG2:BG4"/>
+    <mergeCell ref="BH2:BH4"/>
+    <mergeCell ref="BI2:BI4"/>
+    <mergeCell ref="AV2:AV4"/>
+    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="AX2:BB3"/>
+    <mergeCell ref="BC2:BC4"/>
+    <mergeCell ref="BD2:BD4"/>
+    <mergeCell ref="BE2:BE4"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="1">
@@ -43840,171 +43840,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="188" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="237"/>
-      <c r="M1" s="237"/>
-      <c r="N1" s="237"/>
-      <c r="O1" s="237"/>
-      <c r="P1" s="237"/>
-      <c r="Q1" s="237"/>
-      <c r="R1" s="237"/>
-      <c r="S1" s="237"/>
-      <c r="T1" s="237"/>
-      <c r="U1" s="237"/>
-      <c r="V1" s="237"/>
-      <c r="W1" s="237"/>
-      <c r="X1" s="237"/>
-      <c r="Y1" s="237"/>
-      <c r="Z1" s="237"/>
-      <c r="AA1" s="237"/>
-      <c r="AB1" s="237"/>
-      <c r="AC1" s="237"/>
-      <c r="AD1" s="237"/>
-      <c r="AE1" s="237"/>
-      <c r="AF1" s="237"/>
-      <c r="AG1" s="237"/>
-      <c r="AH1" s="237"/>
-      <c r="AI1" s="237"/>
-      <c r="AJ1" s="237"/>
-      <c r="AK1" s="237"/>
-      <c r="AL1" s="237"/>
-      <c r="AM1" s="237"/>
-      <c r="AN1" s="237"/>
-      <c r="AO1" s="237"/>
-      <c r="AP1" s="237"/>
-      <c r="AQ1" s="237"/>
-      <c r="AR1" s="237"/>
-      <c r="AS1" s="237"/>
-      <c r="AT1" s="237"/>
-      <c r="AU1" s="237"/>
-      <c r="AV1" s="237"/>
-      <c r="AW1" s="237"/>
-      <c r="AX1" s="237"/>
-      <c r="AY1" s="237"/>
-      <c r="AZ1" s="237"/>
-      <c r="BA1" s="237"/>
-      <c r="BB1" s="237"/>
-      <c r="BC1" s="237"/>
-      <c r="BD1" s="237"/>
-      <c r="BE1" s="237"/>
-      <c r="BF1" s="237"/>
-      <c r="BG1" s="237"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="M1" s="189"/>
+      <c r="N1" s="189"/>
+      <c r="O1" s="189"/>
+      <c r="P1" s="189"/>
+      <c r="Q1" s="189"/>
+      <c r="R1" s="189"/>
+      <c r="S1" s="189"/>
+      <c r="T1" s="189"/>
+      <c r="U1" s="189"/>
+      <c r="V1" s="189"/>
+      <c r="W1" s="189"/>
+      <c r="X1" s="189"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="189"/>
+      <c r="AA1" s="189"/>
+      <c r="AB1" s="189"/>
+      <c r="AC1" s="189"/>
+      <c r="AD1" s="189"/>
+      <c r="AE1" s="189"/>
+      <c r="AF1" s="189"/>
+      <c r="AG1" s="189"/>
+      <c r="AH1" s="189"/>
+      <c r="AI1" s="189"/>
+      <c r="AJ1" s="189"/>
+      <c r="AK1" s="189"/>
+      <c r="AL1" s="189"/>
+      <c r="AM1" s="189"/>
+      <c r="AN1" s="189"/>
+      <c r="AO1" s="189"/>
+      <c r="AP1" s="189"/>
+      <c r="AQ1" s="189"/>
+      <c r="AR1" s="189"/>
+      <c r="AS1" s="189"/>
+      <c r="AT1" s="189"/>
+      <c r="AU1" s="189"/>
+      <c r="AV1" s="189"/>
+      <c r="AW1" s="189"/>
+      <c r="AX1" s="189"/>
+      <c r="AY1" s="189"/>
+      <c r="AZ1" s="189"/>
+      <c r="BA1" s="189"/>
+      <c r="BB1" s="189"/>
+      <c r="BC1" s="189"/>
+      <c r="BD1" s="189"/>
+      <c r="BE1" s="189"/>
+      <c r="BF1" s="189"/>
+      <c r="BG1" s="189"/>
     </row>
     <row r="2" spans="1:61" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="238" t="s">
+      <c r="A2" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="239" t="s">
+      <c r="B2" s="191" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="239" t="s">
+      <c r="C2" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="240" t="s">
+      <c r="D2" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="243" t="s">
+      <c r="E2" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="246" t="s">
+      <c r="F2" s="198" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="249" t="s">
+      <c r="G2" s="201" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="250" t="s">
+      <c r="H2" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="251" t="s">
+      <c r="I2" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="251" t="s">
+      <c r="J2" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="251" t="s">
+      <c r="K2" s="205" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="250" t="s">
+      <c r="L2" s="204" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="250" t="s">
+      <c r="M2" s="204" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="250" t="s">
+      <c r="N2" s="204" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="232" t="s">
+      <c r="O2" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="233"/>
-      <c r="Q2" s="233"/>
-      <c r="R2" s="233"/>
-      <c r="S2" s="218" t="s">
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="219" t="s">
+      <c r="T2" s="211" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="219" t="s">
+      <c r="U2" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="223" t="s">
+      <c r="V2" s="215" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="224"/>
-      <c r="X2" s="224"/>
-      <c r="Y2" s="224"/>
-      <c r="Z2" s="224"/>
-      <c r="AA2" s="225"/>
-      <c r="AB2" s="222" t="s">
+      <c r="W2" s="216"/>
+      <c r="X2" s="216"/>
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="216"/>
+      <c r="AA2" s="217"/>
+      <c r="AB2" s="214" t="s">
         <v>20</v>
       </c>
-      <c r="AC2" s="222"/>
-      <c r="AD2" s="222"/>
-      <c r="AE2" s="222"/>
+      <c r="AC2" s="214"/>
+      <c r="AD2" s="214"/>
+      <c r="AE2" s="214"/>
       <c r="AF2" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="AG2" s="223" t="s">
+      <c r="AG2" s="215" t="s">
         <v>22</v>
       </c>
-      <c r="AH2" s="224"/>
-      <c r="AI2" s="225"/>
-      <c r="AJ2" s="226" t="s">
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="217"/>
+      <c r="AJ2" s="218" t="s">
         <v>23</v>
       </c>
-      <c r="AK2" s="227"/>
-      <c r="AL2" s="227"/>
-      <c r="AM2" s="227"/>
-      <c r="AN2" s="228"/>
-      <c r="AO2" s="205" t="s">
+      <c r="AK2" s="219"/>
+      <c r="AL2" s="219"/>
+      <c r="AM2" s="219"/>
+      <c r="AN2" s="220"/>
+      <c r="AO2" s="245" t="s">
         <v>24</v>
       </c>
-      <c r="AP2" s="208" t="s">
+      <c r="AP2" s="246" t="s">
         <v>25</v>
       </c>
-      <c r="AQ2" s="211" t="s">
+      <c r="AQ2" s="249" t="s">
         <v>26</v>
       </c>
-      <c r="AR2" s="212"/>
-      <c r="AS2" s="212"/>
-      <c r="AT2" s="213"/>
-      <c r="AU2" s="208" t="s">
+      <c r="AR2" s="250"/>
+      <c r="AS2" s="250"/>
+      <c r="AT2" s="251"/>
+      <c r="AU2" s="246" t="s">
         <v>27</v>
       </c>
-      <c r="AV2" s="208" t="s">
+      <c r="AV2" s="246" t="s">
         <v>28</v>
       </c>
       <c r="AW2" s="260" t="s">
@@ -44017,50 +44017,50 @@
       <c r="AZ2" s="262"/>
       <c r="BA2" s="262"/>
       <c r="BB2" s="263"/>
-      <c r="BC2" s="196" t="s">
+      <c r="BC2" s="236" t="s">
         <v>31</v>
       </c>
-      <c r="BD2" s="196" t="s">
+      <c r="BD2" s="236" t="s">
         <v>32</v>
       </c>
-      <c r="BE2" s="196" t="s">
+      <c r="BE2" s="236" t="s">
         <v>33</v>
       </c>
-      <c r="BF2" s="199" t="s">
+      <c r="BF2" s="239" t="s">
         <v>34</v>
       </c>
-      <c r="BG2" s="202" t="s">
+      <c r="BG2" s="242" t="s">
         <v>35</v>
       </c>
-      <c r="BH2" s="184" t="s">
+      <c r="BH2" s="224" t="s">
         <v>118</v>
       </c>
-      <c r="BI2" s="184" t="s">
+      <c r="BI2" s="224" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:61" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="238"/>
-      <c r="B3" s="239"/>
-      <c r="C3" s="239"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="251"/>
-      <c r="J3" s="251"/>
-      <c r="K3" s="251"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="234"/>
-      <c r="P3" s="235"/>
-      <c r="Q3" s="235"/>
-      <c r="R3" s="235"/>
-      <c r="S3" s="218"/>
-      <c r="T3" s="220"/>
-      <c r="U3" s="220"/>
+      <c r="A3" s="190"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="187"/>
+      <c r="Q3" s="187"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="210"/>
+      <c r="T3" s="212"/>
+      <c r="U3" s="212"/>
       <c r="V3" s="54">
         <v>0.16</v>
       </c>
@@ -44102,13 +44102,13 @@
       <c r="AI3" s="68">
         <v>0.1</v>
       </c>
-      <c r="AJ3" s="229"/>
-      <c r="AK3" s="230"/>
-      <c r="AL3" s="230"/>
-      <c r="AM3" s="230"/>
-      <c r="AN3" s="231"/>
-      <c r="AO3" s="206"/>
-      <c r="AP3" s="209"/>
+      <c r="AJ3" s="221"/>
+      <c r="AK3" s="222"/>
+      <c r="AL3" s="222"/>
+      <c r="AM3" s="222"/>
+      <c r="AN3" s="223"/>
+      <c r="AO3" s="202"/>
+      <c r="AP3" s="247"/>
       <c r="AQ3" s="59">
         <v>0.08</v>
       </c>
@@ -44121,37 +44121,37 @@
       <c r="AT3" s="60">
         <v>0.05</v>
       </c>
-      <c r="AU3" s="209"/>
-      <c r="AV3" s="209"/>
-      <c r="AW3" s="209"/>
+      <c r="AU3" s="247"/>
+      <c r="AV3" s="247"/>
+      <c r="AW3" s="247"/>
       <c r="AX3" s="264"/>
       <c r="AY3" s="265"/>
       <c r="AZ3" s="265"/>
       <c r="BA3" s="265"/>
       <c r="BB3" s="266"/>
-      <c r="BC3" s="197"/>
-      <c r="BD3" s="197"/>
-      <c r="BE3" s="197"/>
-      <c r="BF3" s="200"/>
-      <c r="BG3" s="203"/>
-      <c r="BH3" s="185"/>
-      <c r="BI3" s="185"/>
+      <c r="BC3" s="237"/>
+      <c r="BD3" s="237"/>
+      <c r="BE3" s="237"/>
+      <c r="BF3" s="240"/>
+      <c r="BG3" s="243"/>
+      <c r="BH3" s="225"/>
+      <c r="BI3" s="225"/>
     </row>
     <row r="4" spans="1:61" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="238"/>
-      <c r="B4" s="239"/>
-      <c r="C4" s="239"/>
-      <c r="D4" s="242"/>
-      <c r="E4" s="245"/>
-      <c r="F4" s="248"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="251"/>
-      <c r="J4" s="251"/>
-      <c r="K4" s="251"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="207"/>
-      <c r="N4" s="207"/>
+      <c r="A4" s="190"/>
+      <c r="B4" s="191"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="197"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="205"/>
+      <c r="K4" s="205"/>
+      <c r="L4" s="203"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="203"/>
       <c r="O4" s="53" t="s">
         <v>38</v>
       </c>
@@ -44164,9 +44164,9 @@
       <c r="R4" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="218"/>
-      <c r="T4" s="221"/>
-      <c r="U4" s="221"/>
+      <c r="S4" s="210"/>
+      <c r="T4" s="213"/>
+      <c r="U4" s="213"/>
       <c r="V4" s="68" t="s">
         <v>42</v>
       </c>
@@ -44222,8 +44222,8 @@
       <c r="AN4" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="AO4" s="207"/>
-      <c r="AP4" s="210"/>
+      <c r="AO4" s="203"/>
+      <c r="AP4" s="248"/>
       <c r="AQ4" s="62" t="s">
         <v>42</v>
       </c>
@@ -44236,9 +44236,9 @@
       <c r="AT4" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="AU4" s="210"/>
-      <c r="AV4" s="210"/>
-      <c r="AW4" s="210"/>
+      <c r="AU4" s="248"/>
+      <c r="AV4" s="248"/>
+      <c r="AW4" s="248"/>
       <c r="AX4" s="67" t="s">
         <v>50</v>
       </c>
@@ -44254,13 +44254,13 @@
       <c r="BB4" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="BC4" s="198"/>
-      <c r="BD4" s="198"/>
-      <c r="BE4" s="198"/>
-      <c r="BF4" s="201"/>
-      <c r="BG4" s="204"/>
-      <c r="BH4" s="186"/>
-      <c r="BI4" s="186"/>
+      <c r="BC4" s="238"/>
+      <c r="BD4" s="238"/>
+      <c r="BE4" s="238"/>
+      <c r="BF4" s="241"/>
+      <c r="BG4" s="244"/>
+      <c r="BH4" s="226"/>
+      <c r="BI4" s="226"/>
     </row>
     <row r="5" spans="1:61" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="77">
@@ -47276,28 +47276,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="BF2:BF4"/>
-    <mergeCell ref="BG2:BG4"/>
-    <mergeCell ref="BH2:BH4"/>
-    <mergeCell ref="BI2:BI4"/>
-    <mergeCell ref="AV2:AV4"/>
-    <mergeCell ref="AW2:AW4"/>
-    <mergeCell ref="AX2:BB3"/>
-    <mergeCell ref="BC2:BC4"/>
-    <mergeCell ref="BD2:BD4"/>
-    <mergeCell ref="BE2:BE4"/>
-    <mergeCell ref="AU2:AU4"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="T2:T4"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AF4"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AJ2:AN3"/>
-    <mergeCell ref="AO2:AO4"/>
-    <mergeCell ref="AP2:AP4"/>
-    <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="O2:R3"/>
     <mergeCell ref="A1:BG1"/>
     <mergeCell ref="A2:A4"/>
@@ -47314,6 +47292,28 @@
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
+    <mergeCell ref="AU2:AU4"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="T2:T4"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AF4"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AN3"/>
+    <mergeCell ref="AO2:AO4"/>
+    <mergeCell ref="AP2:AP4"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="BF2:BF4"/>
+    <mergeCell ref="BG2:BG4"/>
+    <mergeCell ref="BH2:BH4"/>
+    <mergeCell ref="BI2:BI4"/>
+    <mergeCell ref="AV2:AV4"/>
+    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="AX2:BB3"/>
+    <mergeCell ref="BC2:BC4"/>
+    <mergeCell ref="BD2:BD4"/>
+    <mergeCell ref="BE2:BE4"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="1">
